--- a/ADBE.xlsx
+++ b/ADBE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF8551D-9844-4545-ADCC-10E7086993F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB27F681-5087-4D95-845F-66B5EAF5031D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" activeTab="1" xr2:uid="{B5255683-9904-4B96-B116-504FB2085B5B}"/>
+    <workbookView xWindow="6675" yWindow="765" windowWidth="21120" windowHeight="14670" xr2:uid="{B5255683-9904-4B96-B116-504FB2085B5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B5A162-EAE9-4CC5-AE4B-8B686CFC5399}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1F5702-5366-4A93-A101-38C235480BE9}">
   <dimension ref="A1:CW37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/ADBE.xlsx
+++ b/ADBE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6677170-D737-4994-AB19-60022CF8EB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1127F9-31FD-457F-8222-4BB4576C38EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{B5255683-9904-4B96-B116-504FB2085B5B}"/>
+    <workbookView xWindow="2655" yWindow="1635" windowWidth="19695" windowHeight="13635" xr2:uid="{B5255683-9904-4B96-B116-504FB2085B5B}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -838,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B5A162-EAE9-4CC5-AE4B-8B686CFC5399}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -857,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>383</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -877,7 +877,7 @@
       </c>
       <c r="D4" s="1">
         <f>D3*D2</f>
-        <v>163234.6</v>
+        <v>168775.19999999998</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -910,13 +910,13 @@
       </c>
       <c r="D7" s="1">
         <f>D4+D6-D5</f>
-        <v>163496.6</v>
+        <v>169037.19999999998</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D8" s="9">
         <f>D2/(1.1*4*model!G25)</f>
-        <v>21.025472112428634</v>
+        <v>21.739130434782606</v>
       </c>
     </row>
   </sheetData>
@@ -928,11 +928,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1F5702-5366-4A93-A101-38C235480BE9}">
   <dimension ref="A1:DJ93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N9" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="N73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U9" sqref="U9"/>
+      <selection pane="bottomRight" activeCell="Y87" sqref="Y87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1019,22 +1019,10 @@
         <f t="shared" ref="V1" si="1">U1+1</f>
         <v>2030</v>
       </c>
-      <c r="W1" s="2">
-        <f t="shared" ref="W1" si="2">V1+1</f>
-        <v>2031</v>
-      </c>
-      <c r="X1" s="2">
-        <f t="shared" ref="X1" si="3">W1+1</f>
-        <v>2032</v>
-      </c>
-      <c r="Y1" s="2">
-        <f t="shared" ref="Y1" si="4">X1+1</f>
-        <v>2033</v>
-      </c>
-      <c r="Z1" s="2">
-        <f t="shared" ref="Z1" si="5">Y1+1</f>
-        <v>2034</v>
-      </c>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
@@ -1196,11 +1184,11 @@
         <v>17606</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" ref="O9:P9" si="6">SUM(O6:O8)</f>
+        <f t="shared" ref="O9:P9" si="2">SUM(O6:O8)</f>
         <v>19409</v>
       </c>
       <c r="P9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>21505</v>
       </c>
       <c r="Q9" s="3">
@@ -1211,16 +1199,20 @@
         <v>25974.000000000004</v>
       </c>
       <c r="S9" s="3">
-        <f t="shared" ref="S9:U9" si="7">R9*1.11</f>
+        <f t="shared" ref="S9:V9" si="3">R9*1.11</f>
         <v>28831.140000000007</v>
       </c>
       <c r="T9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>32002.56540000001</v>
       </c>
       <c r="U9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>35522.847594000013</v>
+      </c>
+      <c r="V9" s="3">
+        <f t="shared" si="3"/>
+        <v>39430.360829340018</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -1275,11 +1267,11 @@
         <v>2165</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" ref="O13:P13" si="8">SUM(O10:O12)</f>
+        <f t="shared" ref="O13:P13" si="4">SUM(O10:O12)</f>
         <v>2354</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>2358</v>
       </c>
       <c r="Q13" s="1">
@@ -1287,20 +1279,24 @@
         <v>2456.9999999999995</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" ref="R13:U13" si="9">R9*(1-R30)</f>
+        <f t="shared" ref="R13:U13" si="5">R9*(1-R30)</f>
         <v>2727.27</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>3027.2697000000003</v>
       </c>
       <c r="T13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>3360.2693670000003</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>3729.8989973700009</v>
+      </c>
+      <c r="V13" s="1">
+        <f t="shared" ref="V13" si="6">V9*(1-V30)</f>
+        <v>4140.1878870807013</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
@@ -1312,32 +1308,36 @@
         <v>15441</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" ref="O14:P14" si="10">O9-O13</f>
+        <f t="shared" ref="O14:P14" si="7">O9-O13</f>
         <v>17055</v>
       </c>
       <c r="P14" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>19147</v>
       </c>
       <c r="Q14" s="1">
-        <f t="shared" ref="Q14" si="11">Q9-Q13</f>
+        <f t="shared" ref="Q14" si="8">Q9-Q13</f>
         <v>20943</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" ref="R14" si="12">R9-R13</f>
+        <f t="shared" ref="R14" si="9">R9-R13</f>
         <v>23246.730000000003</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" ref="S14" si="13">S9-S13</f>
+        <f t="shared" ref="S14" si="10">S9-S13</f>
         <v>25803.870300000006</v>
       </c>
       <c r="T14" s="1">
-        <f t="shared" ref="T14" si="14">T9-T13</f>
+        <f t="shared" ref="T14" si="11">T9-T13</f>
         <v>28642.29603300001</v>
       </c>
       <c r="U14" s="1">
-        <f t="shared" ref="U14" si="15">U9-U13</f>
+        <f t="shared" ref="U14:V14" si="12">U9-U13</f>
         <v>31792.948596630013</v>
+      </c>
+      <c r="V14" s="1">
+        <f t="shared" si="12"/>
+        <v>35290.17294225932</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -1358,20 +1358,24 @@
         <v>4291.541501976285</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" ref="R15:U15" si="16">Q15*(1+R27)</f>
+        <f t="shared" ref="R15:V15" si="13">Q15*(1+R27)</f>
         <v>4763.6110671936767</v>
       </c>
       <c r="S15" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>5287.6082845849814</v>
       </c>
       <c r="T15" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>5869.2451958893298</v>
       </c>
       <c r="U15" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>6514.862167437157</v>
+      </c>
+      <c r="V15" s="1">
+        <f t="shared" si="13"/>
+        <v>7231.4970058552453</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -1392,20 +1396,24 @@
         <v>6271.9181585677752</v>
       </c>
       <c r="R16" s="1">
-        <f t="shared" ref="R16:U16" si="17">Q16*(1+R27)</f>
+        <f t="shared" ref="R16:V16" si="14">Q16*(1+R27)</f>
         <v>6961.8291560102307</v>
       </c>
       <c r="S16" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>7727.6303631713563</v>
       </c>
       <c r="T16" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>8577.6697031202057</v>
       </c>
       <c r="U16" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>9521.2133704634289</v>
+      </c>
+      <c r="V16" s="1">
+        <f t="shared" si="14"/>
+        <v>10568.546841214407</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
@@ -1426,20 +1434,24 @@
         <v>1663.7340153452685</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" ref="R17:U17" si="18">Q17*(1+R27)</f>
+        <f t="shared" ref="R17:V17" si="15">Q17*(1+R27)</f>
         <v>1846.7447570332481</v>
       </c>
       <c r="S17" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>2049.8866803069054</v>
       </c>
       <c r="T17" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>2275.374215140665</v>
       </c>
       <c r="U17" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>2525.6653788061385</v>
+      </c>
+      <c r="V17" s="1">
+        <f t="shared" si="15"/>
+        <v>2803.488570474814</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
@@ -1451,32 +1463,36 @@
         <v>9174</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" ref="O18:U18" si="19">SUM(O15:O17)</f>
+        <f t="shared" ref="O18:U18" si="16">SUM(O15:O17)</f>
         <v>10237</v>
       </c>
       <c r="P18" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>11237</v>
       </c>
       <c r="Q18" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>12227.193675889328</v>
       </c>
       <c r="R18" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>13572.184980237154</v>
       </c>
       <c r="S18" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>15065.125328063243</v>
       </c>
       <c r="T18" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>16722.2891141502</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>18561.740916706724</v>
+      </c>
+      <c r="V18" s="1">
+        <f t="shared" ref="V18" si="17">SUM(V15:V17)</f>
+        <v>20603.532417544469</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.2">
@@ -1488,32 +1504,36 @@
         <v>6267</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" ref="O19:U19" si="20">O14-O18</f>
+        <f t="shared" ref="O19:U19" si="18">O14-O18</f>
         <v>6818</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>7910</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>8715.806324110672</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>9674.5450197628488</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>10738.744971936763</v>
       </c>
       <c r="T19" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>11920.006918849809</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>13231.207679923289</v>
+      </c>
+      <c r="V19" s="1">
+        <f t="shared" ref="V19" si="19">V14-V18</f>
+        <v>14686.64052471485</v>
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
@@ -1533,24 +1553,28 @@
         <v>-121</v>
       </c>
       <c r="Q20" s="1">
-        <f>P35*$X$85</f>
+        <f t="shared" ref="Q20:V20" si="20">P35*$Y$85</f>
         <v>11.34</v>
       </c>
       <c r="R20" s="1">
-        <f>Q35*$X$85</f>
+        <f t="shared" si="20"/>
         <v>438.09745524901183</v>
       </c>
       <c r="S20" s="1">
-        <f>R35*$X$85</f>
+        <f t="shared" si="20"/>
         <v>932.6056722770918</v>
       </c>
       <c r="T20" s="1">
-        <f>S35*$X$85</f>
+        <f t="shared" si="20"/>
         <v>1503.3347187791492</v>
       </c>
       <c r="U20" s="1">
-        <f>T35*$X$85</f>
+        <f t="shared" si="20"/>
         <v>2159.7361248592051</v>
+      </c>
+      <c r="V20" s="1">
+        <f t="shared" si="20"/>
+        <v>2912.3532769130688</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
@@ -1589,6 +1613,10 @@
         <f t="shared" si="21"/>
         <v>15390.943804782495</v>
       </c>
+      <c r="V21" s="1">
+        <f t="shared" ref="V21" si="22">V19+V20</f>
+        <v>17598.993801627919</v>
+      </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
@@ -1608,20 +1636,24 @@
         <v>1614.5220699604743</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" ref="R22:U22" si="22">R21*R28</f>
+        <f t="shared" ref="R22:U22" si="23">R21*R28</f>
         <v>1870.8388578771942</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2159.1998691795629</v>
       </c>
       <c r="T22" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2483.3182029613572</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2847.3246038847615</v>
+      </c>
+      <c r="V22" s="1">
+        <f t="shared" ref="V22" si="24">V21*V28</f>
+        <v>3255.8138533011652</v>
       </c>
     </row>
     <row r="23" spans="2:24" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1633,32 +1665,36 @@
         <v>4884</v>
       </c>
       <c r="O23" s="3">
-        <f t="shared" ref="O23:P23" si="23">O21-O22</f>
+        <f t="shared" ref="O23:P23" si="25">O21-O22</f>
         <v>5350</v>
       </c>
       <c r="P23" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6418</v>
       </c>
       <c r="Q23" s="3">
-        <f t="shared" ref="Q23" si="24">Q21-Q22</f>
+        <f t="shared" ref="Q23" si="26">Q21-Q22</f>
         <v>7112.6242541501979</v>
       </c>
       <c r="R23" s="3">
-        <f t="shared" ref="R23" si="25">R21-R22</f>
+        <f t="shared" ref="R23" si="27">R21-R22</f>
         <v>8241.8036171346666</v>
       </c>
       <c r="S23" s="3">
-        <f t="shared" ref="S23" si="26">S21-S22</f>
+        <f t="shared" ref="S23" si="28">S21-S22</f>
         <v>9512.1507750342917</v>
       </c>
       <c r="T23" s="3">
-        <f t="shared" ref="T23" si="27">T21-T22</f>
+        <f t="shared" ref="T23" si="29">T21-T22</f>
         <v>10940.023434667601</v>
       </c>
       <c r="U23" s="3">
-        <f t="shared" ref="U23" si="28">U21-U22</f>
+        <f t="shared" ref="U23:V23" si="30">U21-U22</f>
         <v>12543.619200897734</v>
+      </c>
+      <c r="V23" s="3">
+        <f t="shared" si="30"/>
+        <v>14343.179948326753</v>
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.2">
@@ -1689,6 +1725,9 @@
       <c r="U24" s="1">
         <v>450</v>
       </c>
+      <c r="V24" s="1">
+        <v>450</v>
+      </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
@@ -1702,32 +1741,36 @@
         <v>10.369426751592357</v>
       </c>
       <c r="O25" s="5">
-        <f t="shared" ref="O25:U25" si="29">O23/O24</f>
+        <f t="shared" ref="O25:U25" si="31">O23/O24</f>
         <v>11.655773420479303</v>
       </c>
       <c r="P25" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>14.262222222222222</v>
       </c>
       <c r="Q25" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>15.805831675889328</v>
       </c>
       <c r="R25" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>18.315119149188149</v>
       </c>
       <c r="S25" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>21.138112833409537</v>
       </c>
       <c r="T25" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>24.311163188150225</v>
       </c>
       <c r="U25" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>27.874709335328298</v>
+      </c>
+      <c r="V25" s="5">
+        <f t="shared" ref="V25" si="32">V23/V24</f>
+        <v>31.873733218503897</v>
       </c>
     </row>
     <row r="27" spans="2:24" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1743,23 +1786,27 @@
         <v>0.10799113813179462</v>
       </c>
       <c r="Q27" s="7">
-        <f t="shared" ref="Q27:U27" si="30">Q9/P9-1</f>
+        <f t="shared" ref="Q27:V27" si="33">Q9/P9-1</f>
         <v>8.811904208323651E-2</v>
       </c>
       <c r="R27" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.1100000000000001</v>
       </c>
       <c r="S27" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.1100000000000001</v>
       </c>
       <c r="T27" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.1100000000000001</v>
       </c>
       <c r="U27" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
+        <v>0.1100000000000001</v>
+      </c>
+      <c r="V27" s="7">
+        <f t="shared" si="33"/>
         <v>0.1100000000000001</v>
       </c>
     </row>
@@ -1772,11 +1819,11 @@
         <v>0.20404172099087353</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" ref="O28:P28" si="31">O22/O21</f>
+        <f t="shared" ref="O28:P28" si="34">O22/O21</f>
         <v>0.2039875018598423</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0.17601746052124792</v>
       </c>
       <c r="Q28" s="4">
@@ -1792,6 +1839,9 @@
         <v>0.185</v>
       </c>
       <c r="U28" s="4">
+        <v>0.185</v>
+      </c>
+      <c r="V28" s="4">
         <v>0.185</v>
       </c>
     </row>
@@ -1804,11 +1854,11 @@
         <v>0.87703055776439853</v>
       </c>
       <c r="O30" s="7">
-        <f t="shared" ref="O30:P30" si="32">O14/O9</f>
+        <f t="shared" ref="O30:P30" si="35">O14/O9</f>
         <v>0.87871605955999799</v>
       </c>
       <c r="P30" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.89035108114392003</v>
       </c>
       <c r="Q30" s="10">
@@ -1824,6 +1874,9 @@
         <v>0.89500000000000002</v>
       </c>
       <c r="U30" s="10">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="V30" s="10">
         <v>0.89500000000000002</v>
       </c>
     </row>
@@ -1836,32 +1889,36 @@
         <v>0.35595819606952173</v>
       </c>
       <c r="O31" s="4">
-        <f t="shared" ref="O31:U31" si="33">O19/O9</f>
+        <f t="shared" ref="O31:U31" si="36">O19/O9</f>
         <v>0.35128033386573237</v>
       </c>
       <c r="P31" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.36782143687514529</v>
       </c>
       <c r="Q31" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.37247035573122528</v>
       </c>
       <c r="R31" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.37247035573122533</v>
       </c>
       <c r="S31" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.37247035573122539</v>
       </c>
       <c r="T31" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.37247035573122539</v>
       </c>
       <c r="U31" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.37247035573122539</v>
+      </c>
+      <c r="V31" s="4">
+        <f t="shared" ref="V31" si="37">V19/V9</f>
+        <v>0.37247035573122533</v>
       </c>
       <c r="W31" s="1"/>
       <c r="X31" s="4"/>
@@ -1890,16 +1947,20 @@
         <v>0.41600000000000004</v>
       </c>
       <c r="S32" s="4">
-        <f t="shared" ref="S32:U32" si="34">R32*1.04</f>
+        <f t="shared" ref="S32:V32" si="38">R32*1.04</f>
         <v>0.43264000000000008</v>
       </c>
       <c r="T32" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.44994560000000011</v>
       </c>
       <c r="U32" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0.46794342400000011</v>
+      </c>
+      <c r="V32" s="4">
+        <f t="shared" si="38"/>
+        <v>0.48666116096000012</v>
       </c>
       <c r="W32" s="1"/>
       <c r="X32" s="4"/>
@@ -1913,32 +1974,36 @@
         <v>0.5210723616948767</v>
       </c>
       <c r="O33" s="4">
-        <f t="shared" ref="O33:U33" si="35">O18/O9</f>
+        <f t="shared" ref="O33:U33" si="39">O18/O9</f>
         <v>0.52743572569426556</v>
       </c>
       <c r="P33" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.52252964426877468</v>
       </c>
       <c r="Q33" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.52252964426877468</v>
       </c>
       <c r="R33" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.52252964426877468</v>
       </c>
       <c r="S33" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.52252964426877468</v>
       </c>
       <c r="T33" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.52252964426877457</v>
       </c>
       <c r="U33" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0.52252964426877457</v>
+      </c>
+      <c r="V33" s="4">
+        <f t="shared" ref="V33" si="40">V18/V9</f>
+        <v>0.5225296442687748</v>
       </c>
       <c r="W33" s="1"/>
       <c r="X33" s="4"/>
@@ -1977,24 +2042,28 @@
         <v>189</v>
       </c>
       <c r="Q35" s="1">
-        <f>P35+Q23</f>
+        <f t="shared" ref="Q35:V35" si="41">P35+Q23</f>
         <v>7301.6242541501979</v>
       </c>
       <c r="R35" s="1">
-        <f>Q35+R23</f>
+        <f t="shared" si="41"/>
         <v>15543.427871284865</v>
       </c>
       <c r="S35" s="1">
-        <f>R35+S23</f>
+        <f t="shared" si="41"/>
         <v>25055.578646319154</v>
       </c>
       <c r="T35" s="1">
-        <f>S35+T23</f>
+        <f t="shared" si="41"/>
         <v>35995.602080986755</v>
       </c>
       <c r="U35" s="1">
-        <f>T35+U23</f>
+        <f t="shared" si="41"/>
         <v>48539.221281884486</v>
+      </c>
+      <c r="V35" s="1">
+        <f t="shared" si="41"/>
+        <v>62882.401230211239</v>
       </c>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.2">
@@ -2314,7 +2383,7 @@
         <v>30230</v>
       </c>
     </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>71</v>
       </c>
@@ -2327,12 +2396,12 @@
         <v>34.68588700302255</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
     </row>
-    <row r="68" spans="2:21" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:22" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>72</v>
       </c>
@@ -2341,35 +2410,39 @@
         <v>4884</v>
       </c>
       <c r="O68" s="3">
-        <f t="shared" ref="O68:U68" si="36">O23</f>
+        <f t="shared" ref="O68:U68" si="42">O23</f>
         <v>5350</v>
       </c>
       <c r="P68" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>6418</v>
       </c>
       <c r="Q68" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>7112.6242541501979</v>
       </c>
       <c r="R68" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>8241.8036171346666</v>
       </c>
       <c r="S68" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>9512.1507750342917</v>
       </c>
       <c r="T68" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>10940.023434667601</v>
       </c>
       <c r="U68" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>12543.619200897734</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <f t="shared" ref="V68" si="43">V23</f>
+        <v>14343.179948326753</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>73</v>
       </c>
@@ -2383,7 +2456,7 @@
         <v>5560</v>
       </c>
     </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>74</v>
       </c>
@@ -2401,23 +2474,27 @@
         <v>932.51801906533365</v>
       </c>
       <c r="R70" s="1">
-        <f t="shared" ref="R70:U70" si="37">Q70*(1+R27)</f>
+        <f t="shared" ref="R70:V70" si="44">Q70*(1+R27)</f>
         <v>1035.0950011625205</v>
       </c>
       <c r="S70" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>1148.9554512903978</v>
       </c>
       <c r="T70" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>1275.3405509323418</v>
       </c>
       <c r="U70" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>1415.6280115348995</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="1">
+        <f t="shared" si="44"/>
+        <v>1571.3470928037386</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>75</v>
       </c>
@@ -2435,23 +2512,27 @@
         <v>2071.29</v>
       </c>
       <c r="R71" s="1">
-        <f t="shared" ref="R71:U71" si="38">Q71*1.13</f>
+        <f t="shared" ref="R71:V71" si="45">Q71*1.13</f>
         <v>2340.5576999999998</v>
       </c>
       <c r="S71" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>2644.8302009999998</v>
       </c>
       <c r="T71" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>2988.6581271299992</v>
       </c>
       <c r="U71" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>3377.1836836568987</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="1">
+        <f t="shared" si="45"/>
+        <v>3816.2175625322952</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
         <v>76</v>
       </c>
@@ -2469,23 +2550,27 @@
         <v>83.785166240409211</v>
       </c>
       <c r="R72" s="1">
-        <f t="shared" ref="R72:U72" si="39">Q72*(1+R27)</f>
+        <f t="shared" ref="R72:V72" si="46">Q72*(1+R27)</f>
         <v>93.001534526854229</v>
       </c>
       <c r="S72" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>103.23170332480821</v>
       </c>
       <c r="T72" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>114.58719069053713</v>
       </c>
       <c r="U72" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="46"/>
         <v>127.19178166649623</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="1">
+        <f t="shared" si="46"/>
+        <v>141.18287764981082</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>77</v>
       </c>
@@ -2503,23 +2588,27 @@
         <v>84.873285282492446</v>
       </c>
       <c r="R73" s="1">
-        <f t="shared" ref="R73:U73" si="40">Q73*(1+R27)</f>
+        <f t="shared" ref="R73:V73" si="47">Q73*(1+R27)</f>
         <v>94.20934666356662</v>
       </c>
       <c r="S73" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>104.57237479655896</v>
       </c>
       <c r="T73" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>116.07533602418046</v>
       </c>
       <c r="U73" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>128.84362298684033</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="1">
+        <f t="shared" si="47"/>
+        <v>143.01642151539278</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>48</v>
       </c>
@@ -2537,23 +2626,27 @@
         <v>-509.23971169495468</v>
       </c>
       <c r="R74" s="1">
-        <f t="shared" ref="R74:U74" si="41">Q74*(1+R27)</f>
+        <f t="shared" ref="R74:V74" si="48">Q74*(1+R27)</f>
         <v>-565.25607998139969</v>
       </c>
       <c r="S74" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>-627.43424877935377</v>
       </c>
       <c r="T74" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>-696.45201614508278</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>-773.06173792104198</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="1">
+        <f t="shared" si="48"/>
+        <v>-858.09852909235667</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
         <v>78</v>
       </c>
@@ -2571,23 +2664,27 @@
         <v>-38.084166472913275</v>
       </c>
       <c r="R75" s="1">
-        <f t="shared" ref="R75:U75" si="42">Q75*(1+R27)</f>
+        <f t="shared" ref="R75:V75" si="49">Q75*(1+R27)</f>
         <v>-42.273424784933738</v>
       </c>
       <c r="S75" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>-46.923501511276456</v>
       </c>
       <c r="T75" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>-52.08508667751687</v>
       </c>
       <c r="U75" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>-57.814446212043734</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="1">
+        <f t="shared" si="49"/>
+        <v>-64.174035295368554</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>79</v>
       </c>
@@ -2605,23 +2702,27 @@
         <v>10.881190420832365</v>
       </c>
       <c r="R76" s="1">
-        <f t="shared" ref="R76:U76" si="43">Q76*(1+R27)</f>
+        <f t="shared" ref="R76:V76" si="50">Q76*(1+R27)</f>
         <v>12.078121367123925</v>
       </c>
       <c r="S76" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>13.406714717507558</v>
       </c>
       <c r="T76" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>14.881453336433392</v>
       </c>
       <c r="U76" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>16.518413203441067</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="1">
+        <f t="shared" si="50"/>
+        <v>18.335438655819587</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>42</v>
       </c>
@@ -2639,23 +2740,27 @@
         <v>155.60102301790283</v>
       </c>
       <c r="R77" s="1">
-        <f t="shared" ref="R77:U77" si="44">Q77*(1+R27)</f>
+        <f t="shared" ref="R77:V77" si="51">Q77*(1+R27)</f>
         <v>172.71713554987215</v>
       </c>
       <c r="S77" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>191.7160204603581</v>
       </c>
       <c r="T77" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>212.8047827109975</v>
       </c>
       <c r="U77" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>236.21330880920723</v>
       </c>
-    </row>
-    <row r="78" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="1">
+        <f t="shared" si="51"/>
+        <v>262.19677277822007</v>
+      </c>
+    </row>
+    <row r="78" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>43</v>
       </c>
@@ -2673,23 +2778,27 @@
         <v>-670.28132992327369</v>
       </c>
       <c r="R78" s="1">
-        <f t="shared" ref="R78:U78" si="45">Q78*(1+R27)</f>
+        <f t="shared" ref="R78:V78" si="52">Q78*(1+R27)</f>
         <v>-744.01227621483383</v>
       </c>
       <c r="S78" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>-825.85362659846567</v>
       </c>
       <c r="T78" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>-916.69752552429702</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>-1017.5342533319698</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V78" s="1">
+        <f t="shared" si="52"/>
+        <v>-1129.4630211984866</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>80</v>
       </c>
@@ -2707,23 +2816,27 @@
         <v>47.877237851662407</v>
       </c>
       <c r="R79" s="1">
-        <f t="shared" ref="R79:U79" si="46">Q79*(1+R27)</f>
+        <f t="shared" ref="R79:V79" si="53">Q79*(1+R27)</f>
         <v>53.143734015345274</v>
       </c>
       <c r="S79" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>58.989544757033258</v>
       </c>
       <c r="T79" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>65.47839468030692</v>
       </c>
       <c r="U79" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>72.681018095140686</v>
       </c>
-    </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V79" s="1">
+        <f t="shared" si="53"/>
+        <v>80.675930085606169</v>
+      </c>
+    </row>
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>52</v>
       </c>
@@ -2741,20 +2854,24 @@
         <v>213.27133224831437</v>
       </c>
       <c r="R80" s="1">
-        <f t="shared" ref="R80:U80" si="47">Q80*(1+R27)</f>
+        <f t="shared" ref="R80:V80" si="54">Q80*(1+R27)</f>
         <v>236.73117879562898</v>
       </c>
       <c r="S80" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>262.7716084631482</v>
       </c>
       <c r="T80" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>291.67648539409453</v>
       </c>
       <c r="U80" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>323.76089878744494</v>
+      </c>
+      <c r="V80" s="1">
+        <f t="shared" si="54"/>
+        <v>359.3745976540639</v>
       </c>
     </row>
     <row r="81" spans="1:114" x14ac:dyDescent="0.2">
@@ -2775,20 +2892,24 @@
         <v>73.992094861660078</v>
       </c>
       <c r="R81" s="1">
-        <f t="shared" ref="R81:U81" si="48">Q81*(1+R27)</f>
+        <f t="shared" ref="R81:V81" si="55">Q81*(1+R27)</f>
         <v>82.131225296442693</v>
       </c>
       <c r="S81" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>91.165660079051392</v>
       </c>
       <c r="T81" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>101.19388268774705</v>
       </c>
       <c r="U81" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>112.32520978339923</v>
+      </c>
+      <c r="V81" s="1">
+        <f t="shared" si="55"/>
+        <v>124.68098285957316</v>
       </c>
     </row>
     <row r="82" spans="1:114" x14ac:dyDescent="0.2">
@@ -2809,20 +2930,24 @@
         <v>336.22878400372008</v>
       </c>
       <c r="R82" s="1">
-        <f t="shared" ref="R82:U82" si="49">Q82*(1+R27)</f>
+        <f t="shared" ref="R82:V82" si="56">Q82*(1+R27)</f>
         <v>373.21395024412931</v>
       </c>
       <c r="S82" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>414.26748477098357</v>
       </c>
       <c r="T82" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>459.83690809579178</v>
       </c>
       <c r="U82" s="1">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>510.41896798632894</v>
+      </c>
+      <c r="V82" s="1">
+        <f t="shared" si="56"/>
+        <v>566.56505446482515</v>
       </c>
     </row>
     <row r="83" spans="1:114" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2842,11 +2967,11 @@
         <v>7838</v>
       </c>
       <c r="O83" s="3">
-        <f t="shared" ref="O83:P83" si="50">SUM(O69:O82)</f>
+        <f t="shared" ref="O83:P83" si="57">SUM(O69:O82)</f>
         <v>7302</v>
       </c>
       <c r="P83" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>8056</v>
       </c>
       <c r="Q83" s="3">
@@ -2854,20 +2979,24 @@
         <v>9905.3371790513847</v>
       </c>
       <c r="R83" s="3">
-        <f t="shared" ref="R83:U83" si="51">SUM(R68:R82)</f>
+        <f t="shared" ref="R83:U83" si="58">SUM(R68:R82)</f>
         <v>11383.140763774987</v>
       </c>
       <c r="S83" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>13045.846161805044</v>
       </c>
       <c r="T83" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>14915.321918003132</v>
       </c>
       <c r="U83" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>17015.973679942781</v>
+      </c>
+      <c r="V83" s="3">
+        <f t="shared" ref="V83" si="59">SUM(V68:V82)</f>
+        <v>19375.037093739891</v>
       </c>
     </row>
     <row r="84" spans="1:114" x14ac:dyDescent="0.2">
@@ -2897,10 +3026,10 @@
       <c r="P85" s="1">
         <v>486</v>
       </c>
-      <c r="W85" s="1" t="s">
+      <c r="X85" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="X85" s="4">
+      <c r="Y85" s="4">
         <v>0.06</v>
       </c>
     </row>
@@ -2917,11 +3046,11 @@
       <c r="P86" s="1">
         <v>11</v>
       </c>
-      <c r="W86" s="1" t="s">
+      <c r="X86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="X86" s="4">
-        <v>0.02</v>
+      <c r="Y86" s="4">
+        <v>0.01</v>
       </c>
     </row>
     <row r="87" spans="1:114" x14ac:dyDescent="0.2">
@@ -2937,10 +3066,10 @@
       <c r="P87" s="1">
         <v>0</v>
       </c>
-      <c r="W87" s="1" t="s">
+      <c r="X87" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="X87" s="6">
+      <c r="Y87" s="6">
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
@@ -2957,12 +3086,12 @@
       <c r="P88" s="1">
         <v>-183</v>
       </c>
-      <c r="W88" s="1" t="s">
+      <c r="X88" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="X88" s="3">
-        <f>NPV(X87,Q92:DJ92)+main!D5-main!D6</f>
-        <v>221656.6093324603</v>
+      <c r="Y88" s="3">
+        <f>NPV(Y87,Q92:DJ92)+main!D5-main!D6</f>
+        <v>216488.87621701695</v>
       </c>
     </row>
     <row r="89" spans="1:114" x14ac:dyDescent="0.2">
@@ -2978,12 +3107,12 @@
       <c r="P89" s="1">
         <v>-108</v>
       </c>
-      <c r="W89" s="1" t="s">
+      <c r="X89" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X89" s="1">
-        <f>X88/main!D3</f>
-        <v>520.0765118077436</v>
+      <c r="Y89" s="1">
+        <f>Y88/main!D3</f>
+        <v>507.95137545053251</v>
       </c>
     </row>
     <row r="90" spans="1:114" x14ac:dyDescent="0.2">
@@ -2999,12 +3128,12 @@
       <c r="P90" s="1">
         <v>2</v>
       </c>
-      <c r="W90" s="1" t="s">
+      <c r="X90" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X90" s="4">
-        <f>X89/main!D2-1</f>
-        <v>0.35790211960246365</v>
+      <c r="Y90" s="4">
+        <f>Y89/main!D2-1</f>
+        <v>0.28270549356195085</v>
       </c>
     </row>
     <row r="91" spans="1:114" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3024,11 +3153,11 @@
         <v>-568</v>
       </c>
       <c r="O91" s="3">
-        <f t="shared" ref="O91:P91" si="52">O88+O87</f>
+        <f t="shared" ref="O91:P91" si="60">O88+O87</f>
         <v>-360</v>
       </c>
       <c r="P91" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>-183</v>
       </c>
       <c r="Q91" s="3">
@@ -3039,16 +3168,20 @@
         <v>-333.00000000000006</v>
       </c>
       <c r="S91" s="3">
-        <f t="shared" ref="S91:U91" si="53">R91*(1+S27)</f>
+        <f t="shared" ref="S91:V91" si="61">R91*(1+S27)</f>
         <v>-369.63000000000011</v>
       </c>
       <c r="T91" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>-410.28930000000014</v>
       </c>
       <c r="U91" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>-455.42112300000019</v>
+      </c>
+      <c r="V91" s="3">
+        <f t="shared" si="61"/>
+        <v>-505.51744653000026</v>
       </c>
     </row>
     <row r="92" spans="1:114" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3068,404 +3201,404 @@
         <v>7270</v>
       </c>
       <c r="O92" s="3">
-        <f t="shared" ref="O92:U92" si="54">O83+O91</f>
+        <f t="shared" ref="O92:U92" si="62">O83+O91</f>
         <v>6942</v>
       </c>
       <c r="P92" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>7873</v>
       </c>
       <c r="Q92" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>9605.3371790513847</v>
       </c>
       <c r="R92" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>11050.140763774987</v>
       </c>
       <c r="S92" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>12676.216161805045</v>
       </c>
       <c r="T92" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>14505.032618003132</v>
       </c>
       <c r="U92" s="3">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>16560.552556942781</v>
       </c>
       <c r="V92" s="3">
-        <f>U92*(1+$X$86)</f>
-        <v>16891.763608081637</v>
+        <f t="shared" ref="V92" si="63">V83+V91</f>
+        <v>18869.519647209891</v>
       </c>
       <c r="W92" s="3">
-        <f>V92*(1+$X$86)</f>
-        <v>17229.598880243269</v>
+        <f t="shared" ref="W92:BB92" si="64">V92*(1+$Y$86)</f>
+        <v>19058.214843681988</v>
       </c>
       <c r="X92" s="3">
-        <f>W92*(1+$X$86)</f>
-        <v>17574.190857848134</v>
+        <f t="shared" si="64"/>
+        <v>19248.796992118809</v>
       </c>
       <c r="Y92" s="3">
-        <f>X92*(1+$X$86)</f>
-        <v>17925.674675005099</v>
+        <f t="shared" si="64"/>
+        <v>19441.284962039997</v>
       </c>
       <c r="Z92" s="3">
-        <f>Y92*(1+$X$86)</f>
-        <v>18284.188168505199</v>
+        <f t="shared" si="64"/>
+        <v>19635.697811660397</v>
       </c>
       <c r="AA92" s="3">
-        <f>Z92*(1+$X$86)</f>
-        <v>18649.871931875303</v>
+        <f t="shared" si="64"/>
+        <v>19832.054789777001</v>
       </c>
       <c r="AB92" s="3">
-        <f>AA92*(1+$X$86)</f>
-        <v>19022.86937051281</v>
+        <f t="shared" si="64"/>
+        <v>20030.37533767477</v>
       </c>
       <c r="AC92" s="3">
-        <f>AB92*(1+$X$86)</f>
-        <v>19403.326757923067</v>
+        <f t="shared" si="64"/>
+        <v>20230.679091051519</v>
       </c>
       <c r="AD92" s="3">
-        <f>AC92*(1+$X$86)</f>
-        <v>19791.393293081528</v>
+        <f t="shared" si="64"/>
+        <v>20432.985881962035</v>
       </c>
       <c r="AE92" s="3">
-        <f>AD92*(1+$X$86)</f>
-        <v>20187.221158943157</v>
+        <f t="shared" si="64"/>
+        <v>20637.315740781654</v>
       </c>
       <c r="AF92" s="3">
-        <f>AE92*(1+$X$86)</f>
-        <v>20590.965582122022</v>
+        <f t="shared" si="64"/>
+        <v>20843.68889818947</v>
       </c>
       <c r="AG92" s="3">
-        <f>AF92*(1+$X$86)</f>
-        <v>21002.784893764463</v>
+        <f t="shared" si="64"/>
+        <v>21052.125787171364</v>
       </c>
       <c r="AH92" s="3">
-        <f>AG92*(1+$X$86)</f>
-        <v>21422.840591639753</v>
+        <f t="shared" si="64"/>
+        <v>21262.647045043079</v>
       </c>
       <c r="AI92" s="3">
-        <f>AH92*(1+$X$86)</f>
-        <v>21851.297403472548</v>
+        <f t="shared" si="64"/>
+        <v>21475.273515493511</v>
       </c>
       <c r="AJ92" s="3">
-        <f>AI92*(1+$X$86)</f>
-        <v>22288.323351542</v>
+        <f t="shared" si="64"/>
+        <v>21690.026250648447</v>
       </c>
       <c r="AK92" s="3">
-        <f>AJ92*(1+$X$86)</f>
-        <v>22734.08981857284</v>
+        <f t="shared" si="64"/>
+        <v>21906.926513154933</v>
       </c>
       <c r="AL92" s="3">
-        <f>AK92*(1+$X$86)</f>
-        <v>23188.771614944297</v>
+        <f t="shared" si="64"/>
+        <v>22125.995778286484</v>
       </c>
       <c r="AM92" s="3">
-        <f>AL92*(1+$X$86)</f>
-        <v>23652.547047243184</v>
+        <f t="shared" si="64"/>
+        <v>22347.25573606935</v>
       </c>
       <c r="AN92" s="3">
-        <f>AM92*(1+$X$86)</f>
-        <v>24125.597988188048</v>
+        <f t="shared" si="64"/>
+        <v>22570.728293430042</v>
       </c>
       <c r="AO92" s="3">
-        <f>AN92*(1+$X$86)</f>
-        <v>24608.109947951809</v>
+        <f t="shared" si="64"/>
+        <v>22796.435576364343</v>
       </c>
       <c r="AP92" s="3">
-        <f>AO92*(1+$X$86)</f>
-        <v>25100.272146910844</v>
+        <f t="shared" si="64"/>
+        <v>23024.399932127988</v>
       </c>
       <c r="AQ92" s="3">
-        <f>AP92*(1+$X$86)</f>
-        <v>25602.277589849062</v>
+        <f t="shared" si="64"/>
+        <v>23254.643931449267</v>
       </c>
       <c r="AR92" s="3">
-        <f>AQ92*(1+$X$86)</f>
-        <v>26114.323141646044</v>
+        <f t="shared" si="64"/>
+        <v>23487.190370763761</v>
       </c>
       <c r="AS92" s="3">
-        <f>AR92*(1+$X$86)</f>
-        <v>26636.609604478967</v>
+        <f t="shared" si="64"/>
+        <v>23722.062274471398</v>
       </c>
       <c r="AT92" s="3">
-        <f>AS92*(1+$X$86)</f>
-        <v>27169.341796568548</v>
+        <f t="shared" si="64"/>
+        <v>23959.282897216111</v>
       </c>
       <c r="AU92" s="3">
-        <f>AT92*(1+$X$86)</f>
-        <v>27712.728632499919</v>
+        <f t="shared" si="64"/>
+        <v>24198.875726188271</v>
       </c>
       <c r="AV92" s="3">
-        <f>AU92*(1+$X$86)</f>
-        <v>28266.983205149918</v>
+        <f t="shared" si="64"/>
+        <v>24440.864483450154</v>
       </c>
       <c r="AW92" s="3">
-        <f>AV92*(1+$X$86)</f>
-        <v>28832.322869252916</v>
+        <f t="shared" si="64"/>
+        <v>24685.273128284654</v>
       </c>
       <c r="AX92" s="3">
-        <f>AW92*(1+$X$86)</f>
-        <v>29408.969326637973</v>
+        <f t="shared" si="64"/>
+        <v>24932.125859567503</v>
       </c>
       <c r="AY92" s="3">
-        <f>AX92*(1+$X$86)</f>
-        <v>29997.148713170733</v>
+        <f t="shared" si="64"/>
+        <v>25181.447118163178</v>
       </c>
       <c r="AZ92" s="3">
-        <f>AY92*(1+$X$86)</f>
-        <v>30597.091687434149</v>
+        <f t="shared" si="64"/>
+        <v>25433.261589344809</v>
       </c>
       <c r="BA92" s="3">
-        <f>AZ92*(1+$X$86)</f>
-        <v>31209.033521182831</v>
+        <f t="shared" si="64"/>
+        <v>25687.594205238256</v>
       </c>
       <c r="BB92" s="3">
-        <f>BA92*(1+$X$86)</f>
-        <v>31833.21419160649</v>
+        <f t="shared" si="64"/>
+        <v>25944.470147290638</v>
       </c>
       <c r="BC92" s="3">
-        <f>BB92*(1+$X$86)</f>
-        <v>32469.878475438622</v>
+        <f t="shared" ref="BC92:CH92" si="65">BB92*(1+$Y$86)</f>
+        <v>26203.914848763543</v>
       </c>
       <c r="BD92" s="3">
-        <f>BC92*(1+$X$86)</f>
-        <v>33119.276044947394</v>
+        <f t="shared" si="65"/>
+        <v>26465.953997251177</v>
       </c>
       <c r="BE92" s="3">
-        <f>BD92*(1+$X$86)</f>
-        <v>33781.661565846342</v>
+        <f t="shared" si="65"/>
+        <v>26730.613537223689</v>
       </c>
       <c r="BF92" s="3">
-        <f>BE92*(1+$X$86)</f>
-        <v>34457.294797163268</v>
+        <f t="shared" si="65"/>
+        <v>26997.919672595926</v>
       </c>
       <c r="BG92" s="3">
-        <f>BF92*(1+$X$86)</f>
-        <v>35146.440693106531</v>
+        <f t="shared" si="65"/>
+        <v>27267.898869321885</v>
       </c>
       <c r="BH92" s="3">
-        <f>BG92*(1+$X$86)</f>
-        <v>35849.369506968666</v>
+        <f t="shared" si="65"/>
+        <v>27540.577858015105</v>
       </c>
       <c r="BI92" s="3">
-        <f>BH92*(1+$X$86)</f>
-        <v>36566.356897108039</v>
+        <f t="shared" si="65"/>
+        <v>27815.983636595258</v>
       </c>
       <c r="BJ92" s="3">
-        <f>BI92*(1+$X$86)</f>
-        <v>37297.684035050203</v>
+        <f t="shared" si="65"/>
+        <v>28094.143472961212</v>
       </c>
       <c r="BK92" s="3">
-        <f>BJ92*(1+$X$86)</f>
-        <v>38043.637715751211</v>
+        <f t="shared" si="65"/>
+        <v>28375.084907690823</v>
       </c>
       <c r="BL92" s="3">
-        <f>BK92*(1+$X$86)</f>
-        <v>38804.510470066234</v>
+        <f t="shared" si="65"/>
+        <v>28658.83575676773</v>
       </c>
       <c r="BM92" s="3">
-        <f>BL92*(1+$X$86)</f>
-        <v>39580.600679467556</v>
+        <f t="shared" si="65"/>
+        <v>28945.424114335408</v>
       </c>
       <c r="BN92" s="3">
-        <f>BM92*(1+$X$86)</f>
-        <v>40372.212693056907</v>
+        <f t="shared" si="65"/>
+        <v>29234.878355478762</v>
       </c>
       <c r="BO92" s="3">
-        <f>BN92*(1+$X$86)</f>
-        <v>41179.656946918047</v>
+        <f t="shared" si="65"/>
+        <v>29527.227139033552</v>
       </c>
       <c r="BP92" s="3">
-        <f>BO92*(1+$X$86)</f>
-        <v>42003.250085856409</v>
+        <f t="shared" si="65"/>
+        <v>29822.499410423887</v>
       </c>
       <c r="BQ92" s="3">
-        <f>BP92*(1+$X$86)</f>
-        <v>42843.315087573537</v>
+        <f t="shared" si="65"/>
+        <v>30120.724404528126</v>
       </c>
       <c r="BR92" s="3">
-        <f>BQ92*(1+$X$86)</f>
-        <v>43700.181389325007</v>
+        <f t="shared" si="65"/>
+        <v>30421.931648573409</v>
       </c>
       <c r="BS92" s="3">
-        <f>BR92*(1+$X$86)</f>
-        <v>44574.185017111507</v>
+        <f t="shared" si="65"/>
+        <v>30726.150965059143</v>
       </c>
       <c r="BT92" s="3">
-        <f>BS92*(1+$X$86)</f>
-        <v>45465.668717453736</v>
+        <f t="shared" si="65"/>
+        <v>31033.412474709734</v>
       </c>
       <c r="BU92" s="3">
-        <f>BT92*(1+$X$86)</f>
-        <v>46374.982091802813</v>
+        <f t="shared" si="65"/>
+        <v>31343.74659945683</v>
       </c>
       <c r="BV92" s="3">
-        <f>BU92*(1+$X$86)</f>
-        <v>47302.481733638873</v>
+        <f t="shared" si="65"/>
+        <v>31657.184065451398</v>
       </c>
       <c r="BW92" s="3">
-        <f>BV92*(1+$X$86)</f>
-        <v>48248.531368311655</v>
+        <f t="shared" si="65"/>
+        <v>31973.755906105911</v>
       </c>
       <c r="BX92" s="3">
-        <f>BW92*(1+$X$86)</f>
-        <v>49213.501995677885</v>
+        <f t="shared" si="65"/>
+        <v>32293.493465166972</v>
       </c>
       <c r="BY92" s="3">
-        <f>BX92*(1+$X$86)</f>
-        <v>50197.772035591443</v>
+        <f t="shared" si="65"/>
+        <v>32616.42839981864</v>
       </c>
       <c r="BZ92" s="3">
-        <f>BY92*(1+$X$86)</f>
-        <v>51201.727476303269</v>
+        <f t="shared" si="65"/>
+        <v>32942.592683816823</v>
       </c>
       <c r="CA92" s="3">
-        <f>BZ92*(1+$X$86)</f>
-        <v>52225.762025829339</v>
+        <f t="shared" si="65"/>
+        <v>33272.018610654995</v>
       </c>
       <c r="CB92" s="3">
-        <f>CA92*(1+$X$86)</f>
-        <v>53270.277266345925</v>
+        <f t="shared" si="65"/>
+        <v>33604.738796761543</v>
       </c>
       <c r="CC92" s="3">
-        <f>CB92*(1+$X$86)</f>
-        <v>54335.682811672843</v>
+        <f t="shared" si="65"/>
+        <v>33940.786184729157</v>
       </c>
       <c r="CD92" s="3">
-        <f>CC92*(1+$X$86)</f>
-        <v>55422.396467906299</v>
+        <f t="shared" si="65"/>
+        <v>34280.194046576449</v>
       </c>
       <c r="CE92" s="3">
-        <f>CD92*(1+$X$86)</f>
-        <v>56530.844397264424</v>
+        <f t="shared" si="65"/>
+        <v>34622.995987042217</v>
       </c>
       <c r="CF92" s="3">
-        <f>CE92*(1+$X$86)</f>
-        <v>57661.461285209713</v>
+        <f t="shared" si="65"/>
+        <v>34969.225946912637</v>
       </c>
       <c r="CG92" s="3">
-        <f>CF92*(1+$X$86)</f>
-        <v>58814.690510913904</v>
+        <f t="shared" si="65"/>
+        <v>35318.918206381764</v>
       </c>
       <c r="CH92" s="3">
-        <f>CG92*(1+$X$86)</f>
-        <v>59990.984321132186</v>
+        <f t="shared" si="65"/>
+        <v>35672.107388445584</v>
       </c>
       <c r="CI92" s="3">
-        <f>CH92*(1+$X$86)</f>
-        <v>61190.804007554834</v>
+        <f t="shared" ref="CI92:DJ92" si="66">CH92*(1+$Y$86)</f>
+        <v>36028.828462330042</v>
       </c>
       <c r="CJ92" s="3">
-        <f>CI92*(1+$X$86)</f>
-        <v>62414.620087705931</v>
+        <f t="shared" si="66"/>
+        <v>36389.116746953347</v>
       </c>
       <c r="CK92" s="3">
-        <f>CJ92*(1+$X$86)</f>
-        <v>63662.912489460054</v>
+        <f t="shared" si="66"/>
+        <v>36753.00791442288</v>
       </c>
       <c r="CL92" s="3">
-        <f>CK92*(1+$X$86)</f>
-        <v>64936.170739249254</v>
+        <f t="shared" si="66"/>
+        <v>37120.537993567108</v>
       </c>
       <c r="CM92" s="3">
-        <f>CL92*(1+$X$86)</f>
-        <v>66234.894154034235</v>
+        <f t="shared" si="66"/>
+        <v>37491.743373502781</v>
       </c>
       <c r="CN92" s="3">
-        <f>CM92*(1+$X$86)</f>
-        <v>67559.592037114926</v>
+        <f t="shared" si="66"/>
+        <v>37866.660807237808</v>
       </c>
       <c r="CO92" s="3">
-        <f>CN92*(1+$X$86)</f>
-        <v>68910.783877857219</v>
+        <f t="shared" si="66"/>
+        <v>38245.327415310188</v>
       </c>
       <c r="CP92" s="3">
-        <f>CO92*(1+$X$86)</f>
-        <v>70288.999555414368</v>
+        <f t="shared" si="66"/>
+        <v>38627.780689463289</v>
       </c>
       <c r="CQ92" s="3">
-        <f>CP92*(1+$X$86)</f>
-        <v>71694.779546522652</v>
+        <f t="shared" si="66"/>
+        <v>39014.058496357924</v>
       </c>
       <c r="CR92" s="3">
-        <f>CQ92*(1+$X$86)</f>
-        <v>73128.675137453101</v>
+        <f t="shared" si="66"/>
+        <v>39404.199081321502</v>
       </c>
       <c r="CS92" s="3">
-        <f>CR92*(1+$X$86)</f>
-        <v>74591.24864020216</v>
+        <f t="shared" si="66"/>
+        <v>39798.241072134719</v>
       </c>
       <c r="CT92" s="3">
-        <f>CS92*(1+$X$86)</f>
-        <v>76083.0736130062</v>
+        <f t="shared" si="66"/>
+        <v>40196.223482856069</v>
       </c>
       <c r="CU92" s="3">
-        <f>CT92*(1+$X$86)</f>
-        <v>77604.735085266322</v>
+        <f t="shared" si="66"/>
+        <v>40598.185717684632</v>
       </c>
       <c r="CV92" s="3">
-        <f>CU92*(1+$X$86)</f>
-        <v>79156.829786971648</v>
+        <f t="shared" si="66"/>
+        <v>41004.16757486148</v>
       </c>
       <c r="CW92" s="3">
-        <f>CV92*(1+$X$86)</f>
-        <v>80739.966382711078</v>
+        <f t="shared" si="66"/>
+        <v>41414.209250610096</v>
       </c>
       <c r="CX92" s="3">
-        <f>CW92*(1+$X$86)</f>
-        <v>82354.765710365304</v>
+        <f t="shared" si="66"/>
+        <v>41828.351343116199</v>
       </c>
       <c r="CY92" s="3">
-        <f>CX92*(1+$X$86)</f>
-        <v>84001.861024572616</v>
+        <f t="shared" si="66"/>
+        <v>42246.63485654736</v>
       </c>
       <c r="CZ92" s="3">
-        <f>CY92*(1+$X$86)</f>
-        <v>85681.898245064076</v>
+        <f t="shared" si="66"/>
+        <v>42669.101205112835</v>
       </c>
       <c r="DA92" s="3">
-        <f>CZ92*(1+$X$86)</f>
-        <v>87395.536209965358</v>
+        <f t="shared" si="66"/>
+        <v>43095.792217163966</v>
       </c>
       <c r="DB92" s="3">
-        <f>DA92*(1+$X$86)</f>
-        <v>89143.446934164662</v>
+        <f t="shared" si="66"/>
+        <v>43526.750139335607</v>
       </c>
       <c r="DC92" s="3">
-        <f>DB92*(1+$X$86)</f>
-        <v>90926.315872847961</v>
+        <f t="shared" si="66"/>
+        <v>43962.017640728962</v>
       </c>
       <c r="DD92" s="3">
-        <f>DC92*(1+$X$86)</f>
-        <v>92744.842190304917</v>
+        <f t="shared" si="66"/>
+        <v>44401.637817136252</v>
       </c>
       <c r="DE92" s="3">
-        <f>DD92*(1+$X$86)</f>
-        <v>94599.739034111015</v>
+        <f t="shared" si="66"/>
+        <v>44845.654195307616</v>
       </c>
       <c r="DF92" s="3">
-        <f>DE92*(1+$X$86)</f>
-        <v>96491.733814793231</v>
+        <f t="shared" si="66"/>
+        <v>45294.110737260693</v>
       </c>
       <c r="DG92" s="3">
-        <f>DF92*(1+$X$86)</f>
-        <v>98421.5684910891</v>
+        <f t="shared" si="66"/>
+        <v>45747.051844633301</v>
       </c>
       <c r="DH92" s="3">
-        <f>DG92*(1+$X$86)</f>
-        <v>100389.99986091089</v>
+        <f t="shared" si="66"/>
+        <v>46204.522363079632</v>
       </c>
       <c r="DI92" s="3">
-        <f>DH92*(1+$X$86)</f>
-        <v>102397.7998581291</v>
+        <f t="shared" si="66"/>
+        <v>46666.567586710429</v>
       </c>
       <c r="DJ92" s="3">
-        <f>DI92*(1+$X$86)</f>
-        <v>104445.75585529169</v>
+        <f t="shared" si="66"/>
+        <v>47133.233262577531</v>
       </c>
     </row>
     <row r="93" spans="1:114" x14ac:dyDescent="0.2">

--- a/ADBE.xlsx
+++ b/ADBE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1127F9-31FD-457F-8222-4BB4576C38EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8945E039-D960-4587-8E92-FAFB547FAF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="1635" windowWidth="19695" windowHeight="13635" xr2:uid="{B5255683-9904-4B96-B116-504FB2085B5B}"/>
+    <workbookView xWindow="4980" yWindow="930" windowWidth="23670" windowHeight="14145" activeTab="1" xr2:uid="{B5255683-9904-4B96-B116-504FB2085B5B}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -838,7 +838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B5A162-EAE9-4CC5-AE4B-8B686CFC5399}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -857,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>396</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -877,7 +877,7 @@
       </c>
       <c r="D4" s="1">
         <f>D3*D2</f>
-        <v>168775.19999999998</v>
+        <v>179004</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -910,13 +910,13 @@
       </c>
       <c r="D7" s="1">
         <f>D4+D6-D5</f>
-        <v>169037.19999999998</v>
+        <v>179266</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D8" s="9">
         <f>D2/(1.1*4*model!G25)</f>
-        <v>21.739130434782606</v>
+        <v>23.056653491436098</v>
       </c>
     </row>
   </sheetData>
@@ -928,11 +928,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1F5702-5366-4A93-A101-38C235480BE9}">
   <dimension ref="A1:DJ93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N73" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="N70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y87" sqref="Y87"/>
+      <selection pane="bottomRight" activeCell="Y88" sqref="Y88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="Y90" s="4">
         <f>Y89/main!D2-1</f>
-        <v>0.28270549356195085</v>
+        <v>0.20940803678698217</v>
       </c>
     </row>
     <row r="91" spans="1:114" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">

--- a/ADBE.xlsx
+++ b/ADBE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8945E039-D960-4587-8E92-FAFB547FAF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8908D3CF-35C7-4774-A6A8-6B9AB8B3D88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="930" windowWidth="23670" windowHeight="14145" activeTab="1" xr2:uid="{B5255683-9904-4B96-B116-504FB2085B5B}"/>
+    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14640" xr2:uid="{B5255683-9904-4B96-B116-504FB2085B5B}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -383,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -396,6 +396,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -838,7 +839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B5A162-EAE9-4CC5-AE4B-8B686CFC5399}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -856,8 +857,8 @@
       <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
-        <v>420</v>
+      <c r="D2" s="5">
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -877,7 +878,7 @@
       </c>
       <c r="D4" s="1">
         <f>D3*D2</f>
-        <v>179004</v>
+        <v>176020.6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -910,13 +911,13 @@
       </c>
       <c r="D7" s="1">
         <f>D4+D6-D5</f>
-        <v>179266</v>
+        <v>176282.6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D8" s="9">
         <f>D2/(1.1*4*model!G25)</f>
-        <v>23.056653491436098</v>
+        <v>22.672375933245497</v>
       </c>
     </row>
   </sheetData>
@@ -928,11 +929,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1F5702-5366-4A93-A101-38C235480BE9}">
   <dimension ref="A1:DJ93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N70" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="N67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y88" sqref="Y88"/>
+      <selection pane="bottomRight" activeCell="W86" sqref="W86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1554,27 +1555,27 @@
       </c>
       <c r="Q20" s="1">
         <f t="shared" ref="Q20:V20" si="20">P35*$Y$85</f>
-        <v>11.34</v>
+        <v>7.5600000000000005</v>
       </c>
       <c r="R20" s="1">
         <f t="shared" si="20"/>
-        <v>438.09745524901183</v>
+        <v>291.94174216600788</v>
       </c>
       <c r="S20" s="1">
         <f t="shared" si="20"/>
-        <v>932.6056722770918</v>
+        <v>616.84921060488864</v>
       </c>
       <c r="T20" s="1">
         <f t="shared" si="20"/>
-        <v>1503.3347187791492</v>
+        <v>987.04158095574644</v>
       </c>
       <c r="U20" s="1">
         <f t="shared" si="20"/>
-        <v>2159.7361248592051</v>
+        <v>1407.8113620494075</v>
       </c>
       <c r="V20" s="1">
         <f t="shared" si="20"/>
-        <v>2912.3532769130688</v>
+        <v>1885.0433828177174</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
@@ -1595,27 +1596,27 @@
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="21"/>
-        <v>8727.1463241106721</v>
+        <v>8723.3663241106715</v>
       </c>
       <c r="R21" s="1">
         <f t="shared" si="21"/>
-        <v>10112.64247501186</v>
+        <v>9966.4867619288561</v>
       </c>
       <c r="S21" s="1">
         <f t="shared" si="21"/>
-        <v>11671.350644213855</v>
+        <v>11355.594182541652</v>
       </c>
       <c r="T21" s="1">
         <f t="shared" si="21"/>
-        <v>13423.341637628959</v>
+        <v>12907.048499805556</v>
       </c>
       <c r="U21" s="1">
         <f t="shared" si="21"/>
-        <v>15390.943804782495</v>
+        <v>14639.019041972697</v>
       </c>
       <c r="V21" s="1">
         <f t="shared" ref="V21" si="22">V19+V20</f>
-        <v>17598.993801627919</v>
+        <v>16571.68390753257</v>
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
@@ -1633,27 +1634,27 @@
       </c>
       <c r="Q22" s="1">
         <f>Q21*Q28</f>
-        <v>1614.5220699604743</v>
+        <v>1613.8227699604743</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" ref="R22:U22" si="23">R21*R28</f>
-        <v>1870.8388578771942</v>
+        <v>1843.8000509568383</v>
       </c>
       <c r="S22" s="1">
         <f t="shared" si="23"/>
-        <v>2159.1998691795629</v>
+        <v>2100.7849237702058</v>
       </c>
       <c r="T22" s="1">
         <f t="shared" si="23"/>
-        <v>2483.3182029613572</v>
+        <v>2387.803972464028</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" si="23"/>
-        <v>2847.3246038847615</v>
+        <v>2708.2185227649488</v>
       </c>
       <c r="V22" s="1">
         <f t="shared" ref="V22" si="24">V21*V28</f>
-        <v>3255.8138533011652</v>
+        <v>3065.7615228935256</v>
       </c>
     </row>
     <row r="23" spans="2:24" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1674,27 +1675,27 @@
       </c>
       <c r="Q23" s="3">
         <f t="shared" ref="Q23" si="26">Q21-Q22</f>
-        <v>7112.6242541501979</v>
+        <v>7109.5435541501975</v>
       </c>
       <c r="R23" s="3">
         <f t="shared" ref="R23" si="27">R21-R22</f>
-        <v>8241.8036171346666</v>
+        <v>8122.6867109720179</v>
       </c>
       <c r="S23" s="3">
         <f t="shared" ref="S23" si="28">S21-S22</f>
-        <v>9512.1507750342917</v>
+        <v>9254.8092587714455</v>
       </c>
       <c r="T23" s="3">
         <f t="shared" ref="T23" si="29">T21-T22</f>
-        <v>10940.023434667601</v>
+        <v>10519.244527341529</v>
       </c>
       <c r="U23" s="3">
         <f t="shared" ref="U23:V23" si="30">U21-U22</f>
-        <v>12543.619200897734</v>
+        <v>11930.800519207747</v>
       </c>
       <c r="V23" s="3">
         <f t="shared" si="30"/>
-        <v>14343.179948326753</v>
+        <v>13505.922384639045</v>
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.2">
@@ -1750,27 +1751,27 @@
       </c>
       <c r="Q25" s="5">
         <f t="shared" si="31"/>
-        <v>15.805831675889328</v>
+        <v>15.798985675889327</v>
       </c>
       <c r="R25" s="5">
         <f t="shared" si="31"/>
-        <v>18.315119149188149</v>
+        <v>18.050414913271151</v>
       </c>
       <c r="S25" s="5">
         <f t="shared" si="31"/>
-        <v>21.138112833409537</v>
+        <v>20.566242797269879</v>
       </c>
       <c r="T25" s="5">
         <f t="shared" si="31"/>
-        <v>24.311163188150225</v>
+        <v>23.37609894964784</v>
       </c>
       <c r="U25" s="5">
         <f t="shared" si="31"/>
-        <v>27.874709335328298</v>
+        <v>26.512890042683882</v>
       </c>
       <c r="V25" s="5">
         <f t="shared" ref="V25" si="32">V23/V24</f>
-        <v>31.873733218503897</v>
+        <v>30.013160854753433</v>
       </c>
     </row>
     <row r="27" spans="2:24" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2043,27 +2044,27 @@
       </c>
       <c r="Q35" s="1">
         <f t="shared" ref="Q35:V35" si="41">P35+Q23</f>
-        <v>7301.6242541501979</v>
+        <v>7298.5435541501975</v>
       </c>
       <c r="R35" s="1">
         <f t="shared" si="41"/>
-        <v>15543.427871284865</v>
+        <v>15421.230265122216</v>
       </c>
       <c r="S35" s="1">
         <f t="shared" si="41"/>
-        <v>25055.578646319154</v>
+        <v>24676.039523893662</v>
       </c>
       <c r="T35" s="1">
         <f t="shared" si="41"/>
-        <v>35995.602080986755</v>
+        <v>35195.28405123519</v>
       </c>
       <c r="U35" s="1">
         <f t="shared" si="41"/>
-        <v>48539.221281884486</v>
+        <v>47126.084570442938</v>
       </c>
       <c r="V35" s="1">
         <f t="shared" si="41"/>
-        <v>62882.401230211239</v>
+        <v>60632.006955081983</v>
       </c>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.2">
@@ -2419,27 +2420,27 @@
       </c>
       <c r="Q68" s="3">
         <f t="shared" si="42"/>
-        <v>7112.6242541501979</v>
+        <v>7109.5435541501975</v>
       </c>
       <c r="R68" s="3">
         <f t="shared" si="42"/>
-        <v>8241.8036171346666</v>
+        <v>8122.6867109720179</v>
       </c>
       <c r="S68" s="3">
         <f t="shared" si="42"/>
-        <v>9512.1507750342917</v>
+        <v>9254.8092587714455</v>
       </c>
       <c r="T68" s="3">
         <f t="shared" si="42"/>
-        <v>10940.023434667601</v>
+        <v>10519.244527341529</v>
       </c>
       <c r="U68" s="3">
         <f t="shared" si="42"/>
-        <v>12543.619200897734</v>
+        <v>11930.800519207747</v>
       </c>
       <c r="V68" s="3">
         <f t="shared" ref="V68" si="43">V23</f>
-        <v>14343.179948326753</v>
+        <v>13505.922384639045</v>
       </c>
     </row>
     <row r="69" spans="2:22" x14ac:dyDescent="0.2">
@@ -2976,27 +2977,27 @@
       </c>
       <c r="Q83" s="3">
         <f>SUM(Q68:Q82)</f>
-        <v>9905.3371790513847</v>
+        <v>9902.2564790513861</v>
       </c>
       <c r="R83" s="3">
         <f t="shared" ref="R83:U83" si="58">SUM(R68:R82)</f>
-        <v>11383.140763774987</v>
+        <v>11264.023857612337</v>
       </c>
       <c r="S83" s="3">
         <f t="shared" si="58"/>
-        <v>13045.846161805044</v>
+        <v>12788.504645542196</v>
       </c>
       <c r="T83" s="3">
         <f t="shared" si="58"/>
-        <v>14915.321918003132</v>
+        <v>14494.54301067706</v>
       </c>
       <c r="U83" s="3">
         <f t="shared" si="58"/>
-        <v>17015.973679942781</v>
+        <v>16403.154998252794</v>
       </c>
       <c r="V83" s="3">
         <f t="shared" ref="V83" si="59">SUM(V68:V82)</f>
-        <v>19375.037093739891</v>
+        <v>18537.779530052183</v>
       </c>
     </row>
     <row r="84" spans="1:114" x14ac:dyDescent="0.2">
@@ -3029,8 +3030,8 @@
       <c r="X85" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Y85" s="4">
-        <v>0.06</v>
+      <c r="Y85" s="12">
+        <v>0.04</v>
       </c>
     </row>
     <row r="86" spans="1:114" x14ac:dyDescent="0.2">
@@ -3049,7 +3050,7 @@
       <c r="X86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Y86" s="4">
+      <c r="Y86" s="12">
         <v>0.01</v>
       </c>
     </row>
@@ -3091,7 +3092,7 @@
       </c>
       <c r="Y88" s="3">
         <f>NPV(Y87,Q92:DJ92)+main!D5-main!D6</f>
-        <v>216488.87621701695</v>
+        <v>208057.50797721083</v>
       </c>
     </row>
     <row r="89" spans="1:114" x14ac:dyDescent="0.2">
@@ -3110,9 +3111,9 @@
       <c r="X89" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Y89" s="1">
+      <c r="Y89" s="5">
         <f>Y88/main!D3</f>
-        <v>507.95137545053251</v>
+        <v>488.16871885783866</v>
       </c>
     </row>
     <row r="90" spans="1:114" x14ac:dyDescent="0.2">
@@ -3133,7 +3134,7 @@
       </c>
       <c r="Y90" s="4">
         <f>Y89/main!D2-1</f>
-        <v>0.20940803678698217</v>
+        <v>0.18200658319089258</v>
       </c>
     </row>
     <row r="91" spans="1:114" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3210,395 +3211,395 @@
       </c>
       <c r="Q92" s="3">
         <f t="shared" si="62"/>
-        <v>9605.3371790513847</v>
+        <v>9602.2564790513861</v>
       </c>
       <c r="R92" s="3">
         <f t="shared" si="62"/>
-        <v>11050.140763774987</v>
+        <v>10931.023857612337</v>
       </c>
       <c r="S92" s="3">
         <f t="shared" si="62"/>
-        <v>12676.216161805045</v>
+        <v>12418.874645542197</v>
       </c>
       <c r="T92" s="3">
         <f t="shared" si="62"/>
-        <v>14505.032618003132</v>
+        <v>14084.25371067706</v>
       </c>
       <c r="U92" s="3">
         <f t="shared" si="62"/>
-        <v>16560.552556942781</v>
+        <v>15947.733875252794</v>
       </c>
       <c r="V92" s="3">
         <f t="shared" ref="V92" si="63">V83+V91</f>
-        <v>18869.519647209891</v>
+        <v>18032.262083522182</v>
       </c>
       <c r="W92" s="3">
         <f t="shared" ref="W92:BB92" si="64">V92*(1+$Y$86)</f>
-        <v>19058.214843681988</v>
+        <v>18212.584704357403</v>
       </c>
       <c r="X92" s="3">
         <f t="shared" si="64"/>
-        <v>19248.796992118809</v>
+        <v>18394.710551400978</v>
       </c>
       <c r="Y92" s="3">
         <f t="shared" si="64"/>
-        <v>19441.284962039997</v>
+        <v>18578.657656914987</v>
       </c>
       <c r="Z92" s="3">
         <f t="shared" si="64"/>
-        <v>19635.697811660397</v>
+        <v>18764.444233484137</v>
       </c>
       <c r="AA92" s="3">
         <f t="shared" si="64"/>
-        <v>19832.054789777001</v>
+        <v>18952.088675818977</v>
       </c>
       <c r="AB92" s="3">
         <f t="shared" si="64"/>
-        <v>20030.37533767477</v>
+        <v>19141.609562577167</v>
       </c>
       <c r="AC92" s="3">
         <f t="shared" si="64"/>
-        <v>20230.679091051519</v>
+        <v>19333.02565820294</v>
       </c>
       <c r="AD92" s="3">
         <f t="shared" si="64"/>
-        <v>20432.985881962035</v>
+        <v>19526.35591478497</v>
       </c>
       <c r="AE92" s="3">
         <f t="shared" si="64"/>
-        <v>20637.315740781654</v>
+        <v>19721.61947393282</v>
       </c>
       <c r="AF92" s="3">
         <f t="shared" si="64"/>
-        <v>20843.68889818947</v>
+        <v>19918.835668672149</v>
       </c>
       <c r="AG92" s="3">
         <f t="shared" si="64"/>
-        <v>21052.125787171364</v>
+        <v>20118.024025358871</v>
       </c>
       <c r="AH92" s="3">
         <f t="shared" si="64"/>
-        <v>21262.647045043079</v>
+        <v>20319.204265612461</v>
       </c>
       <c r="AI92" s="3">
         <f t="shared" si="64"/>
-        <v>21475.273515493511</v>
+        <v>20522.396308268588</v>
       </c>
       <c r="AJ92" s="3">
         <f t="shared" si="64"/>
-        <v>21690.026250648447</v>
+        <v>20727.620271351272</v>
       </c>
       <c r="AK92" s="3">
         <f t="shared" si="64"/>
-        <v>21906.926513154933</v>
+        <v>20934.896474064786</v>
       </c>
       <c r="AL92" s="3">
         <f t="shared" si="64"/>
-        <v>22125.995778286484</v>
+        <v>21144.245438805436</v>
       </c>
       <c r="AM92" s="3">
         <f t="shared" si="64"/>
-        <v>22347.25573606935</v>
+        <v>21355.687893193492</v>
       </c>
       <c r="AN92" s="3">
         <f t="shared" si="64"/>
-        <v>22570.728293430042</v>
+        <v>21569.244772125428</v>
       </c>
       <c r="AO92" s="3">
         <f t="shared" si="64"/>
-        <v>22796.435576364343</v>
+        <v>21784.937219846684</v>
       </c>
       <c r="AP92" s="3">
         <f t="shared" si="64"/>
-        <v>23024.399932127988</v>
+        <v>22002.786592045151</v>
       </c>
       <c r="AQ92" s="3">
         <f t="shared" si="64"/>
-        <v>23254.643931449267</v>
+        <v>22222.814457965604</v>
       </c>
       <c r="AR92" s="3">
         <f t="shared" si="64"/>
-        <v>23487.190370763761</v>
+        <v>22445.042602545262</v>
       </c>
       <c r="AS92" s="3">
         <f t="shared" si="64"/>
-        <v>23722.062274471398</v>
+        <v>22669.493028570716</v>
       </c>
       <c r="AT92" s="3">
         <f t="shared" si="64"/>
-        <v>23959.282897216111</v>
+        <v>22896.187958856422</v>
       </c>
       <c r="AU92" s="3">
         <f t="shared" si="64"/>
-        <v>24198.875726188271</v>
+        <v>23125.149838444988</v>
       </c>
       <c r="AV92" s="3">
         <f t="shared" si="64"/>
-        <v>24440.864483450154</v>
+        <v>23356.401336829436</v>
       </c>
       <c r="AW92" s="3">
         <f t="shared" si="64"/>
-        <v>24685.273128284654</v>
+        <v>23589.96535019773</v>
       </c>
       <c r="AX92" s="3">
         <f t="shared" si="64"/>
-        <v>24932.125859567503</v>
+        <v>23825.865003699706</v>
       </c>
       <c r="AY92" s="3">
         <f t="shared" si="64"/>
-        <v>25181.447118163178</v>
+        <v>24064.123653736704</v>
       </c>
       <c r="AZ92" s="3">
         <f t="shared" si="64"/>
-        <v>25433.261589344809</v>
+        <v>24304.764890274073</v>
       </c>
       <c r="BA92" s="3">
         <f t="shared" si="64"/>
-        <v>25687.594205238256</v>
+        <v>24547.812539176815</v>
       </c>
       <c r="BB92" s="3">
         <f t="shared" si="64"/>
-        <v>25944.470147290638</v>
+        <v>24793.290664568583</v>
       </c>
       <c r="BC92" s="3">
         <f t="shared" ref="BC92:CH92" si="65">BB92*(1+$Y$86)</f>
-        <v>26203.914848763543</v>
+        <v>25041.223571214268</v>
       </c>
       <c r="BD92" s="3">
         <f t="shared" si="65"/>
-        <v>26465.953997251177</v>
+        <v>25291.63580692641</v>
       </c>
       <c r="BE92" s="3">
         <f t="shared" si="65"/>
-        <v>26730.613537223689</v>
+        <v>25544.552164995675</v>
       </c>
       <c r="BF92" s="3">
         <f t="shared" si="65"/>
-        <v>26997.919672595926</v>
+        <v>25799.997686645631</v>
       </c>
       <c r="BG92" s="3">
         <f t="shared" si="65"/>
-        <v>27267.898869321885</v>
+        <v>26057.997663512087</v>
       </c>
       <c r="BH92" s="3">
         <f t="shared" si="65"/>
-        <v>27540.577858015105</v>
+        <v>26318.57764014721</v>
       </c>
       <c r="BI92" s="3">
         <f t="shared" si="65"/>
-        <v>27815.983636595258</v>
+        <v>26581.763416548682</v>
       </c>
       <c r="BJ92" s="3">
         <f t="shared" si="65"/>
-        <v>28094.143472961212</v>
+        <v>26847.581050714169</v>
       </c>
       <c r="BK92" s="3">
         <f t="shared" si="65"/>
-        <v>28375.084907690823</v>
+        <v>27116.05686122131</v>
       </c>
       <c r="BL92" s="3">
         <f t="shared" si="65"/>
-        <v>28658.83575676773</v>
+        <v>27387.217429833523</v>
       </c>
       <c r="BM92" s="3">
         <f t="shared" si="65"/>
-        <v>28945.424114335408</v>
+        <v>27661.089604131859</v>
       </c>
       <c r="BN92" s="3">
         <f t="shared" si="65"/>
-        <v>29234.878355478762</v>
+        <v>27937.700500173178</v>
       </c>
       <c r="BO92" s="3">
         <f t="shared" si="65"/>
-        <v>29527.227139033552</v>
+        <v>28217.077505174911</v>
       </c>
       <c r="BP92" s="3">
         <f t="shared" si="65"/>
-        <v>29822.499410423887</v>
+        <v>28499.24828022666</v>
       </c>
       <c r="BQ92" s="3">
         <f t="shared" si="65"/>
-        <v>30120.724404528126</v>
+        <v>28784.240763028927</v>
       </c>
       <c r="BR92" s="3">
         <f t="shared" si="65"/>
-        <v>30421.931648573409</v>
+        <v>29072.083170659218</v>
       </c>
       <c r="BS92" s="3">
         <f t="shared" si="65"/>
-        <v>30726.150965059143</v>
+        <v>29362.80400236581</v>
       </c>
       <c r="BT92" s="3">
         <f t="shared" si="65"/>
-        <v>31033.412474709734</v>
+        <v>29656.432042389468</v>
       </c>
       <c r="BU92" s="3">
         <f t="shared" si="65"/>
-        <v>31343.74659945683</v>
+        <v>29952.996362813363</v>
       </c>
       <c r="BV92" s="3">
         <f t="shared" si="65"/>
-        <v>31657.184065451398</v>
+        <v>30252.526326441497</v>
       </c>
       <c r="BW92" s="3">
         <f t="shared" si="65"/>
-        <v>31973.755906105911</v>
+        <v>30555.051589705912</v>
       </c>
       <c r="BX92" s="3">
         <f t="shared" si="65"/>
-        <v>32293.493465166972</v>
+        <v>30860.602105602971</v>
       </c>
       <c r="BY92" s="3">
         <f t="shared" si="65"/>
-        <v>32616.42839981864</v>
+        <v>31169.208126659003</v>
       </c>
       <c r="BZ92" s="3">
         <f t="shared" si="65"/>
-        <v>32942.592683816823</v>
+        <v>31480.900207925592</v>
       </c>
       <c r="CA92" s="3">
         <f t="shared" si="65"/>
-        <v>33272.018610654995</v>
+        <v>31795.709210004847</v>
       </c>
       <c r="CB92" s="3">
         <f t="shared" si="65"/>
-        <v>33604.738796761543</v>
+        <v>32113.666302104895</v>
       </c>
       <c r="CC92" s="3">
         <f t="shared" si="65"/>
-        <v>33940.786184729157</v>
+        <v>32434.802965125946</v>
       </c>
       <c r="CD92" s="3">
         <f t="shared" si="65"/>
-        <v>34280.194046576449</v>
+        <v>32759.150994777207</v>
       </c>
       <c r="CE92" s="3">
         <f t="shared" si="65"/>
-        <v>34622.995987042217</v>
+        <v>33086.742504724978</v>
       </c>
       <c r="CF92" s="3">
         <f t="shared" si="65"/>
-        <v>34969.225946912637</v>
+        <v>33417.609929772225</v>
       </c>
       <c r="CG92" s="3">
         <f t="shared" si="65"/>
-        <v>35318.918206381764</v>
+        <v>33751.786029069946</v>
       </c>
       <c r="CH92" s="3">
         <f t="shared" si="65"/>
-        <v>35672.107388445584</v>
+        <v>34089.303889360643</v>
       </c>
       <c r="CI92" s="3">
         <f t="shared" ref="CI92:DJ92" si="66">CH92*(1+$Y$86)</f>
-        <v>36028.828462330042</v>
+        <v>34430.196928254249</v>
       </c>
       <c r="CJ92" s="3">
         <f t="shared" si="66"/>
-        <v>36389.116746953347</v>
+        <v>34774.498897536789</v>
       </c>
       <c r="CK92" s="3">
         <f t="shared" si="66"/>
-        <v>36753.00791442288</v>
+        <v>35122.243886512158</v>
       </c>
       <c r="CL92" s="3">
         <f t="shared" si="66"/>
-        <v>37120.537993567108</v>
+        <v>35473.466325377281</v>
       </c>
       <c r="CM92" s="3">
         <f t="shared" si="66"/>
-        <v>37491.743373502781</v>
+        <v>35828.200988631055</v>
       </c>
       <c r="CN92" s="3">
         <f t="shared" si="66"/>
-        <v>37866.660807237808</v>
+        <v>36186.482998517364</v>
       </c>
       <c r="CO92" s="3">
         <f t="shared" si="66"/>
-        <v>38245.327415310188</v>
+        <v>36548.347828502541</v>
       </c>
       <c r="CP92" s="3">
         <f t="shared" si="66"/>
-        <v>38627.780689463289</v>
+        <v>36913.831306787564</v>
       </c>
       <c r="CQ92" s="3">
         <f t="shared" si="66"/>
-        <v>39014.058496357924</v>
+        <v>37282.969619855437</v>
       </c>
       <c r="CR92" s="3">
         <f t="shared" si="66"/>
-        <v>39404.199081321502</v>
+        <v>37655.799316053992</v>
       </c>
       <c r="CS92" s="3">
         <f t="shared" si="66"/>
-        <v>39798.241072134719</v>
+        <v>38032.357309214531</v>
       </c>
       <c r="CT92" s="3">
         <f t="shared" si="66"/>
-        <v>40196.223482856069</v>
+        <v>38412.680882306675</v>
       </c>
       <c r="CU92" s="3">
         <f t="shared" si="66"/>
-        <v>40598.185717684632</v>
+        <v>38796.807691129739</v>
       </c>
       <c r="CV92" s="3">
         <f t="shared" si="66"/>
-        <v>41004.16757486148</v>
+        <v>39184.775768041036</v>
       </c>
       <c r="CW92" s="3">
         <f t="shared" si="66"/>
-        <v>41414.209250610096</v>
+        <v>39576.623525721443</v>
       </c>
       <c r="CX92" s="3">
         <f t="shared" si="66"/>
-        <v>41828.351343116199</v>
+        <v>39972.389760978658</v>
       </c>
       <c r="CY92" s="3">
         <f t="shared" si="66"/>
-        <v>42246.63485654736</v>
+        <v>40372.113658588445</v>
       </c>
       <c r="CZ92" s="3">
         <f t="shared" si="66"/>
-        <v>42669.101205112835</v>
+        <v>40775.834795174327</v>
       </c>
       <c r="DA92" s="3">
         <f t="shared" si="66"/>
-        <v>43095.792217163966</v>
+        <v>41183.593143126069</v>
       </c>
       <c r="DB92" s="3">
         <f t="shared" si="66"/>
-        <v>43526.750139335607</v>
+        <v>41595.429074557331</v>
       </c>
       <c r="DC92" s="3">
         <f t="shared" si="66"/>
-        <v>43962.017640728962</v>
+        <v>42011.383365302907</v>
       </c>
       <c r="DD92" s="3">
         <f t="shared" si="66"/>
-        <v>44401.637817136252</v>
+        <v>42431.497198955934</v>
       </c>
       <c r="DE92" s="3">
         <f t="shared" si="66"/>
-        <v>44845.654195307616</v>
+        <v>42855.812170945494</v>
       </c>
       <c r="DF92" s="3">
         <f t="shared" si="66"/>
-        <v>45294.110737260693</v>
+        <v>43284.370292654952</v>
       </c>
       <c r="DG92" s="3">
         <f t="shared" si="66"/>
-        <v>45747.051844633301</v>
+        <v>43717.2139955815</v>
       </c>
       <c r="DH92" s="3">
         <f t="shared" si="66"/>
-        <v>46204.522363079632</v>
+        <v>44154.386135537316</v>
       </c>
       <c r="DI92" s="3">
         <f t="shared" si="66"/>
-        <v>46666.567586710429</v>
+        <v>44595.929996892686</v>
       </c>
       <c r="DJ92" s="3">
         <f t="shared" si="66"/>
-        <v>47133.233262577531</v>
+        <v>45041.889296861613</v>
       </c>
     </row>
     <row r="93" spans="1:114" x14ac:dyDescent="0.2">

--- a/ADBE.xlsx
+++ b/ADBE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC89AED8-7BF7-470E-ACBF-1599A241534D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9276CF-235A-4ECE-826B-7CCD9AF9A694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="435" windowWidth="22125" windowHeight="14250" activeTab="1" xr2:uid="{B5255683-9904-4B96-B116-504FB2085B5B}"/>
+    <workbookView xWindow="2235" yWindow="1170" windowWidth="21945" windowHeight="13935" activeTab="1" xr2:uid="{B5255683-9904-4B96-B116-504FB2085B5B}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="3">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -882,7 +882,7 @@
       </c>
       <c r="O4" s="4">
         <f>O3*O2</f>
-        <v>166218</v>
+        <v>164939.4</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -915,13 +915,13 @@
       </c>
       <c r="O7" s="4">
         <f>O4+O6-O5</f>
-        <v>166480</v>
+        <v>165201.4</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="O8" s="2">
         <f>O2/(1.1*4*model!G25)</f>
-        <v>21.409749670619235</v>
+        <v>21.245059288537547</v>
       </c>
     </row>
   </sheetData>
@@ -934,10 +934,10 @@
   <dimension ref="A1:DJ94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y87" sqref="Y87"/>
+      <selection pane="bottomRight" activeCell="Y85" sqref="Y85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="Y90" s="14">
         <f>Y89/main!O2-1</f>
-        <v>2.4247315717820239E-2</v>
+        <v>3.2187217390051481E-2</v>
       </c>
     </row>
     <row r="91" spans="1:114" s="10" customFormat="1" x14ac:dyDescent="0.2">

--- a/ADBE.xlsx
+++ b/ADBE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1725E58B-85F8-41F6-BE42-CB2AEEDAC4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2E20AE-9E34-4538-9821-D6FCB9777779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{B5255683-9904-4B96-B116-504FB2085B5B}"/>
+    <workbookView xWindow="2580" yWindow="1890" windowWidth="22620" windowHeight="13140" activeTab="1" xr2:uid="{B5255683-9904-4B96-B116-504FB2085B5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1002,10 +1002,10 @@
   <dimension ref="A1:DK94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Z57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="R69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE71" sqref="AE71"/>
+      <selection pane="bottomRight" activeCell="AD82" sqref="AD82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/ADBE.xlsx
+++ b/ADBE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2E20AE-9E34-4538-9821-D6FCB9777779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8604F4D9-321E-41B3-ABF4-2004203D5C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="1890" windowWidth="22620" windowHeight="13140" activeTab="1" xr2:uid="{B5255683-9904-4B96-B116-504FB2085B5B}"/>
+    <workbookView xWindow="2025" yWindow="1650" windowWidth="23595" windowHeight="13935" activeTab="1" xr2:uid="{B5255683-9904-4B96-B116-504FB2085B5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="3">
-        <v>360</v>
+        <v>372.5</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -945,7 +945,7 @@
       </c>
       <c r="O4" s="4">
         <f>O3*O2</f>
-        <v>152712</v>
+        <v>158014.5</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -978,7 +978,7 @@
       </c>
       <c r="O7" s="4">
         <f>O4+O6-O5</f>
-        <v>154619</v>
+        <v>159921.5</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="AD89" s="14">
         <f>AD88/Main!O2-1</f>
-        <v>0.31383272722044553</v>
+        <v>0.26974438066942397</v>
       </c>
     </row>
     <row r="90" spans="1:115" x14ac:dyDescent="0.2">

--- a/ADBE.xlsx
+++ b/ADBE.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8604F4D9-321E-41B3-ABF4-2004203D5C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CE0028-B6A3-4AB9-AA79-2DD11FB9BD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="1650" windowWidth="23595" windowHeight="13935" activeTab="1" xr2:uid="{B5255683-9904-4B96-B116-504FB2085B5B}"/>
+    <workbookView xWindow="4425" yWindow="645" windowWidth="22935" windowHeight="13935" xr2:uid="{B5255683-9904-4B96-B116-504FB2085B5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
-    <sheet name="Qualitative" sheetId="3" r:id="rId3"/>
+    <sheet name="Literature" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
   <si>
     <t>Price</t>
   </si>
@@ -341,6 +341,21 @@
   </si>
   <si>
     <t>Hard to learn and master and large set of tools makes it advantageous for customer to stay</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>What is the competitive advantage over competitors?</t>
+  </si>
+  <si>
+    <t>How will management advance the technology as competitors "catch up" to the current software?</t>
+  </si>
+  <si>
+    <t>Is the ecosystem sufficient and is it disadvantageous to pay lower to switch to a different software due to learning?</t>
+  </si>
+  <si>
+    <t>Can they sell cloud side software with server side compute?</t>
   </si>
 </sst>
 </file>
@@ -357,6 +372,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -406,20 +427,11 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <u/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -441,31 +453,32 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -906,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B5A162-EAE9-4CC5-AE4B-8B686CFC5399}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M21" sqref="L21:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -988,8 +1001,31 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J10" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="N10" s="18" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J11" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J12" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J13" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J14" s="20" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1001,7 +1037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1F5702-5366-4A93-A101-38C235480BE9}">
   <dimension ref="A1:DK94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="R69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3845,7 +3881,7 @@
         <f t="shared" si="79"/>
         <v>-70.614615645619551</v>
       </c>
-      <c r="AC75" s="21"/>
+      <c r="AC75" s="19"/>
     </row>
     <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B76" s="6" t="s">
@@ -3900,7 +3936,7 @@
         <f t="shared" si="80"/>
         <v>20.175604470177014</v>
       </c>
-      <c r="AC76" s="21"/>
+      <c r="AC76" s="19"/>
     </row>
     <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
@@ -3954,7 +3990,7 @@
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="AC77" s="21"/>
+      <c r="AC77" s="19"/>
     </row>
     <row r="78" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B78" s="6" t="s">
@@ -4009,7 +4045,7 @@
         <f t="shared" si="82"/>
         <v>-1242.8172353629041</v>
       </c>
-      <c r="AC78" s="21"/>
+      <c r="AC78" s="19"/>
     </row>
     <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="6" t="s">
@@ -4064,7 +4100,7 @@
         <f t="shared" si="83"/>
         <v>88.772659668778857</v>
       </c>
-      <c r="AC79" s="21"/>
+      <c r="AC79" s="19"/>
     </row>
     <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B80" s="6" t="s">
@@ -4941,56 +4977,68 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3C055F-E604-4755-AF20-EEFE8F06FE88}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="20"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="21" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="20" t="s">
         <v>100</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{57CC344B-77FC-4721-A491-E9AD202E5FE1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ADBE.xlsx
+++ b/ADBE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CE0028-B6A3-4AB9-AA79-2DD11FB9BD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5E74B9-C211-4A79-98C0-97C39ABA1CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="645" windowWidth="22935" windowHeight="13935" xr2:uid="{B5255683-9904-4B96-B116-504FB2085B5B}"/>
+    <workbookView xWindow="1605" yWindow="1425" windowWidth="22335" windowHeight="13875" activeTab="1" xr2:uid="{B5255683-9904-4B96-B116-504FB2085B5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -921,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B5A162-EAE9-4CC5-AE4B-8B686CFC5399}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M21" sqref="L21:M21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="3">
-        <v>372.5</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -958,7 +958,7 @@
       </c>
       <c r="O4" s="4">
         <f>O3*O2</f>
-        <v>158014.5</v>
+        <v>147621.6</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -991,7 +991,7 @@
       </c>
       <c r="O7" s="4">
         <f>O4+O6-O5</f>
-        <v>159921.5</v>
+        <v>149528.6</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1037,11 +1037,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1F5702-5366-4A93-A101-38C235480BE9}">
   <dimension ref="A1:DK94"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="R69" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="S68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD82" sqref="AD82"/>
+      <selection pane="bottomRight" activeCell="AE93" sqref="AE93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1057,12 +1057,12 @@
     <col min="19" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C2" s="7" t="s">
         <v>60</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>86</v>
@@ -1180,7 +1180,7 @@
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
         <v>87</v>
@@ -1209,7 +1209,7 @@
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="H5" s="6"/>
       <c r="I5" s="14"/>
@@ -1229,8 +1229,9 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB5" s="14"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1262,7 +1263,7 @@
         <v>20521</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1291,7 +1292,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
         <v>9</v>
       </c>
@@ -1402,23 +1403,23 @@
         <v>33100.220844520009</v>
       </c>
       <c r="X9" s="10">
-        <f t="shared" si="7"/>
-        <v>35417.236303636411</v>
+        <f t="shared" ref="X9:AA9" si="8">W9*1.03</f>
+        <v>34093.227469855607</v>
       </c>
       <c r="Y9" s="10">
-        <f t="shared" si="7"/>
-        <v>37896.44284489096</v>
+        <f t="shared" si="8"/>
+        <v>35116.024293951275</v>
       </c>
       <c r="Z9" s="10">
-        <f t="shared" si="7"/>
-        <v>40549.193844033332</v>
+        <f t="shared" si="8"/>
+        <v>36169.505022769816</v>
       </c>
       <c r="AA9" s="10">
-        <f t="shared" si="7"/>
-        <v>43387.63741311567</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>37254.590173452911</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
@@ -1440,7 +1441,7 @@
       </c>
       <c r="AA10" s="14"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
@@ -1462,7 +1463,7 @@
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
@@ -1482,7 +1483,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
@@ -1495,19 +1496,19 @@
         <v>598</v>
       </c>
       <c r="E13" s="7">
-        <f t="shared" ref="E13:H13" si="8">SUM(E10:E12)</f>
+        <f t="shared" ref="E13:H13" si="9">SUM(E10:E12)</f>
         <v>0</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H13" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>638</v>
       </c>
       <c r="I13" s="6">
@@ -1536,55 +1537,55 @@
         <v>2165</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" ref="P13:Q13" si="9">SUM(P10:P12)</f>
+        <f t="shared" ref="P13:Q13" si="10">SUM(P10:P12)</f>
         <v>2354</v>
       </c>
       <c r="Q13" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2358</v>
       </c>
       <c r="R13" s="6">
-        <f t="shared" ref="R13:W13" si="10">R9*(1-R31)</f>
+        <f t="shared" ref="R13:W13" si="11">R9*(1-R31)</f>
         <v>2595.9999999999995</v>
       </c>
       <c r="S13" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2777.72</v>
       </c>
       <c r="T13" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2972.1603999999998</v>
       </c>
       <c r="U13" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3180.211628</v>
       </c>
       <c r="V13" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3402.8264419600005</v>
       </c>
       <c r="W13" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3641.0242928972007</v>
       </c>
       <c r="X13" s="6">
-        <f t="shared" ref="X13:AA13" si="11">X9*(1-X31)</f>
-        <v>3895.895993400005</v>
+        <f t="shared" ref="X13:AA13" si="12">X9*(1-X31)</f>
+        <v>3750.2550216841164</v>
       </c>
       <c r="Y13" s="6">
-        <f t="shared" si="11"/>
-        <v>4168.6087129380048</v>
+        <f t="shared" si="12"/>
+        <v>3862.7626723346398</v>
       </c>
       <c r="Z13" s="6">
-        <f t="shared" si="11"/>
-        <v>4460.4113228436663</v>
+        <f t="shared" si="12"/>
+        <v>3978.6455525046795</v>
       </c>
       <c r="AA13" s="6">
-        <f t="shared" si="11"/>
-        <v>4772.6401154427231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>4098.00491907982</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
@@ -1597,27 +1598,27 @@
         <v>4711</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" ref="E14:J14" si="12">E9-E13</f>
+        <f t="shared" ref="E14:J14" si="13">E9-E13</f>
         <v>0</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G14" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5710</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5235</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5251</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5356.02</v>
       </c>
       <c r="K14" s="6"/>
@@ -1626,55 +1627,55 @@
         <v>15441</v>
       </c>
       <c r="P14" s="6">
-        <f t="shared" ref="P14:Q14" si="13">P9-P13</f>
+        <f t="shared" ref="P14:Q14" si="14">P9-P13</f>
         <v>17055</v>
       </c>
       <c r="Q14" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>19147</v>
       </c>
       <c r="R14" s="6">
-        <f t="shared" ref="R14" si="14">R9-R13</f>
+        <f t="shared" ref="R14" si="15">R9-R13</f>
         <v>21004</v>
       </c>
       <c r="S14" s="6">
-        <f t="shared" ref="S14" si="15">S9-S13</f>
+        <f t="shared" ref="S14" si="16">S9-S13</f>
         <v>22474.28</v>
       </c>
       <c r="T14" s="6">
-        <f t="shared" ref="T14" si="16">T9-T13</f>
+        <f t="shared" ref="T14" si="17">T9-T13</f>
         <v>24047.479600000002</v>
       </c>
       <c r="U14" s="6">
-        <f t="shared" ref="U14" si="17">U9-U13</f>
+        <f t="shared" ref="U14" si="18">U9-U13</f>
         <v>25730.803172000004</v>
       </c>
       <c r="V14" s="6">
-        <f t="shared" ref="V14:W14" si="18">V9-V13</f>
+        <f t="shared" ref="V14:W14" si="19">V9-V13</f>
         <v>27531.959394040005</v>
       </c>
       <c r="W14" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>29459.196551622808</v>
       </c>
       <c r="X14" s="6">
-        <f t="shared" ref="X14:AA14" si="19">X9-X13</f>
-        <v>31521.340310236406</v>
+        <f t="shared" ref="X14:AA14" si="20">X9-X13</f>
+        <v>30342.972448171491</v>
       </c>
       <c r="Y14" s="6">
-        <f t="shared" si="19"/>
-        <v>33727.834131952957</v>
+        <f t="shared" si="20"/>
+        <v>31253.261621616635</v>
       </c>
       <c r="Z14" s="6">
-        <f t="shared" si="19"/>
-        <v>36088.782521189663</v>
+        <f t="shared" si="20"/>
+        <v>32190.859470265135</v>
       </c>
       <c r="AA14" s="6">
-        <f t="shared" si="19"/>
-        <v>38614.997297672948</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+        <f t="shared" si="20"/>
+        <v>33156.585254373087</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
@@ -1688,11 +1689,11 @@
         <v>1082</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" ref="I15:J17" si="20">H15*1.01</f>
+        <f t="shared" ref="I15:J17" si="21">H15*1.01</f>
         <v>1092.82</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1103.7482</v>
       </c>
       <c r="K15" s="6"/>
@@ -1710,43 +1711,43 @@
         <v>4328.221343873518</v>
       </c>
       <c r="S15" s="6">
-        <f t="shared" ref="S15:W15" si="21">R15*(1+S27)</f>
+        <f t="shared" ref="S15:W15" si="22">R15*(1+S27)</f>
         <v>4631.1968379446644</v>
       </c>
       <c r="T15" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4955.3806166007907</v>
       </c>
       <c r="U15" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5302.2572597628468</v>
       </c>
       <c r="V15" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5673.4152679462468</v>
       </c>
       <c r="W15" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6070.5543367024848</v>
       </c>
       <c r="X15" s="6">
-        <f t="shared" ref="X15" si="22">W15*(1+X27)</f>
-        <v>6495.4931402716593</v>
+        <f t="shared" ref="X15" si="23">W15*(1+X27)</f>
+        <v>6252.6709668035592</v>
       </c>
       <c r="Y15" s="6">
-        <f t="shared" ref="Y15" si="23">X15*(1+Y27)</f>
-        <v>6950.177660090676</v>
+        <f t="shared" ref="Y15" si="24">X15*(1+Y27)</f>
+        <v>6440.2510958076664</v>
       </c>
       <c r="Z15" s="6">
-        <f t="shared" ref="Z15" si="24">Y15*(1+Z27)</f>
-        <v>7436.690096297024</v>
+        <f t="shared" ref="Z15" si="25">Y15*(1+Z27)</f>
+        <v>6633.4586286818967</v>
       </c>
       <c r="AA15" s="6">
-        <f t="shared" ref="AA15" si="25">Z15*(1+AA27)</f>
-        <v>7957.2584030378157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AA15" si="26">Z15*(1+AA27)</f>
+        <v>6832.462387542354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
@@ -1760,11 +1761,11 @@
         <v>1626</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1642.26</v>
       </c>
       <c r="J16" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1658.6826000000001</v>
       </c>
       <c r="K16" s="6"/>
@@ -1778,44 +1779,44 @@
         <v>5764</v>
       </c>
       <c r="R16" s="6">
-        <f>Q16*1.08</f>
-        <v>6225.1200000000008</v>
+        <f>Q16*1.05</f>
+        <v>6052.2</v>
       </c>
       <c r="S16" s="6">
-        <f t="shared" ref="S16:W16" si="26">R16*1.08</f>
-        <v>6723.1296000000011</v>
+        <f t="shared" ref="S16:AA16" si="27">R16*1.05</f>
+        <v>6354.81</v>
       </c>
       <c r="T16" s="6">
-        <f t="shared" si="26"/>
-        <v>7260.9799680000015</v>
+        <f t="shared" si="27"/>
+        <v>6672.5505000000003</v>
       </c>
       <c r="U16" s="6">
-        <f t="shared" si="26"/>
-        <v>7841.8583654400018</v>
+        <f t="shared" si="27"/>
+        <v>7006.1780250000002</v>
       </c>
       <c r="V16" s="6">
-        <f t="shared" si="26"/>
-        <v>8469.2070346752025</v>
+        <f t="shared" si="27"/>
+        <v>7356.4869262500006</v>
       </c>
       <c r="W16" s="6">
-        <f t="shared" si="26"/>
-        <v>9146.74359744922</v>
+        <f t="shared" si="27"/>
+        <v>7724.3112725625006</v>
       </c>
       <c r="X16" s="6">
-        <f>W16*1.05</f>
-        <v>9604.080777321682</v>
+        <f>W16*1.02</f>
+        <v>7878.7974980137506</v>
       </c>
       <c r="Y16" s="6">
-        <f t="shared" ref="Y16:AA16" si="27">X16*1.05</f>
-        <v>10084.284816187766</v>
+        <f t="shared" ref="Y16:AA16" si="28">X16*1.02</f>
+        <v>8036.373447974026</v>
       </c>
       <c r="Z16" s="6">
-        <f t="shared" si="27"/>
-        <v>10588.499056997156</v>
+        <f t="shared" si="28"/>
+        <v>8197.1009169335066</v>
       </c>
       <c r="AA16" s="6">
-        <f t="shared" si="27"/>
-        <v>11117.924009847015</v>
+        <f t="shared" si="28"/>
+        <v>8361.0429352721767</v>
       </c>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.2">
@@ -1832,11 +1833,11 @@
         <v>377</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>380.77</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>384.57769999999999</v>
       </c>
       <c r="K17" s="6"/>
@@ -1850,44 +1851,44 @@
         <v>1529</v>
       </c>
       <c r="R17" s="6">
-        <f>Q17*1.08</f>
-        <v>1651.3200000000002</v>
+        <f>Q17*1.05</f>
+        <v>1605.45</v>
       </c>
       <c r="S17" s="6">
-        <f t="shared" ref="S17:W17" si="28">R17*1.08</f>
-        <v>1783.4256000000003</v>
+        <f t="shared" ref="S17:AA17" si="29">R17*1.05</f>
+        <v>1685.7225000000001</v>
       </c>
       <c r="T17" s="6">
-        <f t="shared" si="28"/>
-        <v>1926.0996480000003</v>
+        <f t="shared" si="29"/>
+        <v>1770.0086250000002</v>
       </c>
       <c r="U17" s="6">
-        <f t="shared" si="28"/>
-        <v>2080.1876198400005</v>
+        <f t="shared" si="29"/>
+        <v>1858.5090562500002</v>
       </c>
       <c r="V17" s="6">
-        <f t="shared" si="28"/>
-        <v>2246.6026294272006</v>
+        <f t="shared" si="29"/>
+        <v>1951.4345090625002</v>
       </c>
       <c r="W17" s="6">
-        <f t="shared" si="28"/>
-        <v>2426.3308397813767</v>
+        <f t="shared" si="29"/>
+        <v>2049.0062345156252</v>
       </c>
       <c r="X17" s="6">
-        <f>W17*1.05</f>
-        <v>2547.6473817704455</v>
+        <f>W17*1.02</f>
+        <v>2089.9863592059378</v>
       </c>
       <c r="Y17" s="6">
-        <f t="shared" ref="Y17:AA17" si="29">X17*1.05</f>
-        <v>2675.0297508589679</v>
+        <f t="shared" ref="Y17:AA17" si="30">X17*1.02</f>
+        <v>2131.7860863900564</v>
       </c>
       <c r="Z17" s="6">
-        <f t="shared" si="29"/>
-        <v>2808.7812384019162</v>
+        <f t="shared" si="30"/>
+        <v>2174.4218081178574</v>
       </c>
       <c r="AA17" s="6">
-        <f t="shared" si="29"/>
-        <v>2949.220300322012</v>
+        <f t="shared" si="30"/>
+        <v>2217.9102442802146</v>
       </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.2">
@@ -1899,31 +1900,31 @@
         <v>0</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" ref="D18:J18" si="30">SUM(D15:D17)</f>
+        <f t="shared" ref="D18:J18" si="31">SUM(D15:D17)</f>
         <v>2784</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3085</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3115.85</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3147.0084999999999</v>
       </c>
       <c r="K18" s="6"/>
@@ -1944,52 +1945,52 @@
         <v>9174</v>
       </c>
       <c r="P18" s="6">
-        <f t="shared" ref="P18:V18" si="31">SUM(P15:P17)</f>
+        <f t="shared" ref="P18:V18" si="32">SUM(P15:P17)</f>
         <v>10237</v>
       </c>
       <c r="Q18" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>11237</v>
       </c>
       <c r="R18" s="6">
-        <f t="shared" si="31"/>
-        <v>12204.661343873518</v>
+        <f t="shared" si="32"/>
+        <v>11985.871343873518</v>
       </c>
       <c r="S18" s="6">
-        <f t="shared" si="31"/>
-        <v>13137.752037944667</v>
+        <f t="shared" si="32"/>
+        <v>12671.729337944664</v>
       </c>
       <c r="T18" s="6">
-        <f t="shared" si="31"/>
-        <v>14142.460232600792</v>
+        <f t="shared" si="32"/>
+        <v>13397.939741600791</v>
       </c>
       <c r="U18" s="6">
-        <f t="shared" si="31"/>
-        <v>15224.303245042849</v>
+        <f t="shared" si="32"/>
+        <v>14166.944341012848</v>
       </c>
       <c r="V18" s="6">
-        <f t="shared" si="31"/>
-        <v>16389.224932048652</v>
+        <f t="shared" si="32"/>
+        <v>14981.336703258748</v>
       </c>
       <c r="W18" s="6">
-        <f t="shared" ref="W18:AA18" si="32">SUM(W15:W17)</f>
-        <v>17643.628773933084</v>
+        <f t="shared" ref="W18:AA18" si="33">SUM(W15:W17)</f>
+        <v>15843.871843780611</v>
       </c>
       <c r="X18" s="6">
-        <f t="shared" si="32"/>
-        <v>18647.221299363788</v>
+        <f t="shared" si="33"/>
+        <v>16221.454824023247</v>
       </c>
       <c r="Y18" s="6">
-        <f t="shared" si="32"/>
-        <v>19709.492227137413</v>
+        <f t="shared" si="33"/>
+        <v>16608.410630171747</v>
       </c>
       <c r="Z18" s="6">
-        <f t="shared" si="32"/>
-        <v>20833.970391696097</v>
+        <f t="shared" si="33"/>
+        <v>17004.981353733263</v>
       </c>
       <c r="AA18" s="6">
-        <f t="shared" si="32"/>
-        <v>22024.402713206844</v>
+        <f t="shared" si="33"/>
+        <v>17411.415567094744</v>
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.2">
@@ -2001,31 +2002,31 @@
         <v>0</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" ref="D19:J19" si="33">D14-D18</f>
+        <f t="shared" ref="D19:J19" si="34">D14-D18</f>
         <v>1927</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5710</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2150</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2135.15</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2209.0115000000005</v>
       </c>
       <c r="K19" s="6"/>
@@ -2046,52 +2047,52 @@
         <v>6267</v>
       </c>
       <c r="P19" s="6">
-        <f t="shared" ref="P19:V19" si="34">P14-P18</f>
+        <f t="shared" ref="P19:V19" si="35">P14-P18</f>
         <v>6818</v>
       </c>
       <c r="Q19" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>7910</v>
       </c>
       <c r="R19" s="6">
-        <f t="shared" si="34"/>
-        <v>8799.3386561264815</v>
+        <f t="shared" si="35"/>
+        <v>9018.1286561264824</v>
       </c>
       <c r="S19" s="6">
-        <f t="shared" si="34"/>
-        <v>9336.527962055332</v>
+        <f t="shared" si="35"/>
+        <v>9802.5506620553351</v>
       </c>
       <c r="T19" s="6">
-        <f t="shared" si="34"/>
-        <v>9905.0193673992108</v>
+        <f t="shared" si="35"/>
+        <v>10649.539858399212</v>
       </c>
       <c r="U19" s="6">
-        <f t="shared" si="34"/>
-        <v>10506.499926957154</v>
+        <f t="shared" si="35"/>
+        <v>11563.858830987156</v>
       </c>
       <c r="V19" s="6">
-        <f t="shared" si="34"/>
-        <v>11142.734461991353</v>
+        <f t="shared" si="35"/>
+        <v>12550.622690781256</v>
       </c>
       <c r="W19" s="6">
-        <f t="shared" ref="W19:AA19" si="35">W14-W18</f>
-        <v>11815.567777689725</v>
+        <f t="shared" ref="W19:AA19" si="36">W14-W18</f>
+        <v>13615.324707842197</v>
       </c>
       <c r="X19" s="6">
-        <f t="shared" si="35"/>
-        <v>12874.119010872619</v>
+        <f t="shared" si="36"/>
+        <v>14121.517624148244</v>
       </c>
       <c r="Y19" s="6">
-        <f t="shared" si="35"/>
-        <v>14018.341904815545</v>
+        <f t="shared" si="36"/>
+        <v>14644.850991444888</v>
       </c>
       <c r="Z19" s="6">
-        <f t="shared" si="35"/>
-        <v>15254.812129493566</v>
+        <f t="shared" si="36"/>
+        <v>15185.878116531872</v>
       </c>
       <c r="AA19" s="6">
-        <f t="shared" si="35"/>
-        <v>16590.594584466104</v>
+        <f t="shared" si="36"/>
+        <v>15745.169687278343</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.2">
@@ -2124,40 +2125,40 @@
         <v>-10.567539999999999</v>
       </c>
       <c r="S20" s="6">
-        <f t="shared" ref="S20:AA20" si="36">R35*$AD$84</f>
+        <f t="shared" ref="S20:AA20" si="37">R35*$AD$84</f>
         <v>31.19750336000001</v>
       </c>
       <c r="T20" s="6">
-        <f t="shared" si="36"/>
-        <v>186.70174608589448</v>
+        <f t="shared" si="37"/>
+        <v>194.43772290589456</v>
       </c>
       <c r="U20" s="6">
-        <f t="shared" si="36"/>
-        <v>354.22431656974726</v>
+        <f t="shared" si="37"/>
+        <v>374.4477507555593</v>
       </c>
       <c r="V20" s="6">
-        <f t="shared" si="36"/>
-        <v>534.51233901229386</v>
+        <f t="shared" si="37"/>
+        <v>572.62364001248829</v>
       </c>
       <c r="W20" s="6">
-        <f t="shared" si="36"/>
-        <v>728.35463590895438</v>
+        <f t="shared" si="37"/>
+        <v>790.46952910366451</v>
       </c>
       <c r="X20" s="6">
-        <f t="shared" si="36"/>
-        <v>936.58374797469241</v>
+        <f t="shared" si="37"/>
+        <v>1029.605713436966</v>
       </c>
       <c r="Y20" s="6">
-        <f t="shared" si="36"/>
-        <v>1165.8414137715577</v>
+        <f t="shared" si="37"/>
+        <v>1281.1143608408804</v>
       </c>
       <c r="Z20" s="6">
-        <f t="shared" si="36"/>
-        <v>1417.8988568601035</v>
+        <f t="shared" si="37"/>
+        <v>1545.4853856888242</v>
       </c>
       <c r="AA20" s="6">
-        <f t="shared" si="36"/>
-        <v>1694.6658592335746</v>
+        <f t="shared" si="37"/>
+        <v>1823.2260198256877</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.2">
@@ -2169,31 +2170,31 @@
         <v>0</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" ref="D21:J21" si="37">D19+D20</f>
+        <f t="shared" ref="D21:J21" si="38">D19+D20</f>
         <v>1927</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>5710</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>2150</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>2125.6150000000002</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>2207.9789600000004</v>
       </c>
       <c r="K21" s="6"/>
@@ -2214,52 +2215,52 @@
         <v>6136</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" ref="P21:V21" si="38">P19+P20</f>
+        <f t="shared" ref="P21:V21" si="39">P19+P20</f>
         <v>6721</v>
       </c>
       <c r="Q21" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>7789</v>
       </c>
       <c r="R21" s="6">
-        <f t="shared" si="38"/>
-        <v>8788.7711161264815</v>
+        <f t="shared" si="39"/>
+        <v>9007.5611161264824</v>
       </c>
       <c r="S21" s="6">
-        <f t="shared" si="38"/>
-        <v>9367.7254654153312</v>
+        <f t="shared" si="39"/>
+        <v>9833.7481654153344</v>
       </c>
       <c r="T21" s="6">
-        <f t="shared" si="38"/>
-        <v>10091.721113485106</v>
+        <f t="shared" si="39"/>
+        <v>10843.977581305106</v>
       </c>
       <c r="U21" s="6">
-        <f t="shared" si="38"/>
-        <v>10860.724243526902</v>
+        <f t="shared" si="39"/>
+        <v>11938.306581742714</v>
       </c>
       <c r="V21" s="6">
-        <f t="shared" si="38"/>
-        <v>11677.246801003646</v>
+        <f t="shared" si="39"/>
+        <v>13123.246330793745</v>
       </c>
       <c r="W21" s="6">
-        <f t="shared" ref="W21:AA21" si="39">W19+W20</f>
-        <v>12543.922413598679</v>
+        <f t="shared" ref="W21:AA21" si="40">W19+W20</f>
+        <v>14405.794236945861</v>
       </c>
       <c r="X21" s="6">
-        <f t="shared" si="39"/>
-        <v>13810.70275884731</v>
+        <f t="shared" si="40"/>
+        <v>15151.12333758521</v>
       </c>
       <c r="Y21" s="6">
-        <f t="shared" si="39"/>
-        <v>15184.183318587102</v>
+        <f t="shared" si="40"/>
+        <v>15925.965352285768</v>
       </c>
       <c r="Z21" s="6">
-        <f t="shared" si="39"/>
-        <v>16672.710986353668</v>
+        <f t="shared" si="40"/>
+        <v>16731.363502220698</v>
       </c>
       <c r="AA21" s="6">
-        <f t="shared" si="39"/>
-        <v>18285.260443699677</v>
+        <f t="shared" si="40"/>
+        <v>17568.395707104031</v>
       </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.2">
@@ -2289,43 +2290,43 @@
       </c>
       <c r="R22" s="6">
         <f>R21*0.17</f>
-        <v>1494.0910897415019</v>
+        <v>1531.2853897415021</v>
       </c>
       <c r="S22" s="6">
-        <f t="shared" ref="S22:AA22" si="40">S21*0.17</f>
-        <v>1592.5133291206064</v>
+        <f t="shared" ref="S22:AA22" si="41">S21*0.17</f>
+        <v>1671.737188120607</v>
       </c>
       <c r="T22" s="6">
-        <f t="shared" si="40"/>
-        <v>1715.5925892924681</v>
+        <f t="shared" si="41"/>
+        <v>1843.4761888218682</v>
       </c>
       <c r="U22" s="6">
-        <f t="shared" si="40"/>
-        <v>1846.3231213995734</v>
+        <f t="shared" si="41"/>
+        <v>2029.5121188962617</v>
       </c>
       <c r="V22" s="6">
-        <f t="shared" si="40"/>
-        <v>1985.13195617062</v>
+        <f t="shared" si="41"/>
+        <v>2230.9518762349367</v>
       </c>
       <c r="W22" s="6">
-        <f t="shared" si="40"/>
-        <v>2132.4668103117756</v>
+        <f t="shared" si="41"/>
+        <v>2448.9850202807966</v>
       </c>
       <c r="X22" s="6">
-        <f t="shared" si="40"/>
-        <v>2347.8194690040427</v>
+        <f t="shared" si="41"/>
+        <v>2575.6909673894856</v>
       </c>
       <c r="Y22" s="6">
-        <f t="shared" si="40"/>
-        <v>2581.3111641598075</v>
+        <f t="shared" si="41"/>
+        <v>2707.4141098885807</v>
       </c>
       <c r="Z22" s="6">
-        <f t="shared" si="40"/>
-        <v>2834.3608676801236</v>
+        <f t="shared" si="41"/>
+        <v>2844.331795377519</v>
       </c>
       <c r="AA22" s="6">
-        <f t="shared" si="40"/>
-        <v>3108.4942754289455</v>
+        <f t="shared" si="41"/>
+        <v>2986.6272702076853</v>
       </c>
     </row>
     <row r="23" spans="2:27" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -2337,31 +2338,31 @@
         <v>0</v>
       </c>
       <c r="D23" s="10">
-        <f t="shared" ref="D23:J23" si="41">D21-D22</f>
+        <f t="shared" ref="D23:J23" si="42">D21-D22</f>
         <v>1927</v>
       </c>
       <c r="E23" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="F23" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G23" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>5710</v>
       </c>
       <c r="H23" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>2150</v>
       </c>
       <c r="I23" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1700.4920000000002</v>
       </c>
       <c r="J23" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1766.3831680000003</v>
       </c>
       <c r="L23" s="10">
@@ -2381,52 +2382,52 @@
         <v>4884</v>
       </c>
       <c r="P23" s="10">
-        <f t="shared" ref="P23:Q23" si="42">P21-P22</f>
+        <f t="shared" ref="P23:Q23" si="43">P21-P22</f>
         <v>5350</v>
       </c>
       <c r="Q23" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>6418</v>
       </c>
       <c r="R23" s="10">
-        <f t="shared" ref="R23" si="43">R21-R22</f>
-        <v>7294.68002638498</v>
+        <f t="shared" ref="R23" si="44">R21-R22</f>
+        <v>7476.2757263849799</v>
       </c>
       <c r="S23" s="10">
-        <f t="shared" ref="S23" si="44">S21-S22</f>
-        <v>7775.2121362947246</v>
+        <f t="shared" ref="S23" si="45">S21-S22</f>
+        <v>8162.0109772947271</v>
       </c>
       <c r="T23" s="10">
-        <f t="shared" ref="T23" si="45">T21-T22</f>
-        <v>8376.128524192638</v>
+        <f t="shared" ref="T23" si="46">T21-T22</f>
+        <v>9000.5013924832383</v>
       </c>
       <c r="U23" s="10">
-        <f t="shared" ref="U23" si="46">U21-U22</f>
-        <v>9014.4011221273286</v>
+        <f t="shared" ref="U23" si="47">U21-U22</f>
+        <v>9908.794462846452</v>
       </c>
       <c r="V23" s="10">
-        <f t="shared" ref="V23:W23" si="47">V21-V22</f>
-        <v>9692.1148448330259</v>
+        <f t="shared" ref="V23:W23" si="48">V21-V22</f>
+        <v>10892.294454558809</v>
       </c>
       <c r="W23" s="10">
-        <f t="shared" si="47"/>
-        <v>10411.455603286904</v>
+        <f t="shared" si="48"/>
+        <v>11956.809216665064</v>
       </c>
       <c r="X23" s="10">
-        <f t="shared" ref="X23:AA23" si="48">X21-X22</f>
-        <v>11462.883289843267</v>
+        <f t="shared" ref="X23:AA23" si="49">X21-X22</f>
+        <v>12575.432370195724</v>
       </c>
       <c r="Y23" s="10">
-        <f t="shared" si="48"/>
-        <v>12602.872154427294</v>
+        <f t="shared" si="49"/>
+        <v>13218.551242397187</v>
       </c>
       <c r="Z23" s="10">
-        <f t="shared" si="48"/>
-        <v>13838.350118673545</v>
+        <f t="shared" si="49"/>
+        <v>13887.03170684318</v>
       </c>
       <c r="AA23" s="10">
-        <f t="shared" si="48"/>
-        <v>15176.766168270731</v>
+        <f t="shared" si="49"/>
+        <v>14581.768436896346</v>
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.2">
@@ -2490,35 +2491,35 @@
         <v>23</v>
       </c>
       <c r="C25" s="9" t="e">
-        <f t="shared" ref="C25:J25" si="49">C23/C24</f>
+        <f t="shared" ref="C25:J25" si="50">C23/C24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D25" s="9" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E25" s="9" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="9" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G25" s="9" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H25" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>5.0683639792550688</v>
       </c>
       <c r="I25" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>4.0087034417727496</v>
       </c>
       <c r="J25" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>4.1640338708156541</v>
       </c>
       <c r="K25" s="9"/>
@@ -2539,52 +2540,52 @@
         <v>10.369426751592357</v>
       </c>
       <c r="P25" s="9">
-        <f t="shared" ref="P25:V25" si="50">P23/P24</f>
+        <f t="shared" ref="P25:V25" si="51">P23/P24</f>
         <v>11.655773420479303</v>
       </c>
       <c r="Q25" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>14.262222222222222</v>
       </c>
       <c r="R25" s="9">
-        <f t="shared" si="50"/>
-        <v>16.21040005863329</v>
+        <f t="shared" si="51"/>
+        <v>16.613946058633289</v>
       </c>
       <c r="S25" s="9">
-        <f t="shared" si="50"/>
-        <v>17.278249191766054</v>
+        <f t="shared" si="51"/>
+        <v>18.137802171766062</v>
       </c>
       <c r="T25" s="9">
-        <f t="shared" si="50"/>
-        <v>18.613618942650305</v>
+        <f t="shared" si="51"/>
+        <v>20.001114205518306</v>
       </c>
       <c r="U25" s="9">
-        <f t="shared" si="50"/>
-        <v>20.032002493616286</v>
+        <f t="shared" si="51"/>
+        <v>22.019543250769892</v>
       </c>
       <c r="V25" s="9">
-        <f t="shared" si="50"/>
-        <v>21.538032988517834</v>
+        <f t="shared" si="51"/>
+        <v>24.205098787908465</v>
       </c>
       <c r="W25" s="9">
-        <f t="shared" ref="W25:AA25" si="51">W23/W24</f>
-        <v>23.136568007304231</v>
+        <f t="shared" ref="W25:AA25" si="52">W23/W24</f>
+        <v>26.570687148144586</v>
       </c>
       <c r="X25" s="9">
-        <f t="shared" si="51"/>
-        <v>25.473073977429483</v>
+        <f t="shared" si="52"/>
+        <v>27.945405267101609</v>
       </c>
       <c r="Y25" s="9">
-        <f t="shared" si="51"/>
-        <v>28.006382565393988</v>
+        <f t="shared" si="52"/>
+        <v>29.374558316438193</v>
       </c>
       <c r="Z25" s="9">
-        <f t="shared" si="51"/>
-        <v>30.751889152607877</v>
+        <f t="shared" si="52"/>
+        <v>30.86007045965151</v>
       </c>
       <c r="AA25" s="9">
-        <f t="shared" si="51"/>
-        <v>33.726147040601624</v>
+        <f t="shared" si="52"/>
+        <v>32.403929859769654</v>
       </c>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.2">
@@ -2635,44 +2636,44 @@
         <v>0.10799113813179462</v>
       </c>
       <c r="R27" s="12">
-        <f t="shared" ref="R27:W27" si="52">R9/Q9-1</f>
+        <f t="shared" ref="R27:W27" si="53">R9/Q9-1</f>
         <v>9.7419204836084683E-2</v>
       </c>
       <c r="S27" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="T27" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="U27" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="V27" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="W27" s="12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="X27" s="12">
-        <f t="shared" ref="X27" si="53">X9/W9-1</f>
-        <v>7.0000000000000062E-2</v>
+        <f t="shared" ref="X27" si="54">X9/W9-1</f>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="Y27" s="12">
-        <f t="shared" ref="Y27" si="54">Y9/X9-1</f>
-        <v>7.0000000000000062E-2</v>
+        <f t="shared" ref="Y27" si="55">Y9/X9-1</f>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="Z27" s="12">
-        <f t="shared" ref="Z27" si="55">Z9/Y9-1</f>
-        <v>7.0000000000000062E-2</v>
+        <f t="shared" ref="Z27" si="56">Z9/Y9-1</f>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="AA27" s="12">
-        <f t="shared" ref="AA27" si="56">AA9/Z9-1</f>
-        <v>7.0000000000000062E-2</v>
+        <f t="shared" ref="AA27" si="57">AA9/Z9-1</f>
+        <v>3.0000000000000027E-2</v>
       </c>
     </row>
     <row r="28" spans="2:27" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -2681,31 +2682,31 @@
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12" t="e">
-        <f t="shared" ref="D28:J28" si="57">D9/C9-1</f>
+        <f t="shared" ref="D28:J28" si="58">D9/C9-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E28" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>-1</v>
       </c>
       <c r="F28" s="12" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G28" s="12" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>2.8546409807355566E-2</v>
       </c>
       <c r="I28" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>4.5973097224587534E-3</v>
       </c>
       <c r="J28" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="K28" s="12"/>
@@ -2727,64 +2728,64 @@
         <v>88</v>
       </c>
       <c r="M29" s="12" t="e">
-        <f t="shared" ref="M29:R29" si="58">SUM(M16:M17)/SUM(L16:L17)-1</f>
+        <f t="shared" ref="M29:R29" si="59">SUM(M16:M17)/SUM(L16:L17)-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N29" s="12" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O29" s="12" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P29" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>9.326006141910459E-2</v>
       </c>
       <c r="Q29" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>7.820816085156701E-2</v>
       </c>
       <c r="R29" s="12">
-        <f t="shared" si="58"/>
-        <v>8.0000000000000071E-2</v>
+        <f t="shared" si="59"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="S29" s="12">
-        <f t="shared" ref="S29:W29" si="59">SUM(S16:S17)/SUM(R16:R17)-1</f>
-        <v>8.0000000000000071E-2</v>
+        <f t="shared" ref="S29:W29" si="60">SUM(S16:S17)/SUM(R16:R17)-1</f>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="T29" s="12">
-        <f t="shared" si="59"/>
-        <v>8.0000000000000293E-2</v>
+        <f t="shared" si="60"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="U29" s="12">
-        <f t="shared" si="59"/>
-        <v>7.9999999999999849E-2</v>
+        <f t="shared" si="60"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="V29" s="12">
-        <f t="shared" si="59"/>
-        <v>8.0000000000000071E-2</v>
+        <f t="shared" si="60"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="W29" s="12">
-        <f t="shared" si="59"/>
-        <v>8.0000000000000071E-2</v>
+        <f t="shared" si="60"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="X29" s="12">
-        <f t="shared" ref="X29" si="60">SUM(X16:X17)/SUM(W16:W17)-1</f>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" ref="X29" si="61">SUM(X16:X17)/SUM(W16:W17)-1</f>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="Y29" s="12">
-        <f t="shared" ref="Y29" si="61">SUM(Y16:Y17)/SUM(X16:X17)-1</f>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" ref="Y29" si="62">SUM(Y16:Y17)/SUM(X16:X17)-1</f>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="Z29" s="12">
-        <f t="shared" ref="Z29" si="62">SUM(Z16:Z17)/SUM(Y16:Y17)-1</f>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" ref="Z29" si="63">SUM(Z16:Z17)/SUM(Y16:Y17)-1</f>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AA29" s="12">
-        <f t="shared" ref="AA29" si="63">SUM(AA16:AA17)/SUM(Z16:Z17)-1</f>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" ref="AA29" si="64">SUM(AA16:AA17)/SUM(Z16:Z17)-1</f>
+        <v>2.0000000000000018E-2</v>
       </c>
     </row>
     <row r="31" spans="2:27" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -2796,23 +2797,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D31" s="13">
-        <f t="shared" ref="D31:H31" si="64">D14/D9</f>
+        <f t="shared" ref="D31:H31" si="65">D14/D9</f>
         <v>0.88736108495008481</v>
       </c>
       <c r="E31" s="13" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F31" s="13" t="e">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G31" s="13">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="H31" s="13">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.89136727396560533</v>
       </c>
       <c r="I31" s="13">
@@ -2870,89 +2871,89 @@
         <v>36</v>
       </c>
       <c r="C32" s="14" t="e">
-        <f t="shared" ref="C32:J32" si="65">C19/C9</f>
+        <f t="shared" ref="C32:J32" si="66">C19/C9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D32" s="14">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.36296854398191752</v>
       </c>
       <c r="E32" s="14" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F32" s="14" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G32" s="14">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="H32" s="14">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.36608207049208241</v>
       </c>
       <c r="I32" s="14">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.36188983050847462</v>
       </c>
       <c r="J32" s="14">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.36706738118976412</v>
       </c>
       <c r="K32" s="14"/>
       <c r="O32" s="14">
-        <f t="shared" ref="O32:W32" si="66">O19/O9</f>
+        <f t="shared" ref="O32:W32" si="67">O19/O9</f>
         <v>0.35595819606952173</v>
       </c>
       <c r="P32" s="14">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.35128033386573237</v>
       </c>
       <c r="Q32" s="14">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.36782143687514529</v>
       </c>
       <c r="R32" s="14">
-        <f t="shared" si="66"/>
-        <v>0.37285333288671529</v>
+        <f t="shared" si="67"/>
+        <v>0.38212409559857974</v>
       </c>
       <c r="S32" s="14">
-        <f t="shared" si="66"/>
-        <v>0.36973419776870475</v>
+        <f t="shared" si="67"/>
+        <v>0.38818908055026674</v>
       </c>
       <c r="T32" s="14">
-        <f t="shared" si="66"/>
-        <v>0.36658591185519901</v>
+        <f t="shared" si="67"/>
+        <v>0.39414070129724937</v>
       </c>
       <c r="U32" s="14">
-        <f t="shared" si="66"/>
-        <v>0.3634082027088566</v>
+        <f t="shared" si="67"/>
+        <v>0.3999810767966247</v>
       </c>
       <c r="V32" s="14">
-        <f t="shared" si="66"/>
-        <v>0.36020079534619315</v>
+        <f t="shared" si="67"/>
+        <v>0.40571228639881551</v>
       </c>
       <c r="W32" s="14">
-        <f t="shared" si="66"/>
-        <v>0.3569634122137853</v>
+        <f t="shared" si="67"/>
+        <v>0.41133637058788136</v>
       </c>
       <c r="X32" s="14">
-        <f t="shared" ref="X32:AA32" si="67">X19/X9</f>
-        <v>0.36349869031285165</v>
+        <f t="shared" ref="X32:AA32" si="68">X19/X9</f>
+        <v>0.41420301544153137</v>
       </c>
       <c r="Y32" s="14">
-        <f t="shared" si="67"/>
-        <v>0.36991181368109433</v>
+        <f t="shared" si="68"/>
+        <v>0.41704182879174789</v>
       </c>
       <c r="Z32" s="14">
-        <f t="shared" si="67"/>
-        <v>0.37620506558450995</v>
+        <f t="shared" si="68"/>
+        <v>0.41985308084730205</v>
       </c>
       <c r="AA32" s="14">
-        <f t="shared" si="67"/>
-        <v>0.38238068661122637</v>
+        <f t="shared" si="68"/>
+        <v>0.42263703919357909</v>
       </c>
     </row>
     <row r="33" spans="2:27" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -2960,89 +2961,89 @@
         <v>35</v>
       </c>
       <c r="C33" s="14" t="e">
-        <f t="shared" ref="C33:J33" si="68">C18/C9</f>
+        <f t="shared" ref="C33:J33" si="69">C18/C9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D33" s="14">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.52439254096816723</v>
       </c>
       <c r="E33" s="14" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F33" s="14" t="e">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G33" s="14">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="H33" s="14">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.52528520347352292</v>
       </c>
       <c r="I33" s="14">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.52811016949152545</v>
       </c>
       <c r="J33" s="14">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.52293261881023589</v>
       </c>
       <c r="K33" s="14"/>
       <c r="O33" s="14">
-        <f t="shared" ref="O33:AA33" si="69">O18/O9</f>
+        <f t="shared" ref="O33:AA33" si="70">O18/O9</f>
         <v>0.5210723616948767</v>
       </c>
       <c r="P33" s="14">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.52743572569426556</v>
       </c>
       <c r="Q33" s="14">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.52252964426877468</v>
       </c>
       <c r="R33" s="14">
-        <f t="shared" si="69"/>
-        <v>0.51714666711328472</v>
+        <f t="shared" si="70"/>
+        <v>0.50787590440142028</v>
       </c>
       <c r="S33" s="14">
-        <f t="shared" si="69"/>
-        <v>0.52026580223129526</v>
+        <f t="shared" si="70"/>
+        <v>0.50181091944973322</v>
       </c>
       <c r="T33" s="14">
-        <f t="shared" si="69"/>
-        <v>0.52341408814480095</v>
+        <f t="shared" si="70"/>
+        <v>0.49585929870275064</v>
       </c>
       <c r="U33" s="14">
-        <f t="shared" si="69"/>
-        <v>0.52659179729114336</v>
+        <f t="shared" si="70"/>
+        <v>0.49001892320337526</v>
       </c>
       <c r="V33" s="14">
-        <f t="shared" si="69"/>
-        <v>0.52979920465380681</v>
+        <f t="shared" si="70"/>
+        <v>0.48428771360118444</v>
       </c>
       <c r="W33" s="14">
-        <f t="shared" si="69"/>
-        <v>0.53303658778621477</v>
+        <f t="shared" si="70"/>
+        <v>0.47866362941211865</v>
       </c>
       <c r="X33" s="14">
-        <f t="shared" si="69"/>
-        <v>0.52650130968714837</v>
+        <f t="shared" si="70"/>
+        <v>0.47579698455846864</v>
       </c>
       <c r="Y33" s="14">
-        <f t="shared" si="69"/>
-        <v>0.52008818631890574</v>
+        <f t="shared" si="70"/>
+        <v>0.47295817120825212</v>
       </c>
       <c r="Z33" s="14">
-        <f t="shared" si="69"/>
-        <v>0.51379493441548996</v>
+        <f t="shared" si="70"/>
+        <v>0.47014691915269796</v>
       </c>
       <c r="AA33" s="14">
-        <f t="shared" si="69"/>
-        <v>0.50761931338877364</v>
+        <f t="shared" si="70"/>
+        <v>0.46736296080642087</v>
       </c>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.2">
@@ -3050,35 +3051,35 @@
         <v>27</v>
       </c>
       <c r="C35" s="6">
-        <f t="shared" ref="C35:H35" si="70">C36-C37</f>
+        <f t="shared" ref="C35:H35" si="71">C36-C37</f>
         <v>0</v>
       </c>
       <c r="D35" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="E35" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-262</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>-1907</v>
       </c>
       <c r="I35" s="6">
-        <f t="shared" ref="I35:J35" si="71">H35+I23</f>
+        <f t="shared" ref="I35:J35" si="72">H35+I23</f>
         <v>-206.50799999999981</v>
       </c>
       <c r="J35" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1559.8751680000005</v>
       </c>
       <c r="K35" s="6"/>
@@ -3107,40 +3108,40 @@
         <v>1559.8751680000005</v>
       </c>
       <c r="S35" s="6">
-        <f t="shared" ref="S35:AA35" si="72">R35+S23</f>
-        <v>9335.0873042947242</v>
+        <f t="shared" ref="S35:AA35" si="73">R35+S23</f>
+        <v>9721.8861452947276</v>
       </c>
       <c r="T35" s="6">
-        <f t="shared" si="72"/>
-        <v>17711.215828487362</v>
+        <f t="shared" si="73"/>
+        <v>18722.387537777966</v>
       </c>
       <c r="U35" s="6">
-        <f t="shared" si="72"/>
-        <v>26725.616950614691</v>
+        <f t="shared" si="73"/>
+        <v>28631.182000624416</v>
       </c>
       <c r="V35" s="6">
-        <f t="shared" si="72"/>
-        <v>36417.731795447718</v>
+        <f t="shared" si="73"/>
+        <v>39523.476455183227</v>
       </c>
       <c r="W35" s="6">
-        <f t="shared" si="72"/>
-        <v>46829.187398734619</v>
+        <f t="shared" si="73"/>
+        <v>51480.285671848294</v>
       </c>
       <c r="X35" s="6">
-        <f t="shared" si="72"/>
-        <v>58292.070688577885</v>
+        <f t="shared" si="73"/>
+        <v>64055.71804204402</v>
       </c>
       <c r="Y35" s="6">
-        <f t="shared" si="72"/>
-        <v>70894.942843005178</v>
+        <f t="shared" si="73"/>
+        <v>77274.269284441209</v>
       </c>
       <c r="Z35" s="6">
-        <f t="shared" si="72"/>
-        <v>84733.29296167873</v>
+        <f t="shared" si="73"/>
+        <v>91161.300991284385</v>
       </c>
       <c r="AA35" s="6">
-        <f t="shared" si="72"/>
-        <v>99910.059129949455</v>
+        <f t="shared" si="73"/>
+        <v>105743.06942818072</v>
       </c>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.2">
@@ -3491,56 +3492,56 @@
         <v>68</v>
       </c>
       <c r="O68" s="10">
-        <f t="shared" ref="O68:AA68" si="73">O23</f>
+        <f t="shared" ref="O68:AA68" si="74">O23</f>
         <v>4884</v>
       </c>
       <c r="P68" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>5350</v>
       </c>
       <c r="Q68" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>6418</v>
       </c>
       <c r="R68" s="10">
-        <f t="shared" si="73"/>
-        <v>7294.68002638498</v>
+        <f t="shared" si="74"/>
+        <v>7476.2757263849799</v>
       </c>
       <c r="S68" s="10">
-        <f t="shared" si="73"/>
-        <v>7775.2121362947246</v>
+        <f t="shared" si="74"/>
+        <v>8162.0109772947271</v>
       </c>
       <c r="T68" s="10">
-        <f t="shared" si="73"/>
-        <v>8376.128524192638</v>
+        <f t="shared" si="74"/>
+        <v>9000.5013924832383</v>
       </c>
       <c r="U68" s="10">
-        <f t="shared" si="73"/>
-        <v>9014.4011221273286</v>
+        <f t="shared" si="74"/>
+        <v>9908.794462846452</v>
       </c>
       <c r="V68" s="10">
-        <f t="shared" si="73"/>
-        <v>9692.1148448330259</v>
+        <f t="shared" si="74"/>
+        <v>10892.294454558809</v>
       </c>
       <c r="W68" s="10">
-        <f t="shared" si="73"/>
-        <v>10411.455603286904</v>
+        <f t="shared" si="74"/>
+        <v>11956.809216665064</v>
       </c>
       <c r="X68" s="10">
-        <f t="shared" si="73"/>
-        <v>11462.883289843267</v>
+        <f t="shared" si="74"/>
+        <v>12575.432370195724</v>
       </c>
       <c r="Y68" s="10">
-        <f t="shared" si="73"/>
-        <v>12602.872154427294</v>
+        <f t="shared" si="74"/>
+        <v>13218.551242397187</v>
       </c>
       <c r="Z68" s="10">
-        <f t="shared" si="73"/>
-        <v>13838.350118673545</v>
+        <f t="shared" si="74"/>
+        <v>13887.03170684318</v>
       </c>
       <c r="AA68" s="10">
-        <f t="shared" si="73"/>
-        <v>15176.766168270731</v>
+        <f t="shared" si="74"/>
+        <v>14581.768436896346</v>
       </c>
     </row>
     <row r="69" spans="2:29" x14ac:dyDescent="0.2">
@@ -3572,44 +3573,44 @@
         <v>857</v>
       </c>
       <c r="R70" s="6">
-        <f t="shared" ref="R70:AA70" si="74">Q70*(1+R27)</f>
+        <f t="shared" ref="R70:AA70" si="75">Q70*(1+R27)</f>
         <v>940.48825854452457</v>
       </c>
       <c r="S70" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1006.3224366426414</v>
       </c>
       <c r="T70" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1076.7650072076262</v>
       </c>
       <c r="U70" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1152.13855771216</v>
       </c>
       <c r="V70" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1232.7882567520114</v>
       </c>
       <c r="W70" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>1319.0834347246523</v>
       </c>
       <c r="X70" s="6">
-        <f t="shared" si="74"/>
-        <v>1411.419275155378</v>
+        <f t="shared" si="75"/>
+        <v>1358.6559377663918</v>
       </c>
       <c r="Y70" s="6">
-        <f t="shared" si="74"/>
-        <v>1510.2186244162547</v>
+        <f t="shared" si="75"/>
+        <v>1399.4156158993837</v>
       </c>
       <c r="Z70" s="6">
-        <f t="shared" si="74"/>
-        <v>1615.9339281253926</v>
+        <f t="shared" si="75"/>
+        <v>1441.3980843763652</v>
       </c>
       <c r="AA70" s="6">
-        <f t="shared" si="74"/>
-        <v>1729.0493030941702</v>
+        <f t="shared" si="75"/>
+        <v>1484.6400269076562</v>
       </c>
     </row>
     <row r="71" spans="2:29" x14ac:dyDescent="0.2">
@@ -3626,43 +3627,43 @@
         <v>1833</v>
       </c>
       <c r="R71" s="6">
-        <f t="shared" ref="R71:AA71" si="75">Q71*1.1</f>
+        <f t="shared" ref="R71:AA71" si="76">Q71*1.1</f>
         <v>2016.3000000000002</v>
       </c>
       <c r="S71" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>2217.9300000000003</v>
       </c>
       <c r="T71" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>2439.7230000000004</v>
       </c>
       <c r="U71" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>2683.6953000000008</v>
       </c>
       <c r="V71" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>2952.0648300000012</v>
       </c>
       <c r="W71" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>3247.2713130000016</v>
       </c>
       <c r="X71" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>3571.9984443000021</v>
       </c>
       <c r="Y71" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>3929.1982887300028</v>
       </c>
       <c r="Z71" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>4322.1181176030032</v>
       </c>
       <c r="AA71" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>4754.3299293633036</v>
       </c>
     </row>
@@ -3680,44 +3681,44 @@
         <v>77</v>
       </c>
       <c r="R72" s="6">
-        <f t="shared" ref="R72:AA72" si="76">Q72*(1+R27)</f>
+        <f t="shared" ref="R72:AA72" si="77">Q72*(1+R27)</f>
         <v>84.501278772378527</v>
       </c>
       <c r="S72" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>90.416368286445035</v>
       </c>
       <c r="T72" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>96.745514066496199</v>
       </c>
       <c r="U72" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>103.51770005115094</v>
       </c>
       <c r="V72" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>110.76393905473151</v>
       </c>
       <c r="W72" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>118.51741478856272</v>
       </c>
       <c r="X72" s="6">
-        <f t="shared" si="76"/>
-        <v>126.81363382376212</v>
+        <f t="shared" si="77"/>
+        <v>122.0729372322196</v>
       </c>
       <c r="Y72" s="6">
-        <f t="shared" si="76"/>
-        <v>135.69058819142546</v>
+        <f t="shared" si="77"/>
+        <v>125.73512534918619</v>
       </c>
       <c r="Z72" s="6">
-        <f t="shared" si="76"/>
-        <v>145.18892936482524</v>
+        <f t="shared" si="77"/>
+        <v>129.50717910966179</v>
       </c>
       <c r="AA72" s="6">
-        <f t="shared" si="76"/>
-        <v>155.35215442036301</v>
+        <f t="shared" si="77"/>
+        <v>133.39239448295166</v>
       </c>
     </row>
     <row r="73" spans="2:29" x14ac:dyDescent="0.2">
@@ -3734,44 +3735,44 @@
         <v>78</v>
       </c>
       <c r="R73" s="6">
-        <f t="shared" ref="R73:AA73" si="77">Q73*(1+R27)</f>
+        <f t="shared" ref="R73:AA73" si="78">Q73*(1+R27)</f>
         <v>85.598697977214599</v>
       </c>
       <c r="S73" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>91.590606835619624</v>
       </c>
       <c r="T73" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>98.001949314113006</v>
       </c>
       <c r="U73" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>104.86208576610092</v>
       </c>
       <c r="V73" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>112.20243176972799</v>
       </c>
       <c r="W73" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>120.05660199360896</v>
       </c>
       <c r="X73" s="6">
-        <f t="shared" si="77"/>
-        <v>128.4605641331616</v>
+        <f t="shared" si="78"/>
+        <v>123.65830005341724</v>
       </c>
       <c r="Y73" s="6">
-        <f t="shared" si="77"/>
-        <v>137.45280362248292</v>
+        <f t="shared" si="78"/>
+        <v>127.36804905501975</v>
       </c>
       <c r="Z73" s="6">
-        <f t="shared" si="77"/>
-        <v>147.07449987605673</v>
+        <f t="shared" si="78"/>
+        <v>131.18909052667036</v>
       </c>
       <c r="AA73" s="6">
-        <f t="shared" si="77"/>
-        <v>157.36971486738071</v>
+        <f t="shared" si="78"/>
+        <v>135.12476324247046</v>
       </c>
     </row>
     <row r="74" spans="2:29" x14ac:dyDescent="0.2">
@@ -3788,44 +3789,44 @@
         <v>-468</v>
       </c>
       <c r="R74" s="6">
-        <f t="shared" ref="R74:AA74" si="78">Q74*(1+R27)</f>
+        <f t="shared" ref="R74:AA74" si="79">Q74*(1+R27)</f>
         <v>-513.59218786328768</v>
       </c>
       <c r="S74" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>-549.54364101371789</v>
       </c>
       <c r="T74" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>-588.01169588467815</v>
       </c>
       <c r="U74" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>-629.17251459660565</v>
       </c>
       <c r="V74" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>-673.21459061836811</v>
       </c>
       <c r="W74" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>-720.33961196165387</v>
       </c>
       <c r="X74" s="6">
-        <f t="shared" si="78"/>
-        <v>-770.7633847989697</v>
+        <f t="shared" si="79"/>
+        <v>-741.94980032050353</v>
       </c>
       <c r="Y74" s="6">
-        <f t="shared" si="78"/>
-        <v>-824.71682173489762</v>
+        <f t="shared" si="79"/>
+        <v>-764.20829433011863</v>
       </c>
       <c r="Z74" s="6">
-        <f t="shared" si="78"/>
-        <v>-882.44699925634052</v>
+        <f t="shared" si="79"/>
+        <v>-787.13454316002219</v>
       </c>
       <c r="AA74" s="6">
-        <f t="shared" si="78"/>
-        <v>-944.21828920428436</v>
+        <f t="shared" si="79"/>
+        <v>-810.7485794548229</v>
       </c>
     </row>
     <row r="75" spans="2:29" x14ac:dyDescent="0.2">
@@ -3842,44 +3843,44 @@
         <v>-35</v>
       </c>
       <c r="R75" s="6">
-        <f t="shared" ref="R75:AA75" si="79">Q75*(1+R27)</f>
+        <f t="shared" ref="R75:AA75" si="80">Q75*(1+R27)</f>
         <v>-38.409672169262961</v>
       </c>
       <c r="S75" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>-41.09834922111137</v>
       </c>
       <c r="T75" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>-43.975233666589169</v>
       </c>
       <c r="U75" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>-47.053500023250415</v>
       </c>
       <c r="V75" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>-50.34724502487795</v>
       </c>
       <c r="W75" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>-53.87155217661941</v>
       </c>
       <c r="X75" s="6">
-        <f t="shared" si="79"/>
-        <v>-57.642560828982774</v>
+        <f t="shared" si="80"/>
+        <v>-55.487698741917995</v>
       </c>
       <c r="Y75" s="6">
-        <f t="shared" si="79"/>
-        <v>-61.677540087011572</v>
+        <f t="shared" si="80"/>
+        <v>-57.152329704175536</v>
       </c>
       <c r="Z75" s="6">
-        <f t="shared" si="79"/>
-        <v>-65.994967893102384</v>
+        <f t="shared" si="80"/>
+        <v>-58.866899595300801</v>
       </c>
       <c r="AA75" s="6">
-        <f t="shared" si="79"/>
-        <v>-70.614615645619551</v>
+        <f t="shared" si="80"/>
+        <v>-60.632906583159823</v>
       </c>
       <c r="AC75" s="19"/>
     </row>
@@ -3897,44 +3898,44 @@
         <v>10</v>
       </c>
       <c r="R76" s="6">
-        <f t="shared" ref="R76:AA76" si="80">Q76*(1+R27)</f>
+        <f t="shared" ref="R76:AA76" si="81">Q76*(1+R27)</f>
         <v>10.974192048360846</v>
       </c>
       <c r="S76" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>11.742385491746106</v>
       </c>
       <c r="T76" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>12.564352476168335</v>
       </c>
       <c r="U76" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>13.443857149500118</v>
       </c>
       <c r="V76" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>14.384927149965128</v>
       </c>
       <c r="W76" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>15.391872050462688</v>
       </c>
       <c r="X76" s="6">
-        <f t="shared" si="80"/>
-        <v>16.469303093995077</v>
+        <f t="shared" si="81"/>
+        <v>15.853628211976568</v>
       </c>
       <c r="Y76" s="6">
-        <f t="shared" si="80"/>
-        <v>17.622154310574732</v>
+        <f t="shared" si="81"/>
+        <v>16.329237058335867</v>
       </c>
       <c r="Z76" s="6">
-        <f t="shared" si="80"/>
-        <v>18.855705112314965</v>
+        <f t="shared" si="81"/>
+        <v>16.819114170085943</v>
       </c>
       <c r="AA76" s="6">
-        <f t="shared" si="80"/>
-        <v>20.175604470177014</v>
+        <f t="shared" si="81"/>
+        <v>17.32368759518852</v>
       </c>
       <c r="AC76" s="19"/>
     </row>
@@ -3955,39 +3956,39 @@
         <v>0</v>
       </c>
       <c r="S77" s="6">
-        <f t="shared" ref="S77:AA77" si="81">R77*(1+S27)</f>
+        <f t="shared" ref="S77:AA77" si="82">R77*(1+S27)</f>
         <v>0</v>
       </c>
       <c r="T77" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="U77" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="V77" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="W77" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="X77" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="Y77" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="Z77" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AA77" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AC77" s="19"/>
@@ -4006,44 +4007,44 @@
         <v>-616</v>
       </c>
       <c r="R78" s="6">
-        <f t="shared" ref="R78:AA78" si="82">Q78*(1+R27)</f>
+        <f t="shared" ref="R78:AA78" si="83">Q78*(1+R27)</f>
         <v>-676.01023017902821</v>
       </c>
       <c r="S78" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-723.33094629156028</v>
       </c>
       <c r="T78" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-773.96411253196959</v>
       </c>
       <c r="U78" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-828.14160040920751</v>
       </c>
       <c r="V78" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-886.11151243785207</v>
       </c>
       <c r="W78" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>-948.13931830850174</v>
       </c>
       <c r="X78" s="6">
-        <f t="shared" si="82"/>
-        <v>-1014.5090705900969</v>
+        <f t="shared" si="83"/>
+        <v>-976.58349785775681</v>
       </c>
       <c r="Y78" s="6">
-        <f t="shared" si="82"/>
-        <v>-1085.5247055314037</v>
+        <f t="shared" si="83"/>
+        <v>-1005.8810027934895</v>
       </c>
       <c r="Z78" s="6">
-        <f t="shared" si="82"/>
-        <v>-1161.5114349186019</v>
+        <f t="shared" si="83"/>
+        <v>-1036.0574328772943</v>
       </c>
       <c r="AA78" s="6">
-        <f t="shared" si="82"/>
-        <v>-1242.8172353629041</v>
+        <f t="shared" si="83"/>
+        <v>-1067.1391558636133</v>
       </c>
       <c r="AC78" s="19"/>
     </row>
@@ -4061,44 +4062,44 @@
         <v>44</v>
       </c>
       <c r="R79" s="6">
-        <f t="shared" ref="R79:AA79" si="83">Q79*(1+R27)</f>
+        <f t="shared" ref="R79:AA79" si="84">Q79*(1+R27)</f>
         <v>48.286445012787723</v>
       </c>
       <c r="S79" s="6">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>51.666496163682865</v>
       </c>
       <c r="T79" s="6">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>55.283150895140672</v>
       </c>
       <c r="U79" s="6">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>59.152971457800525</v>
       </c>
       <c r="V79" s="6">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>63.293679459846565</v>
       </c>
       <c r="W79" s="6">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>67.724237022035823</v>
       </c>
       <c r="X79" s="6">
-        <f t="shared" si="83"/>
-        <v>72.464933613578339</v>
+        <f t="shared" si="84"/>
+        <v>69.755964132696903</v>
       </c>
       <c r="Y79" s="6">
-        <f t="shared" si="83"/>
-        <v>77.537478966528823</v>
+        <f t="shared" si="84"/>
+        <v>71.848643056677815</v>
       </c>
       <c r="Z79" s="6">
-        <f t="shared" si="83"/>
-        <v>82.965102494185842</v>
+        <f t="shared" si="84"/>
+        <v>74.004102348378154</v>
       </c>
       <c r="AA79" s="6">
-        <f t="shared" si="83"/>
-        <v>88.772659668778857</v>
+        <f t="shared" si="84"/>
+        <v>76.224225418829505</v>
       </c>
       <c r="AC79" s="19"/>
     </row>
@@ -4116,44 +4117,44 @@
         <v>196</v>
       </c>
       <c r="R80" s="6">
-        <f t="shared" ref="R80:AA80" si="84">Q80*(1+R27)</f>
+        <f t="shared" ref="R80:AA80" si="85">Q80*(1+R27)</f>
         <v>215.09416414787259</v>
       </c>
       <c r="S80" s="6">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>230.15075563822367</v>
       </c>
       <c r="T80" s="6">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>246.26130853289933</v>
       </c>
       <c r="U80" s="6">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>263.49960013020228</v>
       </c>
       <c r="V80" s="6">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>281.94457213931645</v>
       </c>
       <c r="W80" s="6">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>301.68069218906862</v>
       </c>
       <c r="X80" s="6">
-        <f t="shared" si="84"/>
-        <v>322.79834064230346</v>
+        <f t="shared" si="85"/>
+        <v>310.73111295474069</v>
       </c>
       <c r="Y80" s="6">
-        <f t="shared" si="84"/>
-        <v>345.39422448726469</v>
+        <f t="shared" si="85"/>
+        <v>320.0530463433829</v>
       </c>
       <c r="Z80" s="6">
-        <f t="shared" si="84"/>
-        <v>369.57182020137327</v>
+        <f t="shared" si="85"/>
+        <v>329.65463773368441</v>
       </c>
       <c r="AA80" s="6">
-        <f t="shared" si="84"/>
-        <v>395.44184761546944</v>
+        <f t="shared" si="85"/>
+        <v>339.54427686569494</v>
       </c>
     </row>
     <row r="81" spans="1:115" x14ac:dyDescent="0.2">
@@ -4170,44 +4171,44 @@
         <v>68</v>
       </c>
       <c r="R81" s="6">
-        <f t="shared" ref="R81:AA81" si="85">Q81*(1+R27)</f>
+        <f t="shared" ref="R81:AA81" si="86">Q81*(1+R27)</f>
         <v>74.624505928853765</v>
       </c>
       <c r="S81" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>79.848221343873533</v>
       </c>
       <c r="T81" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>85.437596837944682</v>
       </c>
       <c r="U81" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>91.418228616600814</v>
       </c>
       <c r="V81" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>97.817504619762872</v>
       </c>
       <c r="W81" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>104.66472994314628</v>
       </c>
       <c r="X81" s="6">
-        <f t="shared" si="85"/>
-        <v>111.99126103916653</v>
+        <f t="shared" si="86"/>
+        <v>107.80467184144068</v>
       </c>
       <c r="Y81" s="6">
-        <f t="shared" si="85"/>
-        <v>119.83064931190819</v>
+        <f t="shared" si="86"/>
+        <v>111.0388119966839</v>
       </c>
       <c r="Z81" s="6">
-        <f t="shared" si="85"/>
-        <v>128.21879476374178</v>
+        <f t="shared" si="86"/>
+        <v>114.36997635658443</v>
       </c>
       <c r="AA81" s="6">
-        <f t="shared" si="85"/>
-        <v>137.19411039720373</v>
+        <f t="shared" si="86"/>
+        <v>117.80107564728196</v>
       </c>
     </row>
     <row r="82" spans="1:115" x14ac:dyDescent="0.2">
@@ -4227,39 +4228,39 @@
         <v>0</v>
       </c>
       <c r="S82" s="6">
-        <f t="shared" ref="S82:AA82" si="86">R82*(1+S27)</f>
+        <f t="shared" ref="S82:AA82" si="87">R82*(1+S27)</f>
         <v>0</v>
       </c>
       <c r="T82" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="U82" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="V82" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="W82" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="X82" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="Y82" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="Z82" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="AA82" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
     </row>
@@ -4281,52 +4282,52 @@
         <v>7838</v>
       </c>
       <c r="P83" s="10">
-        <f t="shared" ref="P83:Q83" si="87">SUM(P69:P82)</f>
+        <f t="shared" ref="P83:Q83" si="88">SUM(P69:P82)</f>
         <v>7302</v>
       </c>
       <c r="Q83" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>8056</v>
       </c>
       <c r="R83" s="10">
         <f>SUM(R68:R82)</f>
-        <v>9542.5354786053977</v>
+        <v>9724.1311786053957</v>
       </c>
       <c r="S83" s="10">
-        <f t="shared" ref="S83:V83" si="88">SUM(S68:S82)</f>
-        <v>10240.90647017057</v>
+        <f t="shared" ref="S83:V83" si="89">SUM(S68:S82)</f>
+        <v>10627.705311170574</v>
       </c>
       <c r="T83" s="10">
-        <f t="shared" si="88"/>
-        <v>11080.959361439791</v>
+        <f t="shared" si="89"/>
+        <v>11705.332229730391</v>
       </c>
       <c r="U83" s="10">
-        <f t="shared" si="88"/>
-        <v>11981.761807981782</v>
+        <f t="shared" si="89"/>
+        <v>12876.155148700904</v>
       </c>
       <c r="V83" s="10">
-        <f t="shared" si="88"/>
-        <v>12947.701637697293</v>
+        <f t="shared" si="89"/>
+        <v>14147.881247423076</v>
       </c>
       <c r="W83" s="10">
-        <f t="shared" ref="W83:AA83" si="89">SUM(W68:W82)</f>
-        <v>13983.495416551668</v>
+        <f t="shared" ref="W83:AA83" si="90">SUM(W68:W82)</f>
+        <v>15528.849029929828</v>
       </c>
       <c r="X83" s="10">
-        <f t="shared" si="89"/>
-        <v>15382.384029426566</v>
+        <f t="shared" si="90"/>
+        <v>16481.942369768429</v>
       </c>
       <c r="Y83" s="10">
-        <f t="shared" si="89"/>
-        <v>16903.897899110423</v>
+        <f t="shared" si="90"/>
+        <v>17492.296433058083</v>
       </c>
       <c r="Z83" s="10">
-        <f t="shared" si="89"/>
-        <v>18558.323614146397</v>
+        <f t="shared" si="90"/>
+        <v>18564.033133434998</v>
       </c>
       <c r="AA83" s="10">
-        <f t="shared" si="89"/>
-        <v>20356.801351954764</v>
+        <f t="shared" si="90"/>
+        <v>19701.628174518126</v>
       </c>
     </row>
     <row r="84" spans="1:115" x14ac:dyDescent="0.2">
@@ -4408,7 +4409,7 @@
       </c>
       <c r="AD87" s="10">
         <f>NPV(AD86,R92:DK92)+Main!O5-Main!O6</f>
-        <v>200638.02343928869</v>
+        <v>201311.51690912101</v>
       </c>
     </row>
     <row r="88" spans="1:115" x14ac:dyDescent="0.2">
@@ -4430,7 +4431,7 @@
       </c>
       <c r="AD88" s="9">
         <f>AD87/Main!O3</f>
-        <v>472.97978179936041</v>
+        <v>474.56746088901701</v>
       </c>
     </row>
     <row r="89" spans="1:115" x14ac:dyDescent="0.2">
@@ -4451,7 +4452,7 @@
       </c>
       <c r="AD89" s="14">
         <f>AD88/Main!O2-1</f>
-        <v>0.26974438066942397</v>
+        <v>0.36369960025579595</v>
       </c>
     </row>
     <row r="90" spans="1:115" x14ac:dyDescent="0.2">
@@ -4486,51 +4487,51 @@
         <v>-568</v>
       </c>
       <c r="P91" s="10">
-        <f t="shared" ref="P91:Q91" si="90">P88+P87</f>
+        <f t="shared" ref="P91:Q91" si="91">P88+P87</f>
         <v>-360</v>
       </c>
       <c r="Q91" s="10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>-183</v>
       </c>
       <c r="R91" s="10">
         <v>-300</v>
       </c>
       <c r="S91" s="10">
-        <f t="shared" ref="S91:AA91" si="91">R91*(1+S27)</f>
+        <f t="shared" ref="S91:AA91" si="92">R91*(1+S27)</f>
         <v>-321</v>
       </c>
       <c r="T91" s="10">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>-343.47</v>
       </c>
       <c r="U91" s="10">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>-367.51290000000006</v>
       </c>
       <c r="V91" s="10">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>-393.23880300000008</v>
       </c>
       <c r="W91" s="10">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>-420.76551921000009</v>
       </c>
       <c r="X91" s="10">
-        <f t="shared" si="91"/>
-        <v>-450.21910555470015</v>
+        <f t="shared" si="92"/>
+        <v>-433.38848478630013</v>
       </c>
       <c r="Y91" s="10">
-        <f t="shared" si="91"/>
-        <v>-481.73444294352919</v>
+        <f t="shared" si="92"/>
+        <v>-446.39013932988917</v>
       </c>
       <c r="Z91" s="10">
-        <f t="shared" si="91"/>
-        <v>-515.45585394957629</v>
+        <f t="shared" si="92"/>
+        <v>-459.78184350978586</v>
       </c>
       <c r="AA91" s="10">
-        <f t="shared" si="91"/>
-        <v>-551.53776372604671</v>
+        <f t="shared" si="92"/>
+        <v>-473.57529881507946</v>
       </c>
     </row>
     <row r="92" spans="1:115" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -4551,404 +4552,404 @@
         <v>7270</v>
       </c>
       <c r="P92" s="10">
-        <f t="shared" ref="P92:V92" si="92">P83+P91</f>
+        <f t="shared" ref="P92:V92" si="93">P83+P91</f>
         <v>6942</v>
       </c>
       <c r="Q92" s="10">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>7873</v>
       </c>
       <c r="R92" s="10">
-        <f t="shared" si="92"/>
-        <v>9242.5354786053977</v>
+        <f t="shared" si="93"/>
+        <v>9424.1311786053957</v>
       </c>
       <c r="S92" s="10">
-        <f t="shared" si="92"/>
-        <v>9919.9064701705702</v>
+        <f t="shared" si="93"/>
+        <v>10306.705311170574</v>
       </c>
       <c r="T92" s="10">
-        <f t="shared" si="92"/>
-        <v>10737.489361439792</v>
+        <f t="shared" si="93"/>
+        <v>11361.862229730392</v>
       </c>
       <c r="U92" s="10">
-        <f t="shared" si="92"/>
-        <v>11614.248907981782</v>
+        <f t="shared" si="93"/>
+        <v>12508.642248700904</v>
       </c>
       <c r="V92" s="10">
-        <f t="shared" si="92"/>
-        <v>12554.462834697293</v>
+        <f t="shared" si="93"/>
+        <v>13754.642444423076</v>
       </c>
       <c r="W92" s="10">
-        <f t="shared" ref="W92:AA92" si="93">W83+W91</f>
-        <v>13562.729897341669</v>
+        <f t="shared" ref="W92:AA92" si="94">W83+W91</f>
+        <v>15108.083510719829</v>
       </c>
       <c r="X92" s="10">
-        <f t="shared" si="93"/>
-        <v>14932.164923871866</v>
+        <f t="shared" si="94"/>
+        <v>16048.553884982128</v>
       </c>
       <c r="Y92" s="10">
-        <f t="shared" si="93"/>
-        <v>16422.163456166894</v>
+        <f t="shared" si="94"/>
+        <v>17045.906293728196</v>
       </c>
       <c r="Z92" s="10">
-        <f t="shared" si="93"/>
-        <v>18042.867760196819</v>
+        <f t="shared" si="94"/>
+        <v>18104.251289925211</v>
       </c>
       <c r="AA92" s="10">
-        <f t="shared" si="93"/>
-        <v>19805.263588228718</v>
+        <f t="shared" si="94"/>
+        <v>19228.052875703048</v>
       </c>
       <c r="AB92" s="10">
-        <f t="shared" ref="AB92:BG92" si="94">AA92*(1+$AD$85)</f>
-        <v>20003.316224111004</v>
+        <f t="shared" ref="AB92:BG92" si="95">AA92*(1+$AD$85)</f>
+        <v>19420.333404460078</v>
       </c>
       <c r="AC92" s="10">
-        <f t="shared" si="94"/>
-        <v>20203.349386352114</v>
+        <f t="shared" si="95"/>
+        <v>19614.536738504677</v>
       </c>
       <c r="AD92" s="10">
-        <f t="shared" si="94"/>
-        <v>20405.382880215635</v>
+        <f t="shared" si="95"/>
+        <v>19810.682105889726</v>
       </c>
       <c r="AE92" s="10">
-        <f t="shared" si="94"/>
-        <v>20609.436709017791</v>
+        <f t="shared" si="95"/>
+        <v>20008.788926948622</v>
       </c>
       <c r="AF92" s="10">
-        <f t="shared" si="94"/>
-        <v>20815.531076107971</v>
+        <f t="shared" si="95"/>
+        <v>20208.876816218108</v>
       </c>
       <c r="AG92" s="10">
-        <f t="shared" si="94"/>
-        <v>21023.686386869053</v>
+        <f t="shared" si="95"/>
+        <v>20410.96558438029</v>
       </c>
       <c r="AH92" s="10">
-        <f t="shared" si="94"/>
-        <v>21233.923250737742</v>
+        <f t="shared" si="95"/>
+        <v>20615.075240224094</v>
       </c>
       <c r="AI92" s="10">
-        <f t="shared" si="94"/>
-        <v>21446.262483245118</v>
+        <f t="shared" si="95"/>
+        <v>20821.225992626336</v>
       </c>
       <c r="AJ92" s="10">
-        <f t="shared" si="94"/>
-        <v>21660.725108077571</v>
+        <f t="shared" si="95"/>
+        <v>21029.438252552598</v>
       </c>
       <c r="AK92" s="10">
-        <f t="shared" si="94"/>
-        <v>21877.332359158347</v>
+        <f t="shared" si="95"/>
+        <v>21239.732635078126</v>
       </c>
       <c r="AL92" s="10">
-        <f t="shared" si="94"/>
-        <v>22096.105682749931</v>
+        <f t="shared" si="95"/>
+        <v>21452.129961428909</v>
       </c>
       <c r="AM92" s="10">
-        <f t="shared" si="94"/>
-        <v>22317.066739577429</v>
+        <f t="shared" si="95"/>
+        <v>21666.6512610432</v>
       </c>
       <c r="AN92" s="10">
-        <f t="shared" si="94"/>
-        <v>22540.237406973203</v>
+        <f t="shared" si="95"/>
+        <v>21883.317773653631</v>
       </c>
       <c r="AO92" s="10">
-        <f t="shared" si="94"/>
-        <v>22765.639781042937</v>
+        <f t="shared" si="95"/>
+        <v>22102.150951390166</v>
       </c>
       <c r="AP92" s="10">
-        <f t="shared" si="94"/>
-        <v>22993.296178853368</v>
+        <f t="shared" si="95"/>
+        <v>22323.172460904068</v>
       </c>
       <c r="AQ92" s="10">
-        <f t="shared" si="94"/>
-        <v>23223.229140641903</v>
+        <f t="shared" si="95"/>
+        <v>22546.404185513111</v>
       </c>
       <c r="AR92" s="10">
-        <f t="shared" si="94"/>
-        <v>23455.461432048323</v>
+        <f t="shared" si="95"/>
+        <v>22771.868227368243</v>
       </c>
       <c r="AS92" s="10">
-        <f t="shared" si="94"/>
-        <v>23690.016046368808</v>
+        <f t="shared" si="95"/>
+        <v>22999.586909641926</v>
       </c>
       <c r="AT92" s="10">
-        <f t="shared" si="94"/>
-        <v>23926.916206832495</v>
+        <f t="shared" si="95"/>
+        <v>23229.582778738346</v>
       </c>
       <c r="AU92" s="10">
-        <f t="shared" si="94"/>
-        <v>24166.18536890082</v>
+        <f t="shared" si="95"/>
+        <v>23461.87860652573</v>
       </c>
       <c r="AV92" s="10">
-        <f t="shared" si="94"/>
-        <v>24407.847222589829</v>
+        <f t="shared" si="95"/>
+        <v>23696.497392590987</v>
       </c>
       <c r="AW92" s="10">
-        <f t="shared" si="94"/>
-        <v>24651.925694815727</v>
+        <f t="shared" si="95"/>
+        <v>23933.462366516898</v>
       </c>
       <c r="AX92" s="10">
-        <f t="shared" si="94"/>
-        <v>24898.444951763886</v>
+        <f t="shared" si="95"/>
+        <v>24172.796990182069</v>
       </c>
       <c r="AY92" s="10">
-        <f t="shared" si="94"/>
-        <v>25147.429401281526</v>
+        <f t="shared" si="95"/>
+        <v>24414.524960083891</v>
       </c>
       <c r="AZ92" s="10">
-        <f t="shared" si="94"/>
-        <v>25398.903695294342</v>
+        <f t="shared" si="95"/>
+        <v>24658.670209684729</v>
       </c>
       <c r="BA92" s="10">
-        <f t="shared" si="94"/>
-        <v>25652.892732247285</v>
+        <f t="shared" si="95"/>
+        <v>24905.256911781576</v>
       </c>
       <c r="BB92" s="10">
-        <f t="shared" si="94"/>
-        <v>25909.421659569758</v>
+        <f t="shared" si="95"/>
+        <v>25154.309480899392</v>
       </c>
       <c r="BC92" s="10">
-        <f t="shared" si="94"/>
-        <v>26168.515876165457</v>
+        <f t="shared" si="95"/>
+        <v>25405.852575708384</v>
       </c>
       <c r="BD92" s="10">
-        <f t="shared" si="94"/>
-        <v>26430.201034927111</v>
+        <f t="shared" si="95"/>
+        <v>25659.91110146547</v>
       </c>
       <c r="BE92" s="10">
-        <f t="shared" si="94"/>
-        <v>26694.503045276382</v>
+        <f t="shared" si="95"/>
+        <v>25916.510212480123</v>
       </c>
       <c r="BF92" s="10">
-        <f t="shared" si="94"/>
-        <v>26961.448075729146</v>
+        <f t="shared" si="95"/>
+        <v>26175.675314604923</v>
       </c>
       <c r="BG92" s="10">
-        <f t="shared" si="94"/>
-        <v>27231.062556486439</v>
+        <f t="shared" si="95"/>
+        <v>26437.432067750971</v>
       </c>
       <c r="BH92" s="10">
-        <f t="shared" ref="BH92:CM92" si="95">BG92*(1+$AD$85)</f>
-        <v>27503.373182051302</v>
+        <f t="shared" ref="BH92:CM92" si="96">BG92*(1+$AD$85)</f>
+        <v>26701.806388428482</v>
       </c>
       <c r="BI92" s="10">
-        <f t="shared" si="95"/>
-        <v>27778.406913871815</v>
+        <f t="shared" si="96"/>
+        <v>26968.824452312769</v>
       </c>
       <c r="BJ92" s="10">
-        <f t="shared" si="95"/>
-        <v>28056.190983010532</v>
+        <f t="shared" si="96"/>
+        <v>27238.512696835896</v>
       </c>
       <c r="BK92" s="10">
-        <f t="shared" si="95"/>
-        <v>28336.752892840639</v>
+        <f t="shared" si="96"/>
+        <v>27510.897823804255</v>
       </c>
       <c r="BL92" s="10">
-        <f t="shared" si="95"/>
-        <v>28620.120421769047</v>
+        <f t="shared" si="96"/>
+        <v>27786.006802042299</v>
       </c>
       <c r="BM92" s="10">
-        <f t="shared" si="95"/>
-        <v>28906.321625986737</v>
+        <f t="shared" si="96"/>
+        <v>28063.86687006272</v>
       </c>
       <c r="BN92" s="10">
-        <f t="shared" si="95"/>
-        <v>29195.384842246604</v>
+        <f t="shared" si="96"/>
+        <v>28344.505538763347</v>
       </c>
       <c r="BO92" s="10">
-        <f t="shared" si="95"/>
-        <v>29487.338690669068</v>
+        <f t="shared" si="96"/>
+        <v>28627.950594150981</v>
       </c>
       <c r="BP92" s="10">
-        <f t="shared" si="95"/>
-        <v>29782.212077575761</v>
+        <f t="shared" si="96"/>
+        <v>28914.230100092493</v>
       </c>
       <c r="BQ92" s="10">
-        <f t="shared" si="95"/>
-        <v>30080.034198351521</v>
+        <f t="shared" si="96"/>
+        <v>29203.372401093417</v>
       </c>
       <c r="BR92" s="10">
-        <f t="shared" si="95"/>
-        <v>30380.834540335036</v>
+        <f t="shared" si="96"/>
+        <v>29495.406125104349</v>
       </c>
       <c r="BS92" s="10">
-        <f t="shared" si="95"/>
-        <v>30684.642885738387</v>
+        <f t="shared" si="96"/>
+        <v>29790.360186355392</v>
       </c>
       <c r="BT92" s="10">
-        <f t="shared" si="95"/>
-        <v>30991.489314595772</v>
+        <f t="shared" si="96"/>
+        <v>30088.263788218945</v>
       </c>
       <c r="BU92" s="10">
-        <f t="shared" si="95"/>
-        <v>31301.404207741729</v>
+        <f t="shared" si="96"/>
+        <v>30389.146426101135</v>
       </c>
       <c r="BV92" s="10">
-        <f t="shared" si="95"/>
-        <v>31614.418249819148</v>
+        <f t="shared" si="96"/>
+        <v>30693.037890362146</v>
       </c>
       <c r="BW92" s="10">
-        <f t="shared" si="95"/>
-        <v>31930.56243231734</v>
+        <f t="shared" si="96"/>
+        <v>30999.968269265766</v>
       </c>
       <c r="BX92" s="10">
-        <f t="shared" si="95"/>
-        <v>32249.868056640513</v>
+        <f t="shared" si="96"/>
+        <v>31309.967951958424</v>
       </c>
       <c r="BY92" s="10">
-        <f t="shared" si="95"/>
-        <v>32572.366737206918</v>
+        <f t="shared" si="96"/>
+        <v>31623.06763147801</v>
       </c>
       <c r="BZ92" s="10">
-        <f t="shared" si="95"/>
-        <v>32898.090404578987</v>
+        <f t="shared" si="96"/>
+        <v>31939.298307792789</v>
       </c>
       <c r="CA92" s="10">
-        <f t="shared" si="95"/>
-        <v>33227.071308624778</v>
+        <f t="shared" si="96"/>
+        <v>32258.691290870716</v>
       </c>
       <c r="CB92" s="10">
-        <f t="shared" si="95"/>
-        <v>33559.342021711025</v>
+        <f t="shared" si="96"/>
+        <v>32581.278203779424</v>
       </c>
       <c r="CC92" s="10">
-        <f t="shared" si="95"/>
-        <v>33894.935441928137</v>
+        <f t="shared" si="96"/>
+        <v>32907.090985817216</v>
       </c>
       <c r="CD92" s="10">
-        <f t="shared" si="95"/>
-        <v>34233.884796347418</v>
+        <f t="shared" si="96"/>
+        <v>33236.161895675388</v>
       </c>
       <c r="CE92" s="10">
-        <f t="shared" si="95"/>
-        <v>34576.223644310892</v>
+        <f t="shared" si="96"/>
+        <v>33568.523514632143</v>
       </c>
       <c r="CF92" s="10">
-        <f t="shared" si="95"/>
-        <v>34921.985880754</v>
+        <f t="shared" si="96"/>
+        <v>33904.208749778467</v>
       </c>
       <c r="CG92" s="10">
-        <f t="shared" si="95"/>
-        <v>35271.205739561541</v>
+        <f t="shared" si="96"/>
+        <v>34243.250837276253</v>
       </c>
       <c r="CH92" s="10">
-        <f t="shared" si="95"/>
-        <v>35623.917796957154</v>
+        <f t="shared" si="96"/>
+        <v>34585.683345649013</v>
       </c>
       <c r="CI92" s="10">
-        <f t="shared" si="95"/>
-        <v>35980.156974926729</v>
+        <f t="shared" si="96"/>
+        <v>34931.540179105505</v>
       </c>
       <c r="CJ92" s="10">
-        <f t="shared" si="95"/>
-        <v>36339.958544675996</v>
+        <f t="shared" si="96"/>
+        <v>35280.855580896561</v>
       </c>
       <c r="CK92" s="10">
-        <f t="shared" si="95"/>
-        <v>36703.358130122753</v>
+        <f t="shared" si="96"/>
+        <v>35633.664136705527</v>
       </c>
       <c r="CL92" s="10">
-        <f t="shared" si="95"/>
-        <v>37070.391711423981</v>
+        <f t="shared" si="96"/>
+        <v>35990.000778072586</v>
       </c>
       <c r="CM92" s="10">
-        <f t="shared" si="95"/>
-        <v>37441.09562853822</v>
+        <f t="shared" si="96"/>
+        <v>36349.900785853315</v>
       </c>
       <c r="CN92" s="10">
-        <f t="shared" ref="CN92:DK92" si="96">CM92*(1+$AD$85)</f>
-        <v>37815.506584823604</v>
+        <f t="shared" ref="CN92:DK92" si="97">CM92*(1+$AD$85)</f>
+        <v>36713.399793711847</v>
       </c>
       <c r="CO92" s="10">
-        <f t="shared" si="96"/>
-        <v>38193.661650671842</v>
+        <f t="shared" si="97"/>
+        <v>37080.533791648966</v>
       </c>
       <c r="CP92" s="10">
-        <f t="shared" si="96"/>
-        <v>38575.59826717856</v>
+        <f t="shared" si="97"/>
+        <v>37451.339129565458</v>
       </c>
       <c r="CQ92" s="10">
-        <f t="shared" si="96"/>
-        <v>38961.354249850345</v>
+        <f t="shared" si="97"/>
+        <v>37825.85252086111</v>
       </c>
       <c r="CR92" s="10">
-        <f t="shared" si="96"/>
-        <v>39350.967792348849</v>
+        <f t="shared" si="97"/>
+        <v>38204.111046069724</v>
       </c>
       <c r="CS92" s="10">
-        <f t="shared" si="96"/>
-        <v>39744.477470272337</v>
+        <f t="shared" si="97"/>
+        <v>38586.152156530421</v>
       </c>
       <c r="CT92" s="10">
-        <f t="shared" si="96"/>
-        <v>40141.92224497506</v>
+        <f t="shared" si="97"/>
+        <v>38972.013678095725</v>
       </c>
       <c r="CU92" s="10">
-        <f t="shared" si="96"/>
-        <v>40543.341467424812</v>
+        <f t="shared" si="97"/>
+        <v>39361.733814876687</v>
       </c>
       <c r="CV92" s="10">
-        <f t="shared" si="96"/>
-        <v>40948.77488209906</v>
+        <f t="shared" si="97"/>
+        <v>39755.351153025455</v>
       </c>
       <c r="CW92" s="10">
-        <f t="shared" si="96"/>
-        <v>41358.26263092005</v>
+        <f t="shared" si="97"/>
+        <v>40152.90466455571</v>
       </c>
       <c r="CX92" s="10">
-        <f t="shared" si="96"/>
-        <v>41771.845257229252</v>
+        <f t="shared" si="97"/>
+        <v>40554.433711201265</v>
       </c>
       <c r="CY92" s="10">
-        <f t="shared" si="96"/>
-        <v>42189.563709801543</v>
+        <f t="shared" si="97"/>
+        <v>40959.978048313278</v>
       </c>
       <c r="CZ92" s="10">
-        <f t="shared" si="96"/>
-        <v>42611.459346899559</v>
+        <f t="shared" si="97"/>
+        <v>41369.577828796413</v>
       </c>
       <c r="DA92" s="10">
-        <f t="shared" si="96"/>
-        <v>43037.573940368558</v>
+        <f t="shared" si="97"/>
+        <v>41783.273607084375</v>
       </c>
       <c r="DB92" s="10">
-        <f t="shared" si="96"/>
-        <v>43467.949679772246</v>
+        <f t="shared" si="97"/>
+        <v>42201.106343155217</v>
       </c>
       <c r="DC92" s="10">
-        <f t="shared" si="96"/>
-        <v>43902.629176569972</v>
+        <f t="shared" si="97"/>
+        <v>42623.117406586767</v>
       </c>
       <c r="DD92" s="10">
-        <f t="shared" si="96"/>
-        <v>44341.655468335674</v>
+        <f t="shared" si="97"/>
+        <v>43049.348580652637</v>
       </c>
       <c r="DE92" s="10">
-        <f t="shared" si="96"/>
-        <v>44785.072023019027</v>
+        <f t="shared" si="97"/>
+        <v>43479.842066459161</v>
       </c>
       <c r="DF92" s="10">
-        <f t="shared" si="96"/>
-        <v>45232.922743249219</v>
+        <f t="shared" si="97"/>
+        <v>43914.640487123754</v>
       </c>
       <c r="DG92" s="10">
-        <f t="shared" si="96"/>
-        <v>45685.251970681711</v>
+        <f t="shared" si="97"/>
+        <v>44353.786891994991</v>
       </c>
       <c r="DH92" s="10">
-        <f t="shared" si="96"/>
-        <v>46142.104490388527</v>
+        <f t="shared" si="97"/>
+        <v>44797.32476091494</v>
       </c>
       <c r="DI92" s="10">
-        <f t="shared" si="96"/>
-        <v>46603.525535292414</v>
+        <f t="shared" si="97"/>
+        <v>45245.298008524092</v>
       </c>
       <c r="DJ92" s="10">
-        <f t="shared" si="96"/>
-        <v>47069.560790645337</v>
+        <f t="shared" si="97"/>
+        <v>45697.750988609332</v>
       </c>
       <c r="DK92" s="10">
-        <f t="shared" si="96"/>
-        <v>47540.256398551792</v>
+        <f t="shared" si="97"/>
+        <v>46154.728498495424</v>
       </c>
     </row>
     <row r="93" spans="1:115" x14ac:dyDescent="0.2">

--- a/ADBE.xlsx
+++ b/ADBE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5E74B9-C211-4A79-98C0-97C39ABA1CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D4799C-3561-426F-AD50-5DD244CDDFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="1425" windowWidth="22335" windowHeight="13875" activeTab="1" xr2:uid="{B5255683-9904-4B96-B116-504FB2085B5B}"/>
+    <workbookView xWindow="4395" yWindow="345" windowWidth="21540" windowHeight="14760" activeTab="1" xr2:uid="{B5255683-9904-4B96-B116-504FB2085B5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="3">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -958,7 +958,7 @@
       </c>
       <c r="O4" s="4">
         <f>O3*O2</f>
-        <v>147621.6</v>
+        <v>144652.19999999998</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -991,7 +991,7 @@
       </c>
       <c r="O7" s="4">
         <f>O4+O6-O5</f>
-        <v>149528.6</v>
+        <v>146559.19999999998</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1038,10 +1038,10 @@
   <dimension ref="A1:DK94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE93" sqref="AE93"/>
+      <selection pane="bottomRight" activeCell="W92" sqref="W92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1133,22 +1133,10 @@
         <f t="shared" ref="W2" si="1">V2+1</f>
         <v>2030</v>
       </c>
-      <c r="X2" s="8">
-        <f t="shared" ref="X2" si="2">W2+1</f>
-        <v>2031</v>
-      </c>
-      <c r="Y2" s="8">
-        <f t="shared" ref="Y2" si="3">X2+1</f>
-        <v>2032</v>
-      </c>
-      <c r="Z2" s="8">
-        <f t="shared" ref="Z2" si="4">Y2+1</f>
-        <v>2033</v>
-      </c>
-      <c r="AA2" s="8">
-        <f t="shared" ref="AA2" si="5">Z2+1</f>
-        <v>2034</v>
-      </c>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
@@ -1372,51 +1360,35 @@
         <v>17606</v>
       </c>
       <c r="P9" s="10">
-        <f t="shared" ref="P9:Q9" si="6">SUM(P6:P8)</f>
+        <f t="shared" ref="P9:Q9" si="2">SUM(P6:P8)</f>
         <v>19409</v>
       </c>
       <c r="Q9" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>21505</v>
       </c>
       <c r="R9" s="10">
         <v>23600</v>
       </c>
       <c r="S9" s="10">
-        <f>R9*1.07</f>
-        <v>25252</v>
+        <f>R9*1.1</f>
+        <v>25960.000000000004</v>
       </c>
       <c r="T9" s="10">
-        <f t="shared" ref="T9:AA9" si="7">S9*1.07</f>
-        <v>27019.640000000003</v>
+        <f t="shared" ref="T9:W9" si="3">S9*1.1</f>
+        <v>28556.000000000007</v>
       </c>
       <c r="U9" s="10">
-        <f t="shared" si="7"/>
-        <v>28911.014800000004</v>
+        <f t="shared" si="3"/>
+        <v>31411.600000000009</v>
       </c>
       <c r="V9" s="10">
-        <f t="shared" si="7"/>
-        <v>30934.785836000006</v>
+        <f t="shared" si="3"/>
+        <v>34552.760000000017</v>
       </c>
       <c r="W9" s="10">
-        <f t="shared" si="7"/>
-        <v>33100.220844520009</v>
-      </c>
-      <c r="X9" s="10">
-        <f t="shared" ref="X9:AA9" si="8">W9*1.03</f>
-        <v>34093.227469855607</v>
-      </c>
-      <c r="Y9" s="10">
-        <f t="shared" si="8"/>
-        <v>35116.024293951275</v>
-      </c>
-      <c r="Z9" s="10">
-        <f t="shared" si="8"/>
-        <v>36169.505022769816</v>
-      </c>
-      <c r="AA9" s="10">
-        <f t="shared" si="8"/>
-        <v>37254.590173452911</v>
+        <f t="shared" si="3"/>
+        <v>38008.036000000022</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
@@ -1496,19 +1468,19 @@
         <v>598</v>
       </c>
       <c r="E13" s="7">
-        <f t="shared" ref="E13:H13" si="9">SUM(E10:E12)</f>
+        <f t="shared" ref="E13:H13" si="4">SUM(E10:E12)</f>
         <v>0</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H13" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>638</v>
       </c>
       <c r="I13" s="6">
@@ -1537,52 +1509,36 @@
         <v>2165</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" ref="P13:Q13" si="10">SUM(P10:P12)</f>
+        <f t="shared" ref="P13:Q13" si="5">SUM(P10:P12)</f>
         <v>2354</v>
       </c>
       <c r="Q13" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>2358</v>
       </c>
       <c r="R13" s="6">
-        <f t="shared" ref="R13:W13" si="11">R9*(1-R31)</f>
+        <f t="shared" ref="R13:W13" si="6">R9*(1-R31)</f>
         <v>2595.9999999999995</v>
       </c>
       <c r="S13" s="6">
-        <f t="shared" si="11"/>
-        <v>2777.72</v>
+        <f t="shared" si="6"/>
+        <v>2855.6</v>
       </c>
       <c r="T13" s="6">
-        <f t="shared" si="11"/>
-        <v>2972.1603999999998</v>
+        <f t="shared" si="6"/>
+        <v>3141.1600000000003</v>
       </c>
       <c r="U13" s="6">
-        <f t="shared" si="11"/>
-        <v>3180.211628</v>
+        <f t="shared" si="6"/>
+        <v>3455.2760000000007</v>
       </c>
       <c r="V13" s="6">
-        <f t="shared" si="11"/>
-        <v>3402.8264419600005</v>
+        <f t="shared" si="6"/>
+        <v>3800.8036000000016</v>
       </c>
       <c r="W13" s="6">
-        <f t="shared" si="11"/>
-        <v>3641.0242928972007</v>
-      </c>
-      <c r="X13" s="6">
-        <f t="shared" ref="X13:AA13" si="12">X9*(1-X31)</f>
-        <v>3750.2550216841164</v>
-      </c>
-      <c r="Y13" s="6">
-        <f t="shared" si="12"/>
-        <v>3862.7626723346398</v>
-      </c>
-      <c r="Z13" s="6">
-        <f t="shared" si="12"/>
-        <v>3978.6455525046795</v>
-      </c>
-      <c r="AA13" s="6">
-        <f t="shared" si="12"/>
-        <v>4098.00491907982</v>
+        <f t="shared" si="6"/>
+        <v>4180.8839600000019</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
@@ -1598,27 +1554,27 @@
         <v>4711</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" ref="E14:J14" si="13">E9-E13</f>
+        <f t="shared" ref="E14:J14" si="7">E9-E13</f>
         <v>0</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G14" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5710</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5235</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5251</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>5356.02</v>
       </c>
       <c r="K14" s="6"/>
@@ -1627,52 +1583,36 @@
         <v>15441</v>
       </c>
       <c r="P14" s="6">
-        <f t="shared" ref="P14:Q14" si="14">P9-P13</f>
+        <f t="shared" ref="P14:Q14" si="8">P9-P13</f>
         <v>17055</v>
       </c>
       <c r="Q14" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>19147</v>
       </c>
       <c r="R14" s="6">
-        <f t="shared" ref="R14" si="15">R9-R13</f>
+        <f t="shared" ref="R14" si="9">R9-R13</f>
         <v>21004</v>
       </c>
       <c r="S14" s="6">
-        <f t="shared" ref="S14" si="16">S9-S13</f>
-        <v>22474.28</v>
+        <f t="shared" ref="S14" si="10">S9-S13</f>
+        <v>23104.400000000005</v>
       </c>
       <c r="T14" s="6">
-        <f t="shared" ref="T14" si="17">T9-T13</f>
-        <v>24047.479600000002</v>
+        <f t="shared" ref="T14" si="11">T9-T13</f>
+        <v>25414.840000000007</v>
       </c>
       <c r="U14" s="6">
-        <f t="shared" ref="U14" si="18">U9-U13</f>
-        <v>25730.803172000004</v>
+        <f t="shared" ref="U14" si="12">U9-U13</f>
+        <v>27956.324000000008</v>
       </c>
       <c r="V14" s="6">
-        <f t="shared" ref="V14:W14" si="19">V9-V13</f>
-        <v>27531.959394040005</v>
+        <f t="shared" ref="V14:W14" si="13">V9-V13</f>
+        <v>30751.956400000014</v>
       </c>
       <c r="W14" s="6">
-        <f t="shared" si="19"/>
-        <v>29459.196551622808</v>
-      </c>
-      <c r="X14" s="6">
-        <f t="shared" ref="X14:AA14" si="20">X9-X13</f>
-        <v>30342.972448171491</v>
-      </c>
-      <c r="Y14" s="6">
-        <f t="shared" si="20"/>
-        <v>31253.261621616635</v>
-      </c>
-      <c r="Z14" s="6">
-        <f t="shared" si="20"/>
-        <v>32190.859470265135</v>
-      </c>
-      <c r="AA14" s="6">
-        <f t="shared" si="20"/>
-        <v>33156.585254373087</v>
+        <f t="shared" si="13"/>
+        <v>33827.152040000023</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
@@ -1689,11 +1629,11 @@
         <v>1082</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" ref="I15:J17" si="21">H15*1.01</f>
+        <f t="shared" ref="I15:J17" si="14">H15*1.01</f>
         <v>1092.82</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>1103.7482</v>
       </c>
       <c r="K15" s="6"/>
@@ -1711,40 +1651,24 @@
         <v>4328.221343873518</v>
       </c>
       <c r="S15" s="6">
-        <f t="shared" ref="S15:W15" si="22">R15*(1+S27)</f>
-        <v>4631.1968379446644</v>
+        <f t="shared" ref="S15:W15" si="15">R15*(1+S27)</f>
+        <v>4761.04347826087</v>
       </c>
       <c r="T15" s="6">
-        <f t="shared" si="22"/>
-        <v>4955.3806166007907</v>
+        <f t="shared" si="15"/>
+        <v>5237.1478260869571</v>
       </c>
       <c r="U15" s="6">
-        <f t="shared" si="22"/>
-        <v>5302.2572597628468</v>
+        <f t="shared" si="15"/>
+        <v>5760.8626086956538</v>
       </c>
       <c r="V15" s="6">
-        <f t="shared" si="22"/>
-        <v>5673.4152679462468</v>
+        <f t="shared" si="15"/>
+        <v>6336.9488695652199</v>
       </c>
       <c r="W15" s="6">
-        <f t="shared" si="22"/>
-        <v>6070.5543367024848</v>
-      </c>
-      <c r="X15" s="6">
-        <f t="shared" ref="X15" si="23">W15*(1+X27)</f>
-        <v>6252.6709668035592</v>
-      </c>
-      <c r="Y15" s="6">
-        <f t="shared" ref="Y15" si="24">X15*(1+Y27)</f>
-        <v>6440.2510958076664</v>
-      </c>
-      <c r="Z15" s="6">
-        <f t="shared" ref="Z15" si="25">Y15*(1+Z27)</f>
-        <v>6633.4586286818967</v>
-      </c>
-      <c r="AA15" s="6">
-        <f t="shared" ref="AA15" si="26">Z15*(1+AA27)</f>
-        <v>6832.462387542354</v>
+        <f t="shared" si="15"/>
+        <v>6970.643756521742</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
@@ -1761,11 +1685,11 @@
         <v>1626</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>1642.26</v>
       </c>
       <c r="J16" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>1658.6826000000001</v>
       </c>
       <c r="K16" s="6"/>
@@ -1779,44 +1703,28 @@
         <v>5764</v>
       </c>
       <c r="R16" s="6">
-        <f>Q16*1.05</f>
-        <v>6052.2</v>
+        <f>Q16*1.08</f>
+        <v>6225.1200000000008</v>
       </c>
       <c r="S16" s="6">
-        <f t="shared" ref="S16:AA16" si="27">R16*1.05</f>
-        <v>6354.81</v>
+        <f t="shared" ref="S16:W16" si="16">R16*1.08</f>
+        <v>6723.1296000000011</v>
       </c>
       <c r="T16" s="6">
-        <f t="shared" si="27"/>
-        <v>6672.5505000000003</v>
+        <f t="shared" si="16"/>
+        <v>7260.9799680000015</v>
       </c>
       <c r="U16" s="6">
-        <f t="shared" si="27"/>
-        <v>7006.1780250000002</v>
+        <f t="shared" si="16"/>
+        <v>7841.8583654400018</v>
       </c>
       <c r="V16" s="6">
-        <f t="shared" si="27"/>
-        <v>7356.4869262500006</v>
+        <f t="shared" si="16"/>
+        <v>8469.2070346752025</v>
       </c>
       <c r="W16" s="6">
-        <f t="shared" si="27"/>
-        <v>7724.3112725625006</v>
-      </c>
-      <c r="X16" s="6">
-        <f>W16*1.02</f>
-        <v>7878.7974980137506</v>
-      </c>
-      <c r="Y16" s="6">
-        <f t="shared" ref="Y16:AA16" si="28">X16*1.02</f>
-        <v>8036.373447974026</v>
-      </c>
-      <c r="Z16" s="6">
-        <f t="shared" si="28"/>
-        <v>8197.1009169335066</v>
-      </c>
-      <c r="AA16" s="6">
-        <f t="shared" si="28"/>
-        <v>8361.0429352721767</v>
+        <f t="shared" si="16"/>
+        <v>9146.74359744922</v>
       </c>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.2">
@@ -1833,11 +1741,11 @@
         <v>377</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>380.77</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="14"/>
         <v>384.57769999999999</v>
       </c>
       <c r="K17" s="6"/>
@@ -1851,44 +1759,28 @@
         <v>1529</v>
       </c>
       <c r="R17" s="6">
-        <f>Q17*1.05</f>
-        <v>1605.45</v>
+        <f>Q17*1.08</f>
+        <v>1651.3200000000002</v>
       </c>
       <c r="S17" s="6">
-        <f t="shared" ref="S17:AA17" si="29">R17*1.05</f>
-        <v>1685.7225000000001</v>
+        <f t="shared" ref="S17:W17" si="17">R17*1.08</f>
+        <v>1783.4256000000003</v>
       </c>
       <c r="T17" s="6">
-        <f t="shared" si="29"/>
-        <v>1770.0086250000002</v>
+        <f t="shared" si="17"/>
+        <v>1926.0996480000003</v>
       </c>
       <c r="U17" s="6">
-        <f t="shared" si="29"/>
-        <v>1858.5090562500002</v>
+        <f t="shared" si="17"/>
+        <v>2080.1876198400005</v>
       </c>
       <c r="V17" s="6">
-        <f t="shared" si="29"/>
-        <v>1951.4345090625002</v>
+        <f t="shared" si="17"/>
+        <v>2246.6026294272006</v>
       </c>
       <c r="W17" s="6">
-        <f t="shared" si="29"/>
-        <v>2049.0062345156252</v>
-      </c>
-      <c r="X17" s="6">
-        <f>W17*1.02</f>
-        <v>2089.9863592059378</v>
-      </c>
-      <c r="Y17" s="6">
-        <f t="shared" ref="Y17:AA17" si="30">X17*1.02</f>
-        <v>2131.7860863900564</v>
-      </c>
-      <c r="Z17" s="6">
-        <f t="shared" si="30"/>
-        <v>2174.4218081178574</v>
-      </c>
-      <c r="AA17" s="6">
-        <f t="shared" si="30"/>
-        <v>2217.9102442802146</v>
+        <f t="shared" si="17"/>
+        <v>2426.3308397813767</v>
       </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.2">
@@ -1900,31 +1792,31 @@
         <v>0</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" ref="D18:J18" si="31">SUM(D15:D17)</f>
+        <f t="shared" ref="D18:J18" si="18">SUM(D15:D17)</f>
         <v>2784</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="18"/>
         <v>3085</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="18"/>
         <v>3115.85</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="18"/>
         <v>3147.0084999999999</v>
       </c>
       <c r="K18" s="6"/>
@@ -1945,52 +1837,36 @@
         <v>9174</v>
       </c>
       <c r="P18" s="6">
-        <f t="shared" ref="P18:V18" si="32">SUM(P15:P17)</f>
+        <f t="shared" ref="P18:V18" si="19">SUM(P15:P17)</f>
         <v>10237</v>
       </c>
       <c r="Q18" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="19"/>
         <v>11237</v>
       </c>
       <c r="R18" s="6">
-        <f t="shared" si="32"/>
-        <v>11985.871343873518</v>
+        <f t="shared" si="19"/>
+        <v>12204.661343873518</v>
       </c>
       <c r="S18" s="6">
-        <f t="shared" si="32"/>
-        <v>12671.729337944664</v>
+        <f t="shared" si="19"/>
+        <v>13267.598678260872</v>
       </c>
       <c r="T18" s="6">
-        <f t="shared" si="32"/>
-        <v>13397.939741600791</v>
+        <f t="shared" si="19"/>
+        <v>14424.227442086958</v>
       </c>
       <c r="U18" s="6">
-        <f t="shared" si="32"/>
-        <v>14166.944341012848</v>
+        <f t="shared" si="19"/>
+        <v>15682.908593975657</v>
       </c>
       <c r="V18" s="6">
-        <f t="shared" si="32"/>
-        <v>14981.336703258748</v>
+        <f t="shared" si="19"/>
+        <v>17052.758533667624</v>
       </c>
       <c r="W18" s="6">
-        <f t="shared" ref="W18:AA18" si="33">SUM(W15:W17)</f>
-        <v>15843.871843780611</v>
-      </c>
-      <c r="X18" s="6">
-        <f t="shared" si="33"/>
-        <v>16221.454824023247</v>
-      </c>
-      <c r="Y18" s="6">
-        <f t="shared" si="33"/>
-        <v>16608.410630171747</v>
-      </c>
-      <c r="Z18" s="6">
-        <f t="shared" si="33"/>
-        <v>17004.981353733263</v>
-      </c>
-      <c r="AA18" s="6">
-        <f t="shared" si="33"/>
-        <v>17411.415567094744</v>
+        <f t="shared" ref="W18" si="20">SUM(W15:W17)</f>
+        <v>18543.718193752338</v>
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.2">
@@ -2002,31 +1878,31 @@
         <v>0</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" ref="D19:J19" si="34">D14-D18</f>
+        <f t="shared" ref="D19:J19" si="21">D14-D18</f>
         <v>1927</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="21"/>
         <v>5710</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="21"/>
         <v>2150</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="21"/>
         <v>2135.15</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="21"/>
         <v>2209.0115000000005</v>
       </c>
       <c r="K19" s="6"/>
@@ -2047,52 +1923,36 @@
         <v>6267</v>
       </c>
       <c r="P19" s="6">
-        <f t="shared" ref="P19:V19" si="35">P14-P18</f>
+        <f t="shared" ref="P19:V19" si="22">P14-P18</f>
         <v>6818</v>
       </c>
       <c r="Q19" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="22"/>
         <v>7910</v>
       </c>
       <c r="R19" s="6">
-        <f t="shared" si="35"/>
-        <v>9018.1286561264824</v>
+        <f t="shared" si="22"/>
+        <v>8799.3386561264815</v>
       </c>
       <c r="S19" s="6">
-        <f t="shared" si="35"/>
-        <v>9802.5506620553351</v>
+        <f t="shared" si="22"/>
+        <v>9836.8013217391326</v>
       </c>
       <c r="T19" s="6">
-        <f t="shared" si="35"/>
-        <v>10649.539858399212</v>
+        <f t="shared" si="22"/>
+        <v>10990.612557913049</v>
       </c>
       <c r="U19" s="6">
-        <f t="shared" si="35"/>
-        <v>11563.858830987156</v>
+        <f t="shared" si="22"/>
+        <v>12273.415406024351</v>
       </c>
       <c r="V19" s="6">
-        <f t="shared" si="35"/>
-        <v>12550.622690781256</v>
+        <f t="shared" si="22"/>
+        <v>13699.19786633239</v>
       </c>
       <c r="W19" s="6">
-        <f t="shared" ref="W19:AA19" si="36">W14-W18</f>
-        <v>13615.324707842197</v>
-      </c>
-      <c r="X19" s="6">
-        <f t="shared" si="36"/>
-        <v>14121.517624148244</v>
-      </c>
-      <c r="Y19" s="6">
-        <f t="shared" si="36"/>
-        <v>14644.850991444888</v>
-      </c>
-      <c r="Z19" s="6">
-        <f t="shared" si="36"/>
-        <v>15185.878116531872</v>
-      </c>
-      <c r="AA19" s="6">
-        <f t="shared" si="36"/>
-        <v>15745.169687278343</v>
+        <f t="shared" ref="W19" si="23">W14-W18</f>
+        <v>15283.433846247684</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.2">
@@ -2100,11 +1960,11 @@
         <v>90</v>
       </c>
       <c r="I20" s="6">
-        <f>H35*$AD$84/4</f>
+        <f>H35*$Z$84/4</f>
         <v>-9.5350000000000001</v>
       </c>
       <c r="J20" s="6">
-        <f>I35*$AD$84/4</f>
+        <f>I35*$Z$84/4</f>
         <v>-1.0325399999999991</v>
       </c>
       <c r="K20" s="6"/>
@@ -2125,40 +1985,24 @@
         <v>-10.567539999999999</v>
       </c>
       <c r="S20" s="6">
-        <f t="shared" ref="S20:AA20" si="37">R35*$AD$84</f>
+        <f>R35*$Z$84</f>
         <v>31.19750336000001</v>
       </c>
       <c r="T20" s="6">
-        <f t="shared" si="37"/>
-        <v>194.43772290589456</v>
+        <f>S35*$Z$84</f>
+        <v>195.00628385664561</v>
       </c>
       <c r="U20" s="6">
-        <f t="shared" si="37"/>
-        <v>374.4477507555593</v>
+        <f>T35*$Z$84</f>
+        <v>380.68755663002258</v>
       </c>
       <c r="V20" s="6">
-        <f t="shared" si="37"/>
-        <v>572.62364001248829</v>
+        <f>U35*$Z$84</f>
+        <v>590.74566581008526</v>
       </c>
       <c r="W20" s="6">
-        <f t="shared" si="37"/>
-        <v>790.46952910366451</v>
-      </c>
-      <c r="X20" s="6">
-        <f t="shared" si="37"/>
-        <v>1029.605713436966</v>
-      </c>
-      <c r="Y20" s="6">
-        <f t="shared" si="37"/>
-        <v>1281.1143608408804</v>
-      </c>
-      <c r="Z20" s="6">
-        <f t="shared" si="37"/>
-        <v>1545.4853856888242</v>
-      </c>
-      <c r="AA20" s="6">
-        <f t="shared" si="37"/>
-        <v>1823.2260198256877</v>
+        <f>V35*$Z$84</f>
+        <v>827.95872844365033</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.2">
@@ -2170,31 +2014,31 @@
         <v>0</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" ref="D21:J21" si="38">D19+D20</f>
+        <f t="shared" ref="D21:J21" si="24">D19+D20</f>
         <v>1927</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="24"/>
         <v>5710</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="24"/>
         <v>2150</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="24"/>
         <v>2125.6150000000002</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="24"/>
         <v>2207.9789600000004</v>
       </c>
       <c r="K21" s="6"/>
@@ -2215,52 +2059,36 @@
         <v>6136</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" ref="P21:V21" si="39">P19+P20</f>
+        <f t="shared" ref="P21:V21" si="25">P19+P20</f>
         <v>6721</v>
       </c>
       <c r="Q21" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="25"/>
         <v>7789</v>
       </c>
       <c r="R21" s="6">
-        <f t="shared" si="39"/>
-        <v>9007.5611161264824</v>
+        <f t="shared" si="25"/>
+        <v>8788.7711161264815</v>
       </c>
       <c r="S21" s="6">
-        <f t="shared" si="39"/>
-        <v>9833.7481654153344</v>
+        <f t="shared" si="25"/>
+        <v>9867.9988250991319</v>
       </c>
       <c r="T21" s="6">
-        <f t="shared" si="39"/>
-        <v>10843.977581305106</v>
+        <f t="shared" si="25"/>
+        <v>11185.618841769696</v>
       </c>
       <c r="U21" s="6">
-        <f t="shared" si="39"/>
-        <v>11938.306581742714</v>
+        <f t="shared" si="25"/>
+        <v>12654.102962654373</v>
       </c>
       <c r="V21" s="6">
-        <f t="shared" si="39"/>
-        <v>13123.246330793745</v>
+        <f t="shared" si="25"/>
+        <v>14289.943532142475</v>
       </c>
       <c r="W21" s="6">
-        <f t="shared" ref="W21:AA21" si="40">W19+W20</f>
-        <v>14405.794236945861</v>
-      </c>
-      <c r="X21" s="6">
-        <f t="shared" si="40"/>
-        <v>15151.12333758521</v>
-      </c>
-      <c r="Y21" s="6">
-        <f t="shared" si="40"/>
-        <v>15925.965352285768</v>
-      </c>
-      <c r="Z21" s="6">
-        <f t="shared" si="40"/>
-        <v>16731.363502220698</v>
-      </c>
-      <c r="AA21" s="6">
-        <f t="shared" si="40"/>
-        <v>17568.395707104031</v>
+        <f t="shared" ref="W21" si="26">W19+W20</f>
+        <v>16111.392574691336</v>
       </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.2">
@@ -2290,43 +2118,27 @@
       </c>
       <c r="R22" s="6">
         <f>R21*0.17</f>
-        <v>1531.2853897415021</v>
+        <v>1494.0910897415019</v>
       </c>
       <c r="S22" s="6">
-        <f t="shared" ref="S22:AA22" si="41">S21*0.17</f>
-        <v>1671.737188120607</v>
+        <f t="shared" ref="S22:W22" si="27">S21*0.17</f>
+        <v>1677.5598002668526</v>
       </c>
       <c r="T22" s="6">
-        <f t="shared" si="41"/>
-        <v>1843.4761888218682</v>
+        <f t="shared" si="27"/>
+        <v>1901.5552031008485</v>
       </c>
       <c r="U22" s="6">
-        <f t="shared" si="41"/>
-        <v>2029.5121188962617</v>
+        <f t="shared" si="27"/>
+        <v>2151.1975036512436</v>
       </c>
       <c r="V22" s="6">
-        <f t="shared" si="41"/>
-        <v>2230.9518762349367</v>
+        <f t="shared" si="27"/>
+        <v>2429.290400464221</v>
       </c>
       <c r="W22" s="6">
-        <f t="shared" si="41"/>
-        <v>2448.9850202807966</v>
-      </c>
-      <c r="X22" s="6">
-        <f t="shared" si="41"/>
-        <v>2575.6909673894856</v>
-      </c>
-      <c r="Y22" s="6">
-        <f t="shared" si="41"/>
-        <v>2707.4141098885807</v>
-      </c>
-      <c r="Z22" s="6">
-        <f t="shared" si="41"/>
-        <v>2844.331795377519</v>
-      </c>
-      <c r="AA22" s="6">
-        <f t="shared" si="41"/>
-        <v>2986.6272702076853</v>
+        <f t="shared" si="27"/>
+        <v>2738.9367376975274</v>
       </c>
     </row>
     <row r="23" spans="2:27" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -2338,31 +2150,31 @@
         <v>0</v>
       </c>
       <c r="D23" s="10">
-        <f t="shared" ref="D23:J23" si="42">D21-D22</f>
+        <f t="shared" ref="D23:J23" si="28">D21-D22</f>
         <v>1927</v>
       </c>
       <c r="E23" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="F23" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G23" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="28"/>
         <v>5710</v>
       </c>
       <c r="H23" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="28"/>
         <v>2150</v>
       </c>
       <c r="I23" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="28"/>
         <v>1700.4920000000002</v>
       </c>
       <c r="J23" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="28"/>
         <v>1766.3831680000003</v>
       </c>
       <c r="L23" s="10">
@@ -2382,52 +2194,36 @@
         <v>4884</v>
       </c>
       <c r="P23" s="10">
-        <f t="shared" ref="P23:Q23" si="43">P21-P22</f>
+        <f t="shared" ref="P23:Q23" si="29">P21-P22</f>
         <v>5350</v>
       </c>
       <c r="Q23" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="29"/>
         <v>6418</v>
       </c>
       <c r="R23" s="10">
-        <f t="shared" ref="R23" si="44">R21-R22</f>
-        <v>7476.2757263849799</v>
+        <f t="shared" ref="R23" si="30">R21-R22</f>
+        <v>7294.68002638498</v>
       </c>
       <c r="S23" s="10">
-        <f t="shared" ref="S23" si="45">S21-S22</f>
-        <v>8162.0109772947271</v>
+        <f t="shared" ref="S23" si="31">S21-S22</f>
+        <v>8190.4390248322798</v>
       </c>
       <c r="T23" s="10">
-        <f t="shared" ref="T23" si="46">T21-T22</f>
-        <v>9000.5013924832383</v>
+        <f t="shared" ref="T23" si="32">T21-T22</f>
+        <v>9284.0636386688475</v>
       </c>
       <c r="U23" s="10">
-        <f t="shared" ref="U23" si="47">U21-U22</f>
-        <v>9908.794462846452</v>
+        <f t="shared" ref="U23" si="33">U21-U22</f>
+        <v>10502.90545900313</v>
       </c>
       <c r="V23" s="10">
-        <f t="shared" ref="V23:W23" si="48">V21-V22</f>
-        <v>10892.294454558809</v>
+        <f t="shared" ref="V23:W23" si="34">V21-V22</f>
+        <v>11860.653131678255</v>
       </c>
       <c r="W23" s="10">
-        <f t="shared" si="48"/>
-        <v>11956.809216665064</v>
-      </c>
-      <c r="X23" s="10">
-        <f t="shared" ref="X23:AA23" si="49">X21-X22</f>
-        <v>12575.432370195724</v>
-      </c>
-      <c r="Y23" s="10">
-        <f t="shared" si="49"/>
-        <v>13218.551242397187</v>
-      </c>
-      <c r="Z23" s="10">
-        <f t="shared" si="49"/>
-        <v>13887.03170684318</v>
-      </c>
-      <c r="AA23" s="10">
-        <f t="shared" si="49"/>
-        <v>14581.768436896346</v>
+        <f t="shared" si="34"/>
+        <v>13372.455836993808</v>
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.2">
@@ -2473,53 +2269,41 @@
       <c r="W24" s="6">
         <v>450</v>
       </c>
-      <c r="X24" s="6">
-        <v>450</v>
-      </c>
-      <c r="Y24" s="6">
-        <v>450</v>
-      </c>
-      <c r="Z24" s="6">
-        <v>450</v>
-      </c>
-      <c r="AA24" s="6">
-        <v>450</v>
-      </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="9" t="e">
-        <f t="shared" ref="C25:J25" si="50">C23/C24</f>
+        <f t="shared" ref="C25:J25" si="35">C23/C24</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D25" s="9" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E25" s="9" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="9" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G25" s="9" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H25" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="35"/>
         <v>5.0683639792550688</v>
       </c>
       <c r="I25" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="35"/>
         <v>4.0087034417727496</v>
       </c>
       <c r="J25" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="35"/>
         <v>4.1640338708156541</v>
       </c>
       <c r="K25" s="9"/>
@@ -2540,53 +2324,41 @@
         <v>10.369426751592357</v>
       </c>
       <c r="P25" s="9">
-        <f t="shared" ref="P25:V25" si="51">P23/P24</f>
+        <f t="shared" ref="P25:V25" si="36">P23/P24</f>
         <v>11.655773420479303</v>
       </c>
       <c r="Q25" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="36"/>
         <v>14.262222222222222</v>
       </c>
       <c r="R25" s="9">
-        <f t="shared" si="51"/>
-        <v>16.613946058633289</v>
+        <f t="shared" si="36"/>
+        <v>16.21040005863329</v>
       </c>
       <c r="S25" s="9">
-        <f t="shared" si="51"/>
-        <v>18.137802171766062</v>
+        <f t="shared" si="36"/>
+        <v>18.2009756107384</v>
       </c>
       <c r="T25" s="9">
-        <f t="shared" si="51"/>
-        <v>20.001114205518306</v>
+        <f t="shared" si="36"/>
+        <v>20.631252530375217</v>
       </c>
       <c r="U25" s="9">
-        <f t="shared" si="51"/>
-        <v>22.019543250769892</v>
+        <f t="shared" si="36"/>
+        <v>23.339789908895845</v>
       </c>
       <c r="V25" s="9">
-        <f t="shared" si="51"/>
-        <v>24.205098787908465</v>
+        <f t="shared" si="36"/>
+        <v>26.357006959285009</v>
       </c>
       <c r="W25" s="9">
-        <f t="shared" ref="W25:AA25" si="52">W23/W24</f>
-        <v>26.570687148144586</v>
-      </c>
-      <c r="X25" s="9">
-        <f t="shared" si="52"/>
-        <v>27.945405267101609</v>
-      </c>
-      <c r="Y25" s="9">
-        <f t="shared" si="52"/>
-        <v>29.374558316438193</v>
-      </c>
-      <c r="Z25" s="9">
-        <f t="shared" si="52"/>
-        <v>30.86007045965151</v>
-      </c>
-      <c r="AA25" s="9">
-        <f t="shared" si="52"/>
-        <v>32.403929859769654</v>
-      </c>
+        <f t="shared" ref="W25" si="37">W23/W24</f>
+        <v>29.716568526652907</v>
+      </c>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.2">
       <c r="N26" s="11"/>
@@ -2636,45 +2408,33 @@
         <v>0.10799113813179462</v>
       </c>
       <c r="R27" s="12">
-        <f t="shared" ref="R27:W27" si="53">R9/Q9-1</f>
+        <f t="shared" ref="R27:W27" si="38">R9/Q9-1</f>
         <v>9.7419204836084683E-2</v>
       </c>
       <c r="S27" s="12">
-        <f t="shared" si="53"/>
-        <v>7.0000000000000062E-2</v>
+        <f t="shared" si="38"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="T27" s="12">
-        <f t="shared" si="53"/>
-        <v>7.0000000000000062E-2</v>
+        <f t="shared" si="38"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="U27" s="12">
-        <f t="shared" si="53"/>
-        <v>7.0000000000000062E-2</v>
+        <f t="shared" si="38"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="V27" s="12">
-        <f t="shared" si="53"/>
-        <v>7.0000000000000062E-2</v>
+        <f t="shared" si="38"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="W27" s="12">
-        <f t="shared" si="53"/>
-        <v>7.0000000000000062E-2</v>
-      </c>
-      <c r="X27" s="12">
-        <f t="shared" ref="X27" si="54">X9/W9-1</f>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="Y27" s="12">
-        <f t="shared" ref="Y27" si="55">Y9/X9-1</f>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="Z27" s="12">
-        <f t="shared" ref="Z27" si="56">Z9/Y9-1</f>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="AA27" s="12">
-        <f t="shared" ref="AA27" si="57">AA9/Z9-1</f>
-        <v>3.0000000000000027E-2</v>
-      </c>
+        <f t="shared" si="38"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
     </row>
     <row r="28" spans="2:27" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
@@ -2682,31 +2442,31 @@
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12" t="e">
-        <f t="shared" ref="D28:J28" si="58">D9/C9-1</f>
+        <f t="shared" ref="D28:J28" si="39">D9/C9-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E28" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="39"/>
         <v>-1</v>
       </c>
       <c r="F28" s="12" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G28" s="12" t="e">
-        <f t="shared" si="58"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="39"/>
         <v>2.8546409807355566E-2</v>
       </c>
       <c r="I28" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="39"/>
         <v>4.5973097224587534E-3</v>
       </c>
       <c r="J28" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="39"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="K28" s="12"/>
@@ -2728,65 +2488,53 @@
         <v>88</v>
       </c>
       <c r="M29" s="12" t="e">
-        <f t="shared" ref="M29:R29" si="59">SUM(M16:M17)/SUM(L16:L17)-1</f>
+        <f t="shared" ref="M29:R29" si="40">SUM(M16:M17)/SUM(L16:L17)-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N29" s="12" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O29" s="12" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P29" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="40"/>
         <v>9.326006141910459E-2</v>
       </c>
       <c r="Q29" s="12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="40"/>
         <v>7.820816085156701E-2</v>
       </c>
       <c r="R29" s="12">
-        <f t="shared" si="59"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="40"/>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="S29" s="12">
-        <f t="shared" ref="S29:W29" si="60">SUM(S16:S17)/SUM(R16:R17)-1</f>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" ref="S29:W29" si="41">SUM(S16:S17)/SUM(R16:R17)-1</f>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="T29" s="12">
-        <f t="shared" si="60"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="41"/>
+        <v>8.0000000000000293E-2</v>
       </c>
       <c r="U29" s="12">
-        <f t="shared" si="60"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="41"/>
+        <v>7.9999999999999849E-2</v>
       </c>
       <c r="V29" s="12">
-        <f t="shared" si="60"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="41"/>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="W29" s="12">
-        <f t="shared" si="60"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="X29" s="12">
-        <f t="shared" ref="X29" si="61">SUM(X16:X17)/SUM(W16:W17)-1</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="Y29" s="12">
-        <f t="shared" ref="Y29" si="62">SUM(Y16:Y17)/SUM(X16:X17)-1</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="Z29" s="12">
-        <f t="shared" ref="Z29" si="63">SUM(Z16:Z17)/SUM(Y16:Y17)-1</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AA29" s="12">
-        <f t="shared" ref="AA29" si="64">SUM(AA16:AA17)/SUM(Z16:Z17)-1</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
+        <f t="shared" si="41"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
     </row>
     <row r="31" spans="2:27" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="10" t="s">
@@ -2797,23 +2545,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D31" s="13">
-        <f t="shared" ref="D31:H31" si="65">D14/D9</f>
+        <f t="shared" ref="D31:H31" si="42">D14/D9</f>
         <v>0.88736108495008481</v>
       </c>
       <c r="E31" s="13" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F31" s="13" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G31" s="13">
-        <f t="shared" si="65"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="H31" s="13">
-        <f t="shared" si="65"/>
+        <f t="shared" si="42"/>
         <v>0.89136727396560533</v>
       </c>
       <c r="I31" s="13">
@@ -2853,233 +2601,201 @@
       <c r="W31" s="13">
         <v>0.89</v>
       </c>
-      <c r="X31" s="13">
-        <v>0.89</v>
-      </c>
-      <c r="Y31" s="13">
-        <v>0.89</v>
-      </c>
-      <c r="Z31" s="13">
-        <v>0.89</v>
-      </c>
-      <c r="AA31" s="13">
-        <v>0.89</v>
-      </c>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13"/>
     </row>
     <row r="32" spans="2:27" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="14" t="e">
-        <f t="shared" ref="C32:J32" si="66">C19/C9</f>
+        <f t="shared" ref="C32:J32" si="43">C19/C9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D32" s="14">
-        <f t="shared" si="66"/>
+        <f t="shared" si="43"/>
         <v>0.36296854398191752</v>
       </c>
       <c r="E32" s="14" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F32" s="14" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G32" s="14">
-        <f t="shared" si="66"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="H32" s="14">
-        <f t="shared" si="66"/>
+        <f t="shared" si="43"/>
         <v>0.36608207049208241</v>
       </c>
       <c r="I32" s="14">
-        <f t="shared" si="66"/>
+        <f t="shared" si="43"/>
         <v>0.36188983050847462</v>
       </c>
       <c r="J32" s="14">
-        <f t="shared" si="66"/>
+        <f t="shared" si="43"/>
         <v>0.36706738118976412</v>
       </c>
       <c r="K32" s="14"/>
       <c r="O32" s="14">
-        <f t="shared" ref="O32:W32" si="67">O19/O9</f>
+        <f t="shared" ref="O32:W32" si="44">O19/O9</f>
         <v>0.35595819606952173</v>
       </c>
       <c r="P32" s="14">
-        <f t="shared" si="67"/>
+        <f t="shared" si="44"/>
         <v>0.35128033386573237</v>
       </c>
       <c r="Q32" s="14">
-        <f t="shared" si="67"/>
+        <f t="shared" si="44"/>
         <v>0.36782143687514529</v>
       </c>
       <c r="R32" s="14">
-        <f t="shared" si="67"/>
-        <v>0.38212409559857974</v>
+        <f t="shared" si="44"/>
+        <v>0.37285333288671529</v>
       </c>
       <c r="S32" s="14">
-        <f t="shared" si="67"/>
-        <v>0.38818908055026674</v>
+        <f t="shared" si="44"/>
+        <v>0.37892146847993574</v>
       </c>
       <c r="T32" s="14">
-        <f t="shared" si="67"/>
-        <v>0.39414070129724937</v>
+        <f t="shared" si="44"/>
+        <v>0.38487927433509761</v>
       </c>
       <c r="U32" s="14">
-        <f t="shared" si="67"/>
-        <v>0.3999810767966247</v>
+        <f t="shared" si="44"/>
+        <v>0.3907287564474381</v>
       </c>
       <c r="V32" s="14">
-        <f t="shared" si="67"/>
-        <v>0.40571228639881551</v>
+        <f t="shared" si="44"/>
+        <v>0.39647188433955444</v>
       </c>
       <c r="W32" s="14">
-        <f t="shared" si="67"/>
-        <v>0.41133637058788136</v>
-      </c>
-      <c r="X32" s="14">
-        <f t="shared" ref="X32:AA32" si="68">X19/X9</f>
-        <v>0.41420301544153137</v>
-      </c>
-      <c r="Y32" s="14">
-        <f t="shared" si="68"/>
-        <v>0.41704182879174789</v>
-      </c>
-      <c r="Z32" s="14">
-        <f t="shared" si="68"/>
-        <v>0.41985308084730205</v>
-      </c>
-      <c r="AA32" s="14">
-        <f t="shared" si="68"/>
-        <v>0.42263703919357909</v>
-      </c>
+        <f t="shared" si="44"/>
+        <v>0.4021105917245415</v>
+      </c>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
     </row>
     <row r="33" spans="2:27" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="14" t="e">
-        <f t="shared" ref="C33:J33" si="69">C18/C9</f>
+        <f t="shared" ref="C33:J33" si="45">C18/C9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D33" s="14">
-        <f t="shared" si="69"/>
+        <f t="shared" si="45"/>
         <v>0.52439254096816723</v>
       </c>
       <c r="E33" s="14" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F33" s="14" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="45"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G33" s="14">
-        <f t="shared" si="69"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="H33" s="14">
-        <f t="shared" si="69"/>
+        <f t="shared" si="45"/>
         <v>0.52528520347352292</v>
       </c>
       <c r="I33" s="14">
-        <f t="shared" si="69"/>
+        <f t="shared" si="45"/>
         <v>0.52811016949152545</v>
       </c>
       <c r="J33" s="14">
-        <f t="shared" si="69"/>
+        <f t="shared" si="45"/>
         <v>0.52293261881023589</v>
       </c>
       <c r="K33" s="14"/>
       <c r="O33" s="14">
-        <f t="shared" ref="O33:AA33" si="70">O18/O9</f>
+        <f t="shared" ref="O33:W33" si="46">O18/O9</f>
         <v>0.5210723616948767</v>
       </c>
       <c r="P33" s="14">
-        <f t="shared" si="70"/>
+        <f t="shared" si="46"/>
         <v>0.52743572569426556</v>
       </c>
       <c r="Q33" s="14">
-        <f t="shared" si="70"/>
+        <f t="shared" si="46"/>
         <v>0.52252964426877468</v>
       </c>
       <c r="R33" s="14">
-        <f t="shared" si="70"/>
-        <v>0.50787590440142028</v>
+        <f t="shared" si="46"/>
+        <v>0.51714666711328472</v>
       </c>
       <c r="S33" s="14">
-        <f t="shared" si="70"/>
-        <v>0.50181091944973322</v>
+        <f t="shared" si="46"/>
+        <v>0.51107853152006433</v>
       </c>
       <c r="T33" s="14">
-        <f t="shared" si="70"/>
-        <v>0.49585929870275064</v>
+        <f t="shared" si="46"/>
+        <v>0.5051207256649024</v>
       </c>
       <c r="U33" s="14">
-        <f t="shared" si="70"/>
-        <v>0.49001892320337526</v>
+        <f t="shared" si="46"/>
+        <v>0.49927124355256186</v>
       </c>
       <c r="V33" s="14">
-        <f t="shared" si="70"/>
-        <v>0.48428771360118444</v>
+        <f t="shared" si="46"/>
+        <v>0.49352811566044552</v>
       </c>
       <c r="W33" s="14">
-        <f t="shared" si="70"/>
-        <v>0.47866362941211865</v>
-      </c>
-      <c r="X33" s="14">
-        <f t="shared" si="70"/>
-        <v>0.47579698455846864</v>
-      </c>
-      <c r="Y33" s="14">
-        <f t="shared" si="70"/>
-        <v>0.47295817120825212</v>
-      </c>
-      <c r="Z33" s="14">
-        <f t="shared" si="70"/>
-        <v>0.47014691915269796</v>
-      </c>
-      <c r="AA33" s="14">
-        <f t="shared" si="70"/>
-        <v>0.46736296080642087</v>
-      </c>
+        <f t="shared" si="46"/>
+        <v>0.48788940827545857</v>
+      </c>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C35" s="6">
-        <f t="shared" ref="C35:H35" si="71">C36-C37</f>
+        <f t="shared" ref="C35:H35" si="47">C36-C37</f>
         <v>0</v>
       </c>
       <c r="D35" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="E35" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="47"/>
         <v>-262</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="47"/>
         <v>-1907</v>
       </c>
       <c r="I35" s="6">
-        <f t="shared" ref="I35:J35" si="72">H35+I23</f>
+        <f t="shared" ref="I35:J35" si="48">H35+I23</f>
         <v>-206.50799999999981</v>
       </c>
       <c r="J35" s="6">
-        <f t="shared" si="72"/>
+        <f t="shared" si="48"/>
         <v>1559.8751680000005</v>
       </c>
       <c r="K35" s="6"/>
@@ -3108,40 +2824,24 @@
         <v>1559.8751680000005</v>
       </c>
       <c r="S35" s="6">
-        <f t="shared" ref="S35:AA35" si="73">R35+S23</f>
-        <v>9721.8861452947276</v>
+        <f t="shared" ref="S35:W35" si="49">R35+S23</f>
+        <v>9750.3141928322802</v>
       </c>
       <c r="T35" s="6">
-        <f t="shared" si="73"/>
-        <v>18722.387537777966</v>
+        <f t="shared" si="49"/>
+        <v>19034.37783150113</v>
       </c>
       <c r="U35" s="6">
-        <f t="shared" si="73"/>
-        <v>28631.182000624416</v>
+        <f t="shared" si="49"/>
+        <v>29537.28329050426</v>
       </c>
       <c r="V35" s="6">
-        <f t="shared" si="73"/>
-        <v>39523.476455183227</v>
+        <f t="shared" si="49"/>
+        <v>41397.936422182516</v>
       </c>
       <c r="W35" s="6">
-        <f t="shared" si="73"/>
-        <v>51480.285671848294</v>
-      </c>
-      <c r="X35" s="6">
-        <f t="shared" si="73"/>
-        <v>64055.71804204402</v>
-      </c>
-      <c r="Y35" s="6">
-        <f t="shared" si="73"/>
-        <v>77274.269284441209</v>
-      </c>
-      <c r="Z35" s="6">
-        <f t="shared" si="73"/>
-        <v>91161.300991284385</v>
-      </c>
-      <c r="AA35" s="6">
-        <f t="shared" si="73"/>
-        <v>105743.06942818072</v>
+        <f t="shared" si="49"/>
+        <v>54770.392259176326</v>
       </c>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.2">
@@ -3492,56 +3192,40 @@
         <v>68</v>
       </c>
       <c r="O68" s="10">
-        <f t="shared" ref="O68:AA68" si="74">O23</f>
+        <f t="shared" ref="O68:W68" si="50">O23</f>
         <v>4884</v>
       </c>
       <c r="P68" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="50"/>
         <v>5350</v>
       </c>
       <c r="Q68" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="50"/>
         <v>6418</v>
       </c>
       <c r="R68" s="10">
-        <f t="shared" si="74"/>
-        <v>7476.2757263849799</v>
+        <f t="shared" si="50"/>
+        <v>7294.68002638498</v>
       </c>
       <c r="S68" s="10">
-        <f t="shared" si="74"/>
-        <v>8162.0109772947271</v>
+        <f t="shared" si="50"/>
+        <v>8190.4390248322798</v>
       </c>
       <c r="T68" s="10">
-        <f t="shared" si="74"/>
-        <v>9000.5013924832383</v>
+        <f t="shared" si="50"/>
+        <v>9284.0636386688475</v>
       </c>
       <c r="U68" s="10">
-        <f t="shared" si="74"/>
-        <v>9908.794462846452</v>
+        <f t="shared" si="50"/>
+        <v>10502.90545900313</v>
       </c>
       <c r="V68" s="10">
-        <f t="shared" si="74"/>
-        <v>10892.294454558809</v>
+        <f t="shared" si="50"/>
+        <v>11860.653131678255</v>
       </c>
       <c r="W68" s="10">
-        <f t="shared" si="74"/>
-        <v>11956.809216665064</v>
-      </c>
-      <c r="X68" s="10">
-        <f t="shared" si="74"/>
-        <v>12575.432370195724</v>
-      </c>
-      <c r="Y68" s="10">
-        <f t="shared" si="74"/>
-        <v>13218.551242397187</v>
-      </c>
-      <c r="Z68" s="10">
-        <f t="shared" si="74"/>
-        <v>13887.03170684318</v>
-      </c>
-      <c r="AA68" s="10">
-        <f t="shared" si="74"/>
-        <v>14581.768436896346</v>
+        <f t="shared" si="50"/>
+        <v>13372.455836993808</v>
       </c>
     </row>
     <row r="69" spans="2:29" x14ac:dyDescent="0.2">
@@ -3573,44 +3257,28 @@
         <v>857</v>
       </c>
       <c r="R70" s="6">
-        <f t="shared" ref="R70:AA70" si="75">Q70*(1+R27)</f>
+        <f t="shared" ref="R70:W70" si="51">Q70*(1+R27)</f>
         <v>940.48825854452457</v>
       </c>
       <c r="S70" s="6">
-        <f t="shared" si="75"/>
-        <v>1006.3224366426414</v>
+        <f t="shared" si="51"/>
+        <v>1034.5370843989772</v>
       </c>
       <c r="T70" s="6">
-        <f t="shared" si="75"/>
-        <v>1076.7650072076262</v>
+        <f t="shared" si="51"/>
+        <v>1137.990792838875</v>
       </c>
       <c r="U70" s="6">
-        <f t="shared" si="75"/>
-        <v>1152.13855771216</v>
+        <f t="shared" si="51"/>
+        <v>1251.7898721227625</v>
       </c>
       <c r="V70" s="6">
-        <f t="shared" si="75"/>
-        <v>1232.7882567520114</v>
+        <f t="shared" si="51"/>
+        <v>1376.9688593350388</v>
       </c>
       <c r="W70" s="6">
-        <f t="shared" si="75"/>
-        <v>1319.0834347246523</v>
-      </c>
-      <c r="X70" s="6">
-        <f t="shared" si="75"/>
-        <v>1358.6559377663918</v>
-      </c>
-      <c r="Y70" s="6">
-        <f t="shared" si="75"/>
-        <v>1399.4156158993837</v>
-      </c>
-      <c r="Z70" s="6">
-        <f t="shared" si="75"/>
-        <v>1441.3980843763652</v>
-      </c>
-      <c r="AA70" s="6">
-        <f t="shared" si="75"/>
-        <v>1484.6400269076562</v>
+        <f t="shared" si="51"/>
+        <v>1514.6657452685429</v>
       </c>
     </row>
     <row r="71" spans="2:29" x14ac:dyDescent="0.2">
@@ -3627,44 +3295,28 @@
         <v>1833</v>
       </c>
       <c r="R71" s="6">
-        <f t="shared" ref="R71:AA71" si="76">Q71*1.1</f>
+        <f t="shared" ref="R71:W71" si="52">Q71*1.1</f>
         <v>2016.3000000000002</v>
       </c>
       <c r="S71" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="52"/>
         <v>2217.9300000000003</v>
       </c>
       <c r="T71" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="52"/>
         <v>2439.7230000000004</v>
       </c>
       <c r="U71" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="52"/>
         <v>2683.6953000000008</v>
       </c>
       <c r="V71" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="52"/>
         <v>2952.0648300000012</v>
       </c>
       <c r="W71" s="6">
-        <f t="shared" si="76"/>
+        <f t="shared" si="52"/>
         <v>3247.2713130000016</v>
-      </c>
-      <c r="X71" s="6">
-        <f t="shared" si="76"/>
-        <v>3571.9984443000021</v>
-      </c>
-      <c r="Y71" s="6">
-        <f t="shared" si="76"/>
-        <v>3929.1982887300028</v>
-      </c>
-      <c r="Z71" s="6">
-        <f t="shared" si="76"/>
-        <v>4322.1181176030032</v>
-      </c>
-      <c r="AA71" s="6">
-        <f t="shared" si="76"/>
-        <v>4754.3299293633036</v>
       </c>
     </row>
     <row r="72" spans="2:29" x14ac:dyDescent="0.2">
@@ -3681,44 +3333,28 @@
         <v>77</v>
       </c>
       <c r="R72" s="6">
-        <f t="shared" ref="R72:AA72" si="77">Q72*(1+R27)</f>
+        <f t="shared" ref="R72:W72" si="53">Q72*(1+R27)</f>
         <v>84.501278772378527</v>
       </c>
       <c r="S72" s="6">
-        <f t="shared" si="77"/>
-        <v>90.416368286445035</v>
+        <f t="shared" si="53"/>
+        <v>92.951406649616388</v>
       </c>
       <c r="T72" s="6">
-        <f t="shared" si="77"/>
-        <v>96.745514066496199</v>
+        <f t="shared" si="53"/>
+        <v>102.24654731457804</v>
       </c>
       <c r="U72" s="6">
-        <f t="shared" si="77"/>
-        <v>103.51770005115094</v>
+        <f t="shared" si="53"/>
+        <v>112.47120204603586</v>
       </c>
       <c r="V72" s="6">
-        <f t="shared" si="77"/>
-        <v>110.76393905473151</v>
+        <f t="shared" si="53"/>
+        <v>123.71832225063945</v>
       </c>
       <c r="W72" s="6">
-        <f t="shared" si="77"/>
-        <v>118.51741478856272</v>
-      </c>
-      <c r="X72" s="6">
-        <f t="shared" si="77"/>
-        <v>122.0729372322196</v>
-      </c>
-      <c r="Y72" s="6">
-        <f t="shared" si="77"/>
-        <v>125.73512534918619</v>
-      </c>
-      <c r="Z72" s="6">
-        <f t="shared" si="77"/>
-        <v>129.50717910966179</v>
-      </c>
-      <c r="AA72" s="6">
-        <f t="shared" si="77"/>
-        <v>133.39239448295166</v>
+        <f t="shared" si="53"/>
+        <v>136.0901544757034</v>
       </c>
     </row>
     <row r="73" spans="2:29" x14ac:dyDescent="0.2">
@@ -3735,44 +3371,28 @@
         <v>78</v>
       </c>
       <c r="R73" s="6">
-        <f t="shared" ref="R73:AA73" si="78">Q73*(1+R27)</f>
+        <f t="shared" ref="R73:W73" si="54">Q73*(1+R27)</f>
         <v>85.598697977214599</v>
       </c>
       <c r="S73" s="6">
-        <f t="shared" si="78"/>
-        <v>91.590606835619624</v>
+        <f t="shared" si="54"/>
+        <v>94.15856777493606</v>
       </c>
       <c r="T73" s="6">
-        <f t="shared" si="78"/>
-        <v>98.001949314113006</v>
+        <f t="shared" si="54"/>
+        <v>103.57442455242968</v>
       </c>
       <c r="U73" s="6">
-        <f t="shared" si="78"/>
-        <v>104.86208576610092</v>
+        <f t="shared" si="54"/>
+        <v>113.93186700767265</v>
       </c>
       <c r="V73" s="6">
-        <f t="shared" si="78"/>
-        <v>112.20243176972799</v>
+        <f t="shared" si="54"/>
+        <v>125.32505370843992</v>
       </c>
       <c r="W73" s="6">
-        <f t="shared" si="78"/>
-        <v>120.05660199360896</v>
-      </c>
-      <c r="X73" s="6">
-        <f t="shared" si="78"/>
-        <v>123.65830005341724</v>
-      </c>
-      <c r="Y73" s="6">
-        <f t="shared" si="78"/>
-        <v>127.36804905501975</v>
-      </c>
-      <c r="Z73" s="6">
-        <f t="shared" si="78"/>
-        <v>131.18909052667036</v>
-      </c>
-      <c r="AA73" s="6">
-        <f t="shared" si="78"/>
-        <v>135.12476324247046</v>
+        <f t="shared" si="54"/>
+        <v>137.85755907928393</v>
       </c>
     </row>
     <row r="74" spans="2:29" x14ac:dyDescent="0.2">
@@ -3789,44 +3409,28 @@
         <v>-468</v>
       </c>
       <c r="R74" s="6">
-        <f t="shared" ref="R74:AA74" si="79">Q74*(1+R27)</f>
+        <f t="shared" ref="R74:W74" si="55">Q74*(1+R27)</f>
         <v>-513.59218786328768</v>
       </c>
       <c r="S74" s="6">
-        <f t="shared" si="79"/>
-        <v>-549.54364101371789</v>
+        <f t="shared" si="55"/>
+        <v>-564.9514066496165</v>
       </c>
       <c r="T74" s="6">
-        <f t="shared" si="79"/>
-        <v>-588.01169588467815</v>
+        <f t="shared" si="55"/>
+        <v>-621.4465473145782</v>
       </c>
       <c r="U74" s="6">
-        <f t="shared" si="79"/>
-        <v>-629.17251459660565</v>
+        <f t="shared" si="55"/>
+        <v>-683.59120204603607</v>
       </c>
       <c r="V74" s="6">
-        <f t="shared" si="79"/>
-        <v>-673.21459061836811</v>
+        <f t="shared" si="55"/>
+        <v>-751.95032225063972</v>
       </c>
       <c r="W74" s="6">
-        <f t="shared" si="79"/>
-        <v>-720.33961196165387</v>
-      </c>
-      <c r="X74" s="6">
-        <f t="shared" si="79"/>
-        <v>-741.94980032050353</v>
-      </c>
-      <c r="Y74" s="6">
-        <f t="shared" si="79"/>
-        <v>-764.20829433011863</v>
-      </c>
-      <c r="Z74" s="6">
-        <f t="shared" si="79"/>
-        <v>-787.13454316002219</v>
-      </c>
-      <c r="AA74" s="6">
-        <f t="shared" si="79"/>
-        <v>-810.7485794548229</v>
+        <f t="shared" si="55"/>
+        <v>-827.1453544757037</v>
       </c>
     </row>
     <row r="75" spans="2:29" x14ac:dyDescent="0.2">
@@ -3843,44 +3447,28 @@
         <v>-35</v>
       </c>
       <c r="R75" s="6">
-        <f t="shared" ref="R75:AA75" si="80">Q75*(1+R27)</f>
+        <f t="shared" ref="R75:W75" si="56">Q75*(1+R27)</f>
         <v>-38.409672169262961</v>
       </c>
       <c r="S75" s="6">
-        <f t="shared" si="80"/>
-        <v>-41.09834922111137</v>
+        <f t="shared" si="56"/>
+        <v>-42.250639386189263</v>
       </c>
       <c r="T75" s="6">
-        <f t="shared" si="80"/>
-        <v>-43.975233666589169</v>
+        <f t="shared" si="56"/>
+        <v>-46.475703324808194</v>
       </c>
       <c r="U75" s="6">
-        <f t="shared" si="80"/>
-        <v>-47.053500023250415</v>
+        <f t="shared" si="56"/>
+        <v>-51.123273657289019</v>
       </c>
       <c r="V75" s="6">
-        <f t="shared" si="80"/>
-        <v>-50.34724502487795</v>
+        <f t="shared" si="56"/>
+        <v>-56.235601023017928</v>
       </c>
       <c r="W75" s="6">
-        <f t="shared" si="80"/>
-        <v>-53.87155217661941</v>
-      </c>
-      <c r="X75" s="6">
-        <f t="shared" si="80"/>
-        <v>-55.487698741917995</v>
-      </c>
-      <c r="Y75" s="6">
-        <f t="shared" si="80"/>
-        <v>-57.152329704175536</v>
-      </c>
-      <c r="Z75" s="6">
-        <f t="shared" si="80"/>
-        <v>-58.866899595300801</v>
-      </c>
-      <c r="AA75" s="6">
-        <f t="shared" si="80"/>
-        <v>-60.632906583159823</v>
+        <f t="shared" si="56"/>
+        <v>-61.859161125319723</v>
       </c>
       <c r="AC75" s="19"/>
     </row>
@@ -3898,44 +3486,28 @@
         <v>10</v>
       </c>
       <c r="R76" s="6">
-        <f t="shared" ref="R76:AA76" si="81">Q76*(1+R27)</f>
+        <f t="shared" ref="R76:W76" si="57">Q76*(1+R27)</f>
         <v>10.974192048360846</v>
       </c>
       <c r="S76" s="6">
-        <f t="shared" si="81"/>
-        <v>11.742385491746106</v>
+        <f t="shared" si="57"/>
+        <v>12.071611253196933</v>
       </c>
       <c r="T76" s="6">
-        <f t="shared" si="81"/>
-        <v>12.564352476168335</v>
+        <f t="shared" si="57"/>
+        <v>13.278772378516628</v>
       </c>
       <c r="U76" s="6">
-        <f t="shared" si="81"/>
-        <v>13.443857149500118</v>
+        <f t="shared" si="57"/>
+        <v>14.606649616368292</v>
       </c>
       <c r="V76" s="6">
-        <f t="shared" si="81"/>
-        <v>14.384927149965128</v>
+        <f t="shared" si="57"/>
+        <v>16.067314578005124</v>
       </c>
       <c r="W76" s="6">
-        <f t="shared" si="81"/>
-        <v>15.391872050462688</v>
-      </c>
-      <c r="X76" s="6">
-        <f t="shared" si="81"/>
-        <v>15.853628211976568</v>
-      </c>
-      <c r="Y76" s="6">
-        <f t="shared" si="81"/>
-        <v>16.329237058335867</v>
-      </c>
-      <c r="Z76" s="6">
-        <f t="shared" si="81"/>
-        <v>16.819114170085943</v>
-      </c>
-      <c r="AA76" s="6">
-        <f t="shared" si="81"/>
-        <v>17.32368759518852</v>
+        <f t="shared" si="57"/>
+        <v>17.674046035805638</v>
       </c>
       <c r="AC76" s="19"/>
     </row>
@@ -3956,39 +3528,23 @@
         <v>0</v>
       </c>
       <c r="S77" s="6">
-        <f t="shared" ref="S77:AA77" si="82">R77*(1+S27)</f>
+        <f t="shared" ref="S77:W77" si="58">R77*(1+S27)</f>
         <v>0</v>
       </c>
       <c r="T77" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="U77" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="V77" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="W77" s="6">
-        <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="X77" s="6">
-        <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="Y77" s="6">
-        <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="Z77" s="6">
-        <f t="shared" si="82"/>
-        <v>0</v>
-      </c>
-      <c r="AA77" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AC77" s="19"/>
@@ -4007,44 +3563,28 @@
         <v>-616</v>
       </c>
       <c r="R78" s="6">
-        <f t="shared" ref="R78:AA78" si="83">Q78*(1+R27)</f>
+        <f t="shared" ref="R78:W78" si="59">Q78*(1+R27)</f>
         <v>-676.01023017902821</v>
       </c>
       <c r="S78" s="6">
-        <f t="shared" si="83"/>
-        <v>-723.33094629156028</v>
+        <f t="shared" si="59"/>
+        <v>-743.6112531969311</v>
       </c>
       <c r="T78" s="6">
-        <f t="shared" si="83"/>
-        <v>-773.96411253196959</v>
+        <f t="shared" si="59"/>
+        <v>-817.9723785166243</v>
       </c>
       <c r="U78" s="6">
-        <f t="shared" si="83"/>
-        <v>-828.14160040920751</v>
+        <f t="shared" si="59"/>
+        <v>-899.76961636828685</v>
       </c>
       <c r="V78" s="6">
-        <f t="shared" si="83"/>
-        <v>-886.11151243785207</v>
+        <f t="shared" si="59"/>
+        <v>-989.74657800511557</v>
       </c>
       <c r="W78" s="6">
-        <f t="shared" si="83"/>
-        <v>-948.13931830850174</v>
-      </c>
-      <c r="X78" s="6">
-        <f t="shared" si="83"/>
-        <v>-976.58349785775681</v>
-      </c>
-      <c r="Y78" s="6">
-        <f t="shared" si="83"/>
-        <v>-1005.8810027934895</v>
-      </c>
-      <c r="Z78" s="6">
-        <f t="shared" si="83"/>
-        <v>-1036.0574328772943</v>
-      </c>
-      <c r="AA78" s="6">
-        <f t="shared" si="83"/>
-        <v>-1067.1391558636133</v>
+        <f t="shared" si="59"/>
+        <v>-1088.7212358056272</v>
       </c>
       <c r="AC78" s="19"/>
     </row>
@@ -4062,44 +3602,28 @@
         <v>44</v>
       </c>
       <c r="R79" s="6">
-        <f t="shared" ref="R79:AA79" si="84">Q79*(1+R27)</f>
+        <f t="shared" ref="R79:W79" si="60">Q79*(1+R27)</f>
         <v>48.286445012787723</v>
       </c>
       <c r="S79" s="6">
-        <f t="shared" si="84"/>
-        <v>51.666496163682865</v>
+        <f t="shared" si="60"/>
+        <v>53.115089514066497</v>
       </c>
       <c r="T79" s="6">
-        <f t="shared" si="84"/>
-        <v>55.283150895140672</v>
+        <f t="shared" si="60"/>
+        <v>58.426598465473148</v>
       </c>
       <c r="U79" s="6">
-        <f t="shared" si="84"/>
-        <v>59.152971457800525</v>
+        <f t="shared" si="60"/>
+        <v>64.269258312020469</v>
       </c>
       <c r="V79" s="6">
-        <f t="shared" si="84"/>
-        <v>63.293679459846565</v>
+        <f t="shared" si="60"/>
+        <v>70.696184143222524</v>
       </c>
       <c r="W79" s="6">
-        <f t="shared" si="84"/>
-        <v>67.724237022035823</v>
-      </c>
-      <c r="X79" s="6">
-        <f t="shared" si="84"/>
-        <v>69.755964132696903</v>
-      </c>
-      <c r="Y79" s="6">
-        <f t="shared" si="84"/>
-        <v>71.848643056677815</v>
-      </c>
-      <c r="Z79" s="6">
-        <f t="shared" si="84"/>
-        <v>74.004102348378154</v>
-      </c>
-      <c r="AA79" s="6">
-        <f t="shared" si="84"/>
-        <v>76.224225418829505</v>
+        <f t="shared" si="60"/>
+        <v>77.765802557544788</v>
       </c>
       <c r="AC79" s="19"/>
     </row>
@@ -4117,44 +3641,28 @@
         <v>196</v>
       </c>
       <c r="R80" s="6">
-        <f t="shared" ref="R80:AA80" si="85">Q80*(1+R27)</f>
+        <f t="shared" ref="R80:W80" si="61">Q80*(1+R27)</f>
         <v>215.09416414787259</v>
       </c>
       <c r="S80" s="6">
-        <f t="shared" si="85"/>
-        <v>230.15075563822367</v>
+        <f t="shared" si="61"/>
+        <v>236.60358056265986</v>
       </c>
       <c r="T80" s="6">
-        <f t="shared" si="85"/>
-        <v>246.26130853289933</v>
+        <f t="shared" si="61"/>
+        <v>260.26393861892586</v>
       </c>
       <c r="U80" s="6">
-        <f t="shared" si="85"/>
-        <v>263.49960013020228</v>
+        <f t="shared" si="61"/>
+        <v>286.29033248081845</v>
       </c>
       <c r="V80" s="6">
-        <f t="shared" si="85"/>
-        <v>281.94457213931645</v>
+        <f t="shared" si="61"/>
+        <v>314.91936572890035</v>
       </c>
       <c r="W80" s="6">
-        <f t="shared" si="85"/>
-        <v>301.68069218906862</v>
-      </c>
-      <c r="X80" s="6">
-        <f t="shared" si="85"/>
-        <v>310.73111295474069</v>
-      </c>
-      <c r="Y80" s="6">
-        <f t="shared" si="85"/>
-        <v>320.0530463433829</v>
-      </c>
-      <c r="Z80" s="6">
-        <f t="shared" si="85"/>
-        <v>329.65463773368441</v>
-      </c>
-      <c r="AA80" s="6">
-        <f t="shared" si="85"/>
-        <v>339.54427686569494</v>
+        <f t="shared" si="61"/>
+        <v>346.41130230179039</v>
       </c>
     </row>
     <row r="81" spans="1:115" x14ac:dyDescent="0.2">
@@ -4171,44 +3679,28 @@
         <v>68</v>
       </c>
       <c r="R81" s="6">
-        <f t="shared" ref="R81:AA81" si="86">Q81*(1+R27)</f>
+        <f t="shared" ref="R81:W81" si="62">Q81*(1+R27)</f>
         <v>74.624505928853765</v>
       </c>
       <c r="S81" s="6">
-        <f t="shared" si="86"/>
-        <v>79.848221343873533</v>
+        <f t="shared" si="62"/>
+        <v>82.086956521739154</v>
       </c>
       <c r="T81" s="6">
-        <f t="shared" si="86"/>
-        <v>85.437596837944682</v>
+        <f t="shared" si="62"/>
+        <v>90.295652173913084</v>
       </c>
       <c r="U81" s="6">
-        <f t="shared" si="86"/>
-        <v>91.418228616600814</v>
+        <f t="shared" si="62"/>
+        <v>99.325217391304406</v>
       </c>
       <c r="V81" s="6">
-        <f t="shared" si="86"/>
-        <v>97.817504619762872</v>
+        <f t="shared" si="62"/>
+        <v>109.25773913043486</v>
       </c>
       <c r="W81" s="6">
-        <f t="shared" si="86"/>
-        <v>104.66472994314628</v>
-      </c>
-      <c r="X81" s="6">
-        <f t="shared" si="86"/>
-        <v>107.80467184144068</v>
-      </c>
-      <c r="Y81" s="6">
-        <f t="shared" si="86"/>
-        <v>111.0388119966839</v>
-      </c>
-      <c r="Z81" s="6">
-        <f t="shared" si="86"/>
-        <v>114.36997635658443</v>
-      </c>
-      <c r="AA81" s="6">
-        <f t="shared" si="86"/>
-        <v>117.80107564728196</v>
+        <f t="shared" si="62"/>
+        <v>120.18351304347836</v>
       </c>
     </row>
     <row r="82" spans="1:115" x14ac:dyDescent="0.2">
@@ -4228,39 +3720,23 @@
         <v>0</v>
       </c>
       <c r="S82" s="6">
-        <f t="shared" ref="S82:AA82" si="87">R82*(1+S27)</f>
+        <f t="shared" ref="S82:W82" si="63">R82*(1+S27)</f>
         <v>0</v>
       </c>
       <c r="T82" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="U82" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="V82" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="W82" s="6">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="X82" s="6">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="Y82" s="6">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="Z82" s="6">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="AA82" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
     </row>
@@ -4282,52 +3758,36 @@
         <v>7838</v>
       </c>
       <c r="P83" s="10">
-        <f t="shared" ref="P83:Q83" si="88">SUM(P69:P82)</f>
+        <f t="shared" ref="P83:Q83" si="64">SUM(P69:P82)</f>
         <v>7302</v>
       </c>
       <c r="Q83" s="10">
-        <f t="shared" si="88"/>
+        <f t="shared" si="64"/>
         <v>8056</v>
       </c>
       <c r="R83" s="10">
         <f>SUM(R68:R82)</f>
-        <v>9724.1311786053957</v>
+        <v>9542.5354786053977</v>
       </c>
       <c r="S83" s="10">
-        <f t="shared" ref="S83:V83" si="89">SUM(S68:S82)</f>
-        <v>10627.705311170574</v>
+        <f t="shared" ref="S83:V83" si="65">SUM(S68:S82)</f>
+        <v>10663.080022274735</v>
       </c>
       <c r="T83" s="10">
-        <f t="shared" si="89"/>
-        <v>11705.332229730391</v>
+        <f t="shared" si="65"/>
+        <v>12003.968735855549</v>
       </c>
       <c r="U83" s="10">
-        <f t="shared" si="89"/>
-        <v>12876.155148700904</v>
+        <f t="shared" si="65"/>
+        <v>13494.801065908499</v>
       </c>
       <c r="V83" s="10">
-        <f t="shared" si="89"/>
-        <v>14147.881247423076</v>
+        <f t="shared" si="65"/>
+        <v>15151.738299274164</v>
       </c>
       <c r="W83" s="10">
-        <f t="shared" ref="W83:AA83" si="90">SUM(W68:W82)</f>
-        <v>15528.849029929828</v>
-      </c>
-      <c r="X83" s="10">
-        <f t="shared" si="90"/>
-        <v>16481.942369768429</v>
-      </c>
-      <c r="Y83" s="10">
-        <f t="shared" si="90"/>
-        <v>17492.296433058083</v>
-      </c>
-      <c r="Z83" s="10">
-        <f t="shared" si="90"/>
-        <v>18564.033133434998</v>
-      </c>
-      <c r="AA83" s="10">
-        <f t="shared" si="90"/>
-        <v>19701.628174518126</v>
+        <f t="shared" ref="W83" si="66">SUM(W68:W82)</f>
+        <v>16992.649521349304</v>
       </c>
     </row>
     <row r="84" spans="1:115" x14ac:dyDescent="0.2">
@@ -4343,10 +3803,10 @@
       <c r="Q84" s="6">
         <v>-59</v>
       </c>
-      <c r="AC84" s="6" t="s">
+      <c r="Y84" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AD84" s="15">
+      <c r="Z84" s="15">
         <v>0.02</v>
       </c>
     </row>
@@ -4363,10 +3823,10 @@
       <c r="Q85" s="6">
         <v>486</v>
       </c>
-      <c r="AC85" s="6" t="s">
+      <c r="Y85" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AD85" s="15">
+      <c r="Z85" s="15">
         <v>0.01</v>
       </c>
     </row>
@@ -4383,10 +3843,10 @@
       <c r="Q86" s="6">
         <v>11</v>
       </c>
-      <c r="AC86" s="6" t="s">
+      <c r="Y86" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AD86" s="11">
+      <c r="Z86" s="11">
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
@@ -4403,13 +3863,12 @@
       <c r="Q87" s="6">
         <v>0</v>
       </c>
-      <c r="Y87" s="9"/>
-      <c r="AC87" s="6" t="s">
+      <c r="Y87" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AD87" s="10">
-        <f>NPV(AD86,R92:DK92)+Main!O5-Main!O6</f>
-        <v>201311.51690912101</v>
+      <c r="Z87" s="10">
+        <f>NPV(Z86,R92:DK92)+Main!O5-Main!O6</f>
+        <v>189943.56809548015</v>
       </c>
     </row>
     <row r="88" spans="1:115" x14ac:dyDescent="0.2">
@@ -4425,13 +3884,12 @@
       <c r="Q88" s="6">
         <v>-183</v>
       </c>
-      <c r="Y88" s="9"/>
-      <c r="AC88" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD88" s="9">
-        <f>AD87/Main!O3</f>
-        <v>474.56746088901701</v>
+      <c r="Y88" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="9">
+        <f>Z87/Main!O3</f>
+        <v>447.76890168665761</v>
       </c>
     </row>
     <row r="89" spans="1:115" x14ac:dyDescent="0.2">
@@ -4447,12 +3905,12 @@
       <c r="Q89" s="6">
         <v>-108</v>
       </c>
-      <c r="AC89" s="6" t="s">
+      <c r="Y89" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AD89" s="14">
-        <f>AD88/Main!O2-1</f>
-        <v>0.36369960025579595</v>
+      <c r="Z89" s="14">
+        <f>Z88/Main!O2-1</f>
+        <v>0.31310528353858547</v>
       </c>
     </row>
     <row r="90" spans="1:115" x14ac:dyDescent="0.2">
@@ -4487,51 +3945,35 @@
         <v>-568</v>
       </c>
       <c r="P91" s="10">
-        <f t="shared" ref="P91:Q91" si="91">P88+P87</f>
+        <f t="shared" ref="P91:Q91" si="67">P88+P87</f>
         <v>-360</v>
       </c>
       <c r="Q91" s="10">
-        <f t="shared" si="91"/>
+        <f t="shared" si="67"/>
         <v>-183</v>
       </c>
       <c r="R91" s="10">
         <v>-300</v>
       </c>
       <c r="S91" s="10">
-        <f t="shared" ref="S91:AA91" si="92">R91*(1+S27)</f>
-        <v>-321</v>
+        <f t="shared" ref="S91:W91" si="68">R91*(1+S27)</f>
+        <v>-330</v>
       </c>
       <c r="T91" s="10">
-        <f t="shared" si="92"/>
-        <v>-343.47</v>
+        <f t="shared" si="68"/>
+        <v>-363.00000000000006</v>
       </c>
       <c r="U91" s="10">
-        <f t="shared" si="92"/>
-        <v>-367.51290000000006</v>
+        <f t="shared" si="68"/>
+        <v>-399.30000000000007</v>
       </c>
       <c r="V91" s="10">
-        <f t="shared" si="92"/>
-        <v>-393.23880300000008</v>
+        <f t="shared" si="68"/>
+        <v>-439.23000000000013</v>
       </c>
       <c r="W91" s="10">
-        <f t="shared" si="92"/>
-        <v>-420.76551921000009</v>
-      </c>
-      <c r="X91" s="10">
-        <f t="shared" si="92"/>
-        <v>-433.38848478630013</v>
-      </c>
-      <c r="Y91" s="10">
-        <f t="shared" si="92"/>
-        <v>-446.39013932988917</v>
-      </c>
-      <c r="Z91" s="10">
-        <f t="shared" si="92"/>
-        <v>-459.78184350978586</v>
-      </c>
-      <c r="AA91" s="10">
-        <f t="shared" si="92"/>
-        <v>-473.57529881507946</v>
+        <f t="shared" si="68"/>
+        <v>-483.15300000000019</v>
       </c>
     </row>
     <row r="92" spans="1:115" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -4552,404 +3994,404 @@
         <v>7270</v>
       </c>
       <c r="P92" s="10">
-        <f t="shared" ref="P92:V92" si="93">P83+P91</f>
+        <f t="shared" ref="P92:V92" si="69">P83+P91</f>
         <v>6942</v>
       </c>
       <c r="Q92" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="69"/>
         <v>7873</v>
       </c>
       <c r="R92" s="10">
-        <f t="shared" si="93"/>
-        <v>9424.1311786053957</v>
+        <f t="shared" si="69"/>
+        <v>9242.5354786053977</v>
       </c>
       <c r="S92" s="10">
-        <f t="shared" si="93"/>
-        <v>10306.705311170574</v>
+        <f t="shared" si="69"/>
+        <v>10333.080022274735</v>
       </c>
       <c r="T92" s="10">
-        <f t="shared" si="93"/>
-        <v>11361.862229730392</v>
+        <f t="shared" si="69"/>
+        <v>11640.968735855549</v>
       </c>
       <c r="U92" s="10">
-        <f t="shared" si="93"/>
-        <v>12508.642248700904</v>
+        <f t="shared" si="69"/>
+        <v>13095.5010659085</v>
       </c>
       <c r="V92" s="10">
-        <f t="shared" si="93"/>
-        <v>13754.642444423076</v>
+        <f t="shared" si="69"/>
+        <v>14712.508299274165</v>
       </c>
       <c r="W92" s="10">
-        <f t="shared" ref="W92:AA92" si="94">W83+W91</f>
-        <v>15108.083510719829</v>
+        <f t="shared" ref="W92" si="70">W83+W91</f>
+        <v>16509.496521349305</v>
       </c>
       <c r="X92" s="10">
-        <f t="shared" si="94"/>
-        <v>16048.553884982128</v>
+        <f>W92*(1+$Z$85)</f>
+        <v>16674.5914865628</v>
       </c>
       <c r="Y92" s="10">
-        <f t="shared" si="94"/>
-        <v>17045.906293728196</v>
+        <f>X92*(1+$Z$85)</f>
+        <v>16841.337401428427</v>
       </c>
       <c r="Z92" s="10">
-        <f t="shared" si="94"/>
-        <v>18104.251289925211</v>
+        <f>Y92*(1+$Z$85)</f>
+        <v>17009.750775442713</v>
       </c>
       <c r="AA92" s="10">
-        <f t="shared" si="94"/>
-        <v>19228.052875703048</v>
+        <f>Z92*(1+$Z$85)</f>
+        <v>17179.848283197141</v>
       </c>
       <c r="AB92" s="10">
-        <f t="shared" ref="AB92:BG92" si="95">AA92*(1+$AD$85)</f>
-        <v>19420.333404460078</v>
+        <f>AA92*(1+$Z$85)</f>
+        <v>17351.646766029113</v>
       </c>
       <c r="AC92" s="10">
-        <f t="shared" si="95"/>
-        <v>19614.536738504677</v>
+        <f>AB92*(1+$Z$85)</f>
+        <v>17525.163233689404</v>
       </c>
       <c r="AD92" s="10">
-        <f t="shared" si="95"/>
-        <v>19810.682105889726</v>
+        <f>AC92*(1+$Z$85)</f>
+        <v>17700.414866026298</v>
       </c>
       <c r="AE92" s="10">
-        <f t="shared" si="95"/>
-        <v>20008.788926948622</v>
+        <f>AD92*(1+$Z$85)</f>
+        <v>17877.419014686562</v>
       </c>
       <c r="AF92" s="10">
-        <f t="shared" si="95"/>
-        <v>20208.876816218108</v>
+        <f>AE92*(1+$Z$85)</f>
+        <v>18056.193204833427</v>
       </c>
       <c r="AG92" s="10">
-        <f t="shared" si="95"/>
-        <v>20410.96558438029</v>
+        <f>AF92*(1+$Z$85)</f>
+        <v>18236.755136881762</v>
       </c>
       <c r="AH92" s="10">
-        <f t="shared" si="95"/>
-        <v>20615.075240224094</v>
+        <f>AG92*(1+$Z$85)</f>
+        <v>18419.12268825058</v>
       </c>
       <c r="AI92" s="10">
-        <f t="shared" si="95"/>
-        <v>20821.225992626336</v>
+        <f>AH92*(1+$Z$85)</f>
+        <v>18603.313915133087</v>
       </c>
       <c r="AJ92" s="10">
-        <f t="shared" si="95"/>
-        <v>21029.438252552598</v>
+        <f>AI92*(1+$Z$85)</f>
+        <v>18789.347054284419</v>
       </c>
       <c r="AK92" s="10">
-        <f t="shared" si="95"/>
-        <v>21239.732635078126</v>
+        <f>AJ92*(1+$Z$85)</f>
+        <v>18977.240524827263</v>
       </c>
       <c r="AL92" s="10">
-        <f t="shared" si="95"/>
-        <v>21452.129961428909</v>
+        <f>AK92*(1+$Z$85)</f>
+        <v>19167.012930075536</v>
       </c>
       <c r="AM92" s="10">
-        <f t="shared" si="95"/>
-        <v>21666.6512610432</v>
+        <f>AL92*(1+$Z$85)</f>
+        <v>19358.683059376293</v>
       </c>
       <c r="AN92" s="10">
-        <f t="shared" si="95"/>
-        <v>21883.317773653631</v>
+        <f>AM92*(1+$Z$85)</f>
+        <v>19552.269889970055</v>
       </c>
       <c r="AO92" s="10">
-        <f t="shared" si="95"/>
-        <v>22102.150951390166</v>
+        <f>AN92*(1+$Z$85)</f>
+        <v>19747.792588869757</v>
       </c>
       <c r="AP92" s="10">
-        <f t="shared" si="95"/>
-        <v>22323.172460904068</v>
+        <f>AO92*(1+$Z$85)</f>
+        <v>19945.270514758457</v>
       </c>
       <c r="AQ92" s="10">
-        <f t="shared" si="95"/>
-        <v>22546.404185513111</v>
+        <f>AP92*(1+$Z$85)</f>
+        <v>20144.723219906042</v>
       </c>
       <c r="AR92" s="10">
-        <f t="shared" si="95"/>
-        <v>22771.868227368243</v>
+        <f>AQ92*(1+$Z$85)</f>
+        <v>20346.170452105103</v>
       </c>
       <c r="AS92" s="10">
-        <f t="shared" si="95"/>
-        <v>22999.586909641926</v>
+        <f>AR92*(1+$Z$85)</f>
+        <v>20549.632156626154</v>
       </c>
       <c r="AT92" s="10">
-        <f t="shared" si="95"/>
-        <v>23229.582778738346</v>
+        <f>AS92*(1+$Z$85)</f>
+        <v>20755.128478192415</v>
       </c>
       <c r="AU92" s="10">
-        <f t="shared" si="95"/>
-        <v>23461.87860652573</v>
+        <f>AT92*(1+$Z$85)</f>
+        <v>20962.679762974338</v>
       </c>
       <c r="AV92" s="10">
-        <f t="shared" si="95"/>
-        <v>23696.497392590987</v>
+        <f>AU92*(1+$Z$85)</f>
+        <v>21172.30656060408</v>
       </c>
       <c r="AW92" s="10">
-        <f t="shared" si="95"/>
-        <v>23933.462366516898</v>
+        <f>AV92*(1+$Z$85)</f>
+        <v>21384.029626210122</v>
       </c>
       <c r="AX92" s="10">
-        <f t="shared" si="95"/>
-        <v>24172.796990182069</v>
+        <f>AW92*(1+$Z$85)</f>
+        <v>21597.869922472222</v>
       </c>
       <c r="AY92" s="10">
-        <f t="shared" si="95"/>
-        <v>24414.524960083891</v>
+        <f>AX92*(1+$Z$85)</f>
+        <v>21813.848621696943</v>
       </c>
       <c r="AZ92" s="10">
-        <f t="shared" si="95"/>
-        <v>24658.670209684729</v>
+        <f>AY92*(1+$Z$85)</f>
+        <v>22031.987107913912</v>
       </c>
       <c r="BA92" s="10">
-        <f t="shared" si="95"/>
-        <v>24905.256911781576</v>
+        <f>AZ92*(1+$Z$85)</f>
+        <v>22252.306978993052</v>
       </c>
       <c r="BB92" s="10">
-        <f t="shared" si="95"/>
-        <v>25154.309480899392</v>
+        <f>BA92*(1+$Z$85)</f>
+        <v>22474.830048782984</v>
       </c>
       <c r="BC92" s="10">
-        <f t="shared" si="95"/>
-        <v>25405.852575708384</v>
+        <f>BB92*(1+$Z$85)</f>
+        <v>22699.578349270814</v>
       </c>
       <c r="BD92" s="10">
-        <f t="shared" si="95"/>
-        <v>25659.91110146547</v>
+        <f>BC92*(1+$Z$85)</f>
+        <v>22926.574132763522</v>
       </c>
       <c r="BE92" s="10">
-        <f t="shared" si="95"/>
-        <v>25916.510212480123</v>
+        <f>BD92*(1+$Z$85)</f>
+        <v>23155.839874091158</v>
       </c>
       <c r="BF92" s="10">
-        <f t="shared" si="95"/>
-        <v>26175.675314604923</v>
+        <f>BE92*(1+$Z$85)</f>
+        <v>23387.39827283207</v>
       </c>
       <c r="BG92" s="10">
-        <f t="shared" si="95"/>
-        <v>26437.432067750971</v>
+        <f>BF92*(1+$Z$85)</f>
+        <v>23621.27225556039</v>
       </c>
       <c r="BH92" s="10">
-        <f t="shared" ref="BH92:CM92" si="96">BG92*(1+$AD$85)</f>
-        <v>26701.806388428482</v>
+        <f>BG92*(1+$Z$85)</f>
+        <v>23857.484978115994</v>
       </c>
       <c r="BI92" s="10">
-        <f t="shared" si="96"/>
-        <v>26968.824452312769</v>
+        <f>BH92*(1+$Z$85)</f>
+        <v>24096.059827897156</v>
       </c>
       <c r="BJ92" s="10">
-        <f t="shared" si="96"/>
-        <v>27238.512696835896</v>
+        <f>BI92*(1+$Z$85)</f>
+        <v>24337.020426176128</v>
       </c>
       <c r="BK92" s="10">
-        <f t="shared" si="96"/>
-        <v>27510.897823804255</v>
+        <f>BJ92*(1+$Z$85)</f>
+        <v>24580.390630437891</v>
       </c>
       <c r="BL92" s="10">
-        <f t="shared" si="96"/>
-        <v>27786.006802042299</v>
+        <f>BK92*(1+$Z$85)</f>
+        <v>24826.19453674227</v>
       </c>
       <c r="BM92" s="10">
-        <f t="shared" si="96"/>
-        <v>28063.86687006272</v>
+        <f>BL92*(1+$Z$85)</f>
+        <v>25074.456482109694</v>
       </c>
       <c r="BN92" s="10">
-        <f t="shared" si="96"/>
-        <v>28344.505538763347</v>
+        <f>BM92*(1+$Z$85)</f>
+        <v>25325.20104693079</v>
       </c>
       <c r="BO92" s="10">
-        <f t="shared" si="96"/>
-        <v>28627.950594150981</v>
+        <f>BN92*(1+$Z$85)</f>
+        <v>25578.453057400096</v>
       </c>
       <c r="BP92" s="10">
-        <f t="shared" si="96"/>
-        <v>28914.230100092493</v>
+        <f>BO92*(1+$Z$85)</f>
+        <v>25834.237587974098</v>
       </c>
       <c r="BQ92" s="10">
-        <f t="shared" si="96"/>
-        <v>29203.372401093417</v>
+        <f>BP92*(1+$Z$85)</f>
+        <v>26092.579963853837</v>
       </c>
       <c r="BR92" s="10">
-        <f t="shared" si="96"/>
-        <v>29495.406125104349</v>
+        <f>BQ92*(1+$Z$85)</f>
+        <v>26353.505763492376</v>
       </c>
       <c r="BS92" s="10">
-        <f t="shared" si="96"/>
-        <v>29790.360186355392</v>
+        <f>BR92*(1+$Z$85)</f>
+        <v>26617.040821127299</v>
       </c>
       <c r="BT92" s="10">
-        <f t="shared" si="96"/>
-        <v>30088.263788218945</v>
+        <f>BS92*(1+$Z$85)</f>
+        <v>26883.211229338573</v>
       </c>
       <c r="BU92" s="10">
-        <f t="shared" si="96"/>
-        <v>30389.146426101135</v>
+        <f>BT92*(1+$Z$85)</f>
+        <v>27152.043341631957</v>
       </c>
       <c r="BV92" s="10">
-        <f t="shared" si="96"/>
-        <v>30693.037890362146</v>
+        <f>BU92*(1+$Z$85)</f>
+        <v>27423.563775048278</v>
       </c>
       <c r="BW92" s="10">
-        <f t="shared" si="96"/>
-        <v>30999.968269265766</v>
+        <f>BV92*(1+$Z$85)</f>
+        <v>27697.799412798762</v>
       </c>
       <c r="BX92" s="10">
-        <f t="shared" si="96"/>
-        <v>31309.967951958424</v>
+        <f>BW92*(1+$Z$85)</f>
+        <v>27974.777406926751</v>
       </c>
       <c r="BY92" s="10">
-        <f t="shared" si="96"/>
-        <v>31623.06763147801</v>
+        <f>BX92*(1+$Z$85)</f>
+        <v>28254.525180996017</v>
       </c>
       <c r="BZ92" s="10">
-        <f t="shared" si="96"/>
-        <v>31939.298307792789</v>
+        <f>BY92*(1+$Z$85)</f>
+        <v>28537.070432805976</v>
       </c>
       <c r="CA92" s="10">
-        <f t="shared" si="96"/>
-        <v>32258.691290870716</v>
+        <f>BZ92*(1+$Z$85)</f>
+        <v>28822.441137134036</v>
       </c>
       <c r="CB92" s="10">
-        <f t="shared" si="96"/>
-        <v>32581.278203779424</v>
+        <f>CA92*(1+$Z$85)</f>
+        <v>29110.665548505378</v>
       </c>
       <c r="CC92" s="10">
-        <f t="shared" si="96"/>
-        <v>32907.090985817216</v>
+        <f>CB92*(1+$Z$85)</f>
+        <v>29401.772203990433</v>
       </c>
       <c r="CD92" s="10">
-        <f t="shared" si="96"/>
-        <v>33236.161895675388</v>
+        <f>CC92*(1+$Z$85)</f>
+        <v>29695.789926030338</v>
       </c>
       <c r="CE92" s="10">
-        <f t="shared" si="96"/>
-        <v>33568.523514632143</v>
+        <f>CD92*(1+$Z$85)</f>
+        <v>29992.74782529064</v>
       </c>
       <c r="CF92" s="10">
-        <f t="shared" si="96"/>
-        <v>33904.208749778467</v>
+        <f>CE92*(1+$Z$85)</f>
+        <v>30292.675303543547</v>
       </c>
       <c r="CG92" s="10">
-        <f t="shared" si="96"/>
-        <v>34243.250837276253</v>
+        <f>CF92*(1+$Z$85)</f>
+        <v>30595.602056578984</v>
       </c>
       <c r="CH92" s="10">
-        <f t="shared" si="96"/>
-        <v>34585.683345649013</v>
+        <f>CG92*(1+$Z$85)</f>
+        <v>30901.558077144775</v>
       </c>
       <c r="CI92" s="10">
-        <f t="shared" si="96"/>
-        <v>34931.540179105505</v>
+        <f>CH92*(1+$Z$85)</f>
+        <v>31210.573657916222</v>
       </c>
       <c r="CJ92" s="10">
-        <f t="shared" si="96"/>
-        <v>35280.855580896561</v>
+        <f>CI92*(1+$Z$85)</f>
+        <v>31522.679394495386</v>
       </c>
       <c r="CK92" s="10">
-        <f t="shared" si="96"/>
-        <v>35633.664136705527</v>
+        <f>CJ92*(1+$Z$85)</f>
+        <v>31837.906188440342</v>
       </c>
       <c r="CL92" s="10">
-        <f t="shared" si="96"/>
-        <v>35990.000778072586</v>
+        <f>CK92*(1+$Z$85)</f>
+        <v>32156.285250324745</v>
       </c>
       <c r="CM92" s="10">
-        <f t="shared" si="96"/>
-        <v>36349.900785853315</v>
+        <f>CL92*(1+$Z$85)</f>
+        <v>32477.848102827993</v>
       </c>
       <c r="CN92" s="10">
-        <f t="shared" ref="CN92:DK92" si="97">CM92*(1+$AD$85)</f>
-        <v>36713.399793711847</v>
+        <f>CM92*(1+$Z$85)</f>
+        <v>32802.626583856276</v>
       </c>
       <c r="CO92" s="10">
-        <f t="shared" si="97"/>
-        <v>37080.533791648966</v>
+        <f>CN92*(1+$Z$85)</f>
+        <v>33130.652849694838</v>
       </c>
       <c r="CP92" s="10">
-        <f t="shared" si="97"/>
-        <v>37451.339129565458</v>
+        <f>CO92*(1+$Z$85)</f>
+        <v>33461.959378191787</v>
       </c>
       <c r="CQ92" s="10">
-        <f t="shared" si="97"/>
-        <v>37825.85252086111</v>
+        <f>CP92*(1+$Z$85)</f>
+        <v>33796.578971973708</v>
       </c>
       <c r="CR92" s="10">
-        <f t="shared" si="97"/>
-        <v>38204.111046069724</v>
+        <f>CQ92*(1+$Z$85)</f>
+        <v>34134.544761693447</v>
       </c>
       <c r="CS92" s="10">
-        <f t="shared" si="97"/>
-        <v>38586.152156530421</v>
+        <f>CR92*(1+$Z$85)</f>
+        <v>34475.890209310382</v>
       </c>
       <c r="CT92" s="10">
-        <f t="shared" si="97"/>
-        <v>38972.013678095725</v>
+        <f>CS92*(1+$Z$85)</f>
+        <v>34820.649111403487</v>
       </c>
       <c r="CU92" s="10">
-        <f t="shared" si="97"/>
-        <v>39361.733814876687</v>
+        <f>CT92*(1+$Z$85)</f>
+        <v>35168.85560251752</v>
       </c>
       <c r="CV92" s="10">
-        <f t="shared" si="97"/>
-        <v>39755.351153025455</v>
+        <f>CU92*(1+$Z$85)</f>
+        <v>35520.544158542696</v>
       </c>
       <c r="CW92" s="10">
-        <f t="shared" si="97"/>
-        <v>40152.90466455571</v>
+        <f>CV92*(1+$Z$85)</f>
+        <v>35875.749600128125</v>
       </c>
       <c r="CX92" s="10">
-        <f t="shared" si="97"/>
-        <v>40554.433711201265</v>
+        <f>CW92*(1+$Z$85)</f>
+        <v>36234.507096129404</v>
       </c>
       <c r="CY92" s="10">
-        <f t="shared" si="97"/>
-        <v>40959.978048313278</v>
+        <f>CX92*(1+$Z$85)</f>
+        <v>36596.852167090699</v>
       </c>
       <c r="CZ92" s="10">
-        <f t="shared" si="97"/>
-        <v>41369.577828796413</v>
+        <f>CY92*(1+$Z$85)</f>
+        <v>36962.820688761603</v>
       </c>
       <c r="DA92" s="10">
-        <f t="shared" si="97"/>
-        <v>41783.273607084375</v>
+        <f>CZ92*(1+$Z$85)</f>
+        <v>37332.448895649221</v>
       </c>
       <c r="DB92" s="10">
-        <f t="shared" si="97"/>
-        <v>42201.106343155217</v>
+        <f>DA92*(1+$Z$85)</f>
+        <v>37705.773384605716</v>
       </c>
       <c r="DC92" s="10">
-        <f t="shared" si="97"/>
-        <v>42623.117406586767</v>
+        <f>DB92*(1+$Z$85)</f>
+        <v>38082.831118451773</v>
       </c>
       <c r="DD92" s="10">
-        <f t="shared" si="97"/>
-        <v>43049.348580652637</v>
+        <f>DC92*(1+$Z$85)</f>
+        <v>38463.659429636289</v>
       </c>
       <c r="DE92" s="10">
-        <f t="shared" si="97"/>
-        <v>43479.842066459161</v>
+        <f>DD92*(1+$Z$85)</f>
+        <v>38848.296023932649</v>
       </c>
       <c r="DF92" s="10">
-        <f t="shared" si="97"/>
-        <v>43914.640487123754</v>
+        <f>DE92*(1+$Z$85)</f>
+        <v>39236.778984171979</v>
       </c>
       <c r="DG92" s="10">
-        <f t="shared" si="97"/>
-        <v>44353.786891994991</v>
+        <f>DF92*(1+$Z$85)</f>
+        <v>39629.146774013701</v>
       </c>
       <c r="DH92" s="10">
-        <f t="shared" si="97"/>
-        <v>44797.32476091494</v>
+        <f>DG92*(1+$Z$85)</f>
+        <v>40025.438241753836</v>
       </c>
       <c r="DI92" s="10">
-        <f t="shared" si="97"/>
-        <v>45245.298008524092</v>
+        <f>DH92*(1+$Z$85)</f>
+        <v>40425.692624171374</v>
       </c>
       <c r="DJ92" s="10">
-        <f t="shared" si="97"/>
-        <v>45697.750988609332</v>
+        <f>DI92*(1+$Z$85)</f>
+        <v>40829.94955041309</v>
       </c>
       <c r="DK92" s="10">
-        <f t="shared" si="97"/>
-        <v>46154.728498495424</v>
+        <f>DJ92*(1+$Z$85)</f>
+        <v>41238.249045917219</v>
       </c>
     </row>
     <row r="93" spans="1:115" x14ac:dyDescent="0.2">

--- a/ADBE.xlsx
+++ b/ADBE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D4799C-3561-426F-AD50-5DD244CDDFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8636F7CC-3601-4CC5-93B8-6C46AD1DCE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="345" windowWidth="21540" windowHeight="14760" activeTab="1" xr2:uid="{B5255683-9904-4B96-B116-504FB2085B5B}"/>
+    <workbookView xWindow="4185" yWindow="300" windowWidth="20925" windowHeight="15015" activeTab="1" xr2:uid="{B5255683-9904-4B96-B116-504FB2085B5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -145,9 +145,6 @@
     <t>Revenue y/y</t>
   </si>
   <si>
-    <t>OPEX Margin</t>
-  </si>
-  <si>
     <t>Operating Margin</t>
   </si>
   <si>
@@ -356,6 +353,9 @@
   </si>
   <si>
     <t>Can they sell cloud side software with server side compute?</t>
+  </si>
+  <si>
+    <t>Figma?</t>
   </si>
 </sst>
 </file>
@@ -365,13 +365,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -453,32 +459,33 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -509,7 +516,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -559,7 +566,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>4396</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -919,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B5A162-EAE9-4CC5-AE4B-8B686CFC5399}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -938,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="3">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -949,7 +956,7 @@
         <v>424.2</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -958,7 +965,7 @@
       </c>
       <c r="O4" s="4">
         <f>O3*O2</f>
-        <v>144652.19999999998</v>
+        <v>148894.19999999998</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -970,7 +977,7 @@
         <v>5713</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -982,7 +989,7 @@
         <v>7620</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -991,7 +998,7 @@
       </c>
       <c r="O7" s="4">
         <f>O4+O6-O5</f>
-        <v>146559.19999999998</v>
+        <v>150801.19999999998</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1002,29 +1009,34 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J10" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J11" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J12" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J13" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J14" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J16" s="23" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1035,13 +1047,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1F5702-5366-4A93-A101-38C235480BE9}">
-  <dimension ref="A1:DK94"/>
+  <dimension ref="A1:DK93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Q65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W92" sqref="W92"/>
+      <selection pane="bottomRight" activeCell="Y93" sqref="Y93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1059,33 +1071,33 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="J2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L2" s="8">
         <v>2019</v>
@@ -1141,7 +1153,7 @@
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H3" s="6">
         <v>4300</v>
@@ -1171,7 +1183,7 @@
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" s="6">
         <v>1450</v>
@@ -1957,14 +1969,14 @@
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B20" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I20" s="6">
-        <f>H35*$Z$84/4</f>
+        <f>H34*$Z$83/4</f>
         <v>-9.5350000000000001</v>
       </c>
       <c r="J20" s="6">
-        <f>I35*$Z$84/4</f>
+        <f>I34*$Z$83/4</f>
         <v>-1.0325399999999991</v>
       </c>
       <c r="K20" s="6"/>
@@ -1985,23 +1997,23 @@
         <v>-10.567539999999999</v>
       </c>
       <c r="S20" s="6">
-        <f>R35*$Z$84</f>
+        <f>R34*$Z$83</f>
         <v>31.19750336000001</v>
       </c>
       <c r="T20" s="6">
-        <f>S35*$Z$84</f>
+        <f>S34*$Z$83</f>
         <v>195.00628385664561</v>
       </c>
       <c r="U20" s="6">
-        <f>T35*$Z$84</f>
+        <f>T34*$Z$83</f>
         <v>380.68755663002258</v>
       </c>
       <c r="V20" s="6">
-        <f>U35*$Z$84</f>
+        <f>U34*$Z$83</f>
         <v>590.74566581008526</v>
       </c>
       <c r="W20" s="6">
-        <f>V35*$Z$84</f>
+        <f>V34*$Z$83</f>
         <v>827.95872844365033</v>
       </c>
     </row>
@@ -2438,7 +2450,7 @@
     </row>
     <row r="28" spans="2:27" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12" t="e">
@@ -2485,7 +2497,7 @@
     </row>
     <row r="29" spans="2:27" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M29" s="12" t="e">
         <f t="shared" ref="M29:R29" si="40">SUM(M16:M17)/SUM(L16:L17)-1</f>
@@ -2608,7 +2620,7 @@
     </row>
     <row r="32" spans="2:27" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="14" t="e">
         <f t="shared" ref="C32:J32" si="43">C19/C9</f>
@@ -2684,329 +2696,262 @@
       <c r="Z32" s="14"/>
       <c r="AA32" s="14"/>
     </row>
-    <row r="33" spans="2:27" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="14" t="e">
-        <f t="shared" ref="C33:J33" si="45">C18/C9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D33" s="14">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="6">
+        <f t="shared" ref="C34:H34" si="45">C35-C36</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
         <f t="shared" si="45"/>
-        <v>0.52439254096816723</v>
-      </c>
-      <c r="E33" s="14" t="e">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F33" s="14" t="e">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6">
         <f t="shared" si="45"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="14">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="14">
+        <v>-262</v>
+      </c>
+      <c r="H34" s="6">
         <f t="shared" si="45"/>
-        <v>0.52528520347352292</v>
-      </c>
-      <c r="I33" s="14">
-        <f t="shared" si="45"/>
-        <v>0.52811016949152545</v>
-      </c>
-      <c r="J33" s="14">
-        <f t="shared" si="45"/>
-        <v>0.52293261881023589</v>
-      </c>
-      <c r="K33" s="14"/>
-      <c r="O33" s="14">
-        <f t="shared" ref="O33:W33" si="46">O18/O9</f>
-        <v>0.5210723616948767</v>
-      </c>
-      <c r="P33" s="14">
-        <f t="shared" si="46"/>
-        <v>0.52743572569426556</v>
-      </c>
-      <c r="Q33" s="14">
-        <f t="shared" si="46"/>
-        <v>0.52252964426877468</v>
-      </c>
-      <c r="R33" s="14">
-        <f t="shared" si="46"/>
-        <v>0.51714666711328472</v>
-      </c>
-      <c r="S33" s="14">
-        <f t="shared" si="46"/>
-        <v>0.51107853152006433</v>
-      </c>
-      <c r="T33" s="14">
-        <f t="shared" si="46"/>
-        <v>0.5051207256649024</v>
-      </c>
-      <c r="U33" s="14">
-        <f t="shared" si="46"/>
-        <v>0.49927124355256186</v>
-      </c>
-      <c r="V33" s="14">
-        <f t="shared" si="46"/>
-        <v>0.49352811566044552</v>
-      </c>
-      <c r="W33" s="14">
-        <f t="shared" si="46"/>
-        <v>0.48788940827545857</v>
-      </c>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="14"/>
-      <c r="AA33" s="14"/>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+        <v>-1907</v>
+      </c>
+      <c r="I34" s="6">
+        <f>H34+I23</f>
+        <v>-206.50799999999981</v>
+      </c>
+      <c r="J34" s="6">
+        <f>I34+J23</f>
+        <v>1559.8751680000005</v>
+      </c>
+      <c r="K34" s="6"/>
+      <c r="M34" s="6">
+        <f>M35-M36</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="6">
+        <f>N35-N36</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="6">
+        <f>O35-O36</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="6">
+        <f>P35-P36</f>
+        <v>2832</v>
+      </c>
+      <c r="Q34" s="6">
+        <f>Q35-Q36</f>
+        <v>189</v>
+      </c>
+      <c r="R34" s="6">
+        <f>J34</f>
+        <v>1559.8751680000005</v>
+      </c>
+      <c r="S34" s="6">
+        <f>R34+S23</f>
+        <v>9750.3141928322802</v>
+      </c>
+      <c r="T34" s="6">
+        <f>S34+T23</f>
+        <v>19034.37783150113</v>
+      </c>
+      <c r="U34" s="6">
+        <f>T34+U23</f>
+        <v>29537.28329050426</v>
+      </c>
+      <c r="V34" s="6">
+        <f>U34+V23</f>
+        <v>41397.936422182516</v>
+      </c>
+      <c r="W34" s="6">
+        <f>V34+W23</f>
+        <v>54770.392259176326</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="6">
-        <f t="shared" ref="C35:H35" si="47">C36-C37</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="6">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="6">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="6">
-        <f t="shared" si="47"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="47"/>
-        <v>-262</v>
-      </c>
-      <c r="H35" s="6">
-        <f t="shared" si="47"/>
-        <v>-1907</v>
-      </c>
-      <c r="I35" s="6">
-        <f t="shared" ref="I35:J35" si="48">H35+I23</f>
-        <v>-206.50799999999981</v>
-      </c>
-      <c r="J35" s="6">
-        <f t="shared" si="48"/>
-        <v>1559.8751680000005</v>
-      </c>
-      <c r="K35" s="6"/>
-      <c r="M35" s="6">
-        <f>M36-M37</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="6">
-        <f>N36-N37</f>
-        <v>0</v>
-      </c>
-      <c r="O35" s="6">
-        <f>O36-O37</f>
-        <v>0</v>
-      </c>
-      <c r="P35" s="6">
-        <f>P36-P37</f>
-        <v>2832</v>
-      </c>
-      <c r="Q35" s="6">
-        <f>Q36-Q37</f>
-        <v>189</v>
-      </c>
-      <c r="R35" s="6">
-        <f>J35</f>
-        <v>1559.8751680000005</v>
-      </c>
-      <c r="S35" s="6">
-        <f t="shared" ref="S35:W35" si="49">R35+S23</f>
-        <v>9750.3141928322802</v>
-      </c>
-      <c r="T35" s="6">
-        <f t="shared" si="49"/>
-        <v>19034.37783150113</v>
-      </c>
-      <c r="U35" s="6">
-        <f t="shared" si="49"/>
-        <v>29537.28329050426</v>
-      </c>
-      <c r="V35" s="6">
-        <f t="shared" si="49"/>
-        <v>41397.936422182516</v>
-      </c>
-      <c r="W35" s="6">
-        <f t="shared" si="49"/>
-        <v>54770.392259176326</v>
-      </c>
-    </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B36" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" s="6">
         <f>6758+677</f>
         <v>7435</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H35" s="4">
         <f>4931+782</f>
         <v>5713</v>
       </c>
-      <c r="P36" s="6">
-        <f>P39+P40</f>
+      <c r="P35" s="6">
+        <f>P38+P39</f>
         <v>7842</v>
       </c>
-      <c r="Q36" s="6">
-        <f>Q39+Q40</f>
+      <c r="Q35" s="6">
+        <f>Q38+Q39</f>
         <v>7886</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B37" s="6" t="s">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B36" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G36" s="6">
         <f>6155+143+567+334+498</f>
         <v>7697</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H36" s="4">
         <f>6166+114+477+323+540</f>
         <v>7620</v>
       </c>
-      <c r="P37" s="6">
-        <f>SUM(P57:P61)</f>
+      <c r="P36" s="6">
+        <f>SUM(P56:P60)</f>
         <v>5010</v>
       </c>
-      <c r="Q37" s="6">
+      <c r="Q36" s="6">
         <f>6155+143+567+334+498</f>
         <v>7697</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="6">
+        <v>7141</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>7613</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="P39" s="6">
-        <v>7141</v>
+        <v>701</v>
       </c>
       <c r="Q39" s="6">
-        <v>7613</v>
-      </c>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
         <v>37</v>
       </c>
       <c r="P40" s="6">
-        <v>701</v>
+        <v>2224</v>
       </c>
       <c r="Q40" s="6">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
         <v>38</v>
       </c>
       <c r="P41" s="6">
-        <v>2224</v>
+        <v>1018</v>
       </c>
       <c r="Q41" s="6">
-        <v>2072</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
         <v>39</v>
       </c>
       <c r="P42" s="6">
-        <v>1018</v>
+        <v>2030</v>
       </c>
       <c r="Q42" s="6">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
         <v>40</v>
       </c>
       <c r="P43" s="6">
-        <v>2030</v>
+        <v>358</v>
       </c>
       <c r="Q43" s="6">
-        <v>1936</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
         <v>41</v>
       </c>
       <c r="P44" s="6">
-        <v>358</v>
+        <v>12805</v>
       </c>
       <c r="Q44" s="6">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+        <v>12788</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
         <v>42</v>
       </c>
       <c r="P45" s="6">
-        <v>12805</v>
+        <v>1088</v>
       </c>
       <c r="Q45" s="6">
-        <v>12788</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
         <v>43</v>
       </c>
       <c r="P46" s="6">
-        <v>1088</v>
+        <v>1191</v>
       </c>
       <c r="Q46" s="6">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
         <v>44</v>
       </c>
       <c r="P47" s="6">
-        <v>1191</v>
+        <v>1223</v>
       </c>
       <c r="Q47" s="6">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
         <v>45</v>
       </c>
       <c r="P48" s="6">
-        <v>1223</v>
+        <f>SUM(P38:P47)</f>
+        <v>29779</v>
       </c>
       <c r="Q48" s="6">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B49" s="6" t="s">
+        <f>SUM(Q38:Q47)</f>
+        <v>30230</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B50" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="P49" s="6">
-        <f>SUM(P39:P48)</f>
-        <v>29779</v>
-      </c>
-      <c r="Q49" s="6">
-        <f>SUM(Q39:Q48)</f>
-        <v>30230</v>
+      <c r="P50" s="6">
+        <v>314</v>
+      </c>
+      <c r="Q50" s="6">
+        <v>361</v>
       </c>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.2">
@@ -3014,32 +2959,32 @@
         <v>47</v>
       </c>
       <c r="P51" s="6">
-        <v>314</v>
+        <v>1942</v>
       </c>
       <c r="Q51" s="6">
-        <v>361</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P52" s="6">
-        <v>1942</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="6">
-        <v>2336</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P53" s="6">
-        <v>0</v>
+        <v>5837</v>
       </c>
       <c r="Q53" s="6">
-        <v>1499</v>
+        <v>6131</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
@@ -3047,10 +2992,10 @@
         <v>49</v>
       </c>
       <c r="P54" s="6">
-        <v>5837</v>
+        <v>85</v>
       </c>
       <c r="Q54" s="6">
-        <v>6131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
@@ -3058,21 +3003,21 @@
         <v>50</v>
       </c>
       <c r="P55" s="6">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="Q55" s="6">
-        <v>119</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P56" s="6">
-        <v>73</v>
+        <v>3634</v>
       </c>
       <c r="Q56" s="6">
-        <v>75</v>
+        <v>4129</v>
       </c>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
@@ -3080,205 +3025,232 @@
         <v>53</v>
       </c>
       <c r="P57" s="6">
-        <v>3634</v>
+        <v>113</v>
       </c>
       <c r="Q57" s="6">
-        <v>4129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="P58" s="6">
-        <v>113</v>
+        <v>514</v>
       </c>
       <c r="Q58" s="6">
-        <v>128</v>
+        <v>548</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="P59" s="6">
-        <v>514</v>
+        <v>373</v>
       </c>
       <c r="Q59" s="6">
-        <v>548</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P60" s="6">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q60" s="6">
-        <v>353</v>
+        <v>446</v>
       </c>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P61" s="6">
-        <v>376</v>
+        <f>SUM(P50:P60)</f>
+        <v>13261</v>
       </c>
       <c r="Q61" s="6">
-        <v>446</v>
+        <f>SUM(Q50:Q60)</f>
+        <v>16125</v>
       </c>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P62" s="6">
-        <f>SUM(P51:P61)</f>
-        <v>13261</v>
+        <f>P48-P61</f>
+        <v>16518</v>
       </c>
       <c r="Q62" s="6">
-        <f>SUM(Q51:Q61)</f>
-        <v>16125</v>
+        <f>Q48-Q61</f>
+        <v>14105</v>
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P63" s="6">
-        <f>P49-P62</f>
-        <v>16518</v>
+        <f>P62+P61</f>
+        <v>29779</v>
       </c>
       <c r="Q63" s="6">
-        <f>Q49-Q62</f>
-        <v>14105</v>
-      </c>
-    </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B64" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="P64" s="6">
-        <f>P63+P62</f>
-        <v>29779</v>
-      </c>
-      <c r="Q64" s="6">
-        <f>Q63+Q62</f>
+        <f>Q62+Q61</f>
         <v>30230</v>
       </c>
     </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B65" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P65" s="6">
+        <f>P40/P9*360</f>
+        <v>41.250966046679373</v>
+      </c>
+      <c r="Q65" s="6">
+        <f>Q40/Q9*360</f>
+        <v>34.68588700302255</v>
+      </c>
+    </row>
     <row r="66" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B66" s="6" t="s">
+      <c r="Q66" s="14"/>
+      <c r="R66" s="14"/>
+      <c r="S66" s="14"/>
+    </row>
+    <row r="67" spans="2:29" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="P66" s="6">
-        <f>P41/P9*360</f>
-        <v>41.250966046679373</v>
-      </c>
-      <c r="Q66" s="6">
-        <f>Q41/Q9*360</f>
-        <v>34.68588700302255</v>
-      </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="Q67" s="14"/>
-      <c r="R67" s="14"/>
-      <c r="S67" s="14"/>
-    </row>
-    <row r="68" spans="2:29" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O67" s="10">
+        <f>O23</f>
+        <v>4884</v>
+      </c>
+      <c r="P67" s="10">
+        <f>P23</f>
+        <v>5350</v>
+      </c>
+      <c r="Q67" s="10">
+        <f>Q23</f>
+        <v>6418</v>
+      </c>
+      <c r="R67" s="10">
+        <f>R23</f>
+        <v>7294.68002638498</v>
+      </c>
+      <c r="S67" s="10">
+        <f>S23</f>
+        <v>8190.4390248322798</v>
+      </c>
+      <c r="T67" s="10">
+        <f>T23</f>
+        <v>9284.0636386688475</v>
+      </c>
+      <c r="U67" s="10">
+        <f>U23</f>
+        <v>10502.90545900313</v>
+      </c>
+      <c r="V67" s="10">
+        <f>V23</f>
+        <v>11860.653131678255</v>
+      </c>
+      <c r="W67" s="10">
+        <f>W23</f>
+        <v>13372.455836993808</v>
+      </c>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B68" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="O68" s="10">
-        <f t="shared" ref="O68:W68" si="50">O23</f>
-        <v>4884</v>
-      </c>
-      <c r="P68" s="10">
-        <f t="shared" si="50"/>
-        <v>5350</v>
-      </c>
-      <c r="Q68" s="10">
-        <f t="shared" si="50"/>
-        <v>6418</v>
-      </c>
-      <c r="R68" s="10">
-        <f t="shared" si="50"/>
-        <v>7294.68002638498</v>
-      </c>
-      <c r="S68" s="10">
-        <f t="shared" si="50"/>
-        <v>8190.4390248322798</v>
-      </c>
-      <c r="T68" s="10">
-        <f t="shared" si="50"/>
-        <v>9284.0636386688475</v>
-      </c>
-      <c r="U68" s="10">
-        <f t="shared" si="50"/>
-        <v>10502.90545900313</v>
-      </c>
-      <c r="V68" s="10">
-        <f t="shared" si="50"/>
-        <v>11860.653131678255</v>
-      </c>
-      <c r="W68" s="10">
-        <f t="shared" si="50"/>
-        <v>13372.455836993808</v>
-      </c>
+      <c r="O68" s="6">
+        <v>4756</v>
+      </c>
+      <c r="P68" s="6">
+        <v>5428</v>
+      </c>
+      <c r="Q68" s="6">
+        <v>5560</v>
+      </c>
+      <c r="R68" s="14"/>
     </row>
     <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B69" s="6" t="s">
         <v>69</v>
       </c>
       <c r="O69" s="6">
-        <v>4756</v>
+        <v>856</v>
       </c>
       <c r="P69" s="6">
-        <v>5428</v>
+        <v>872</v>
       </c>
       <c r="Q69" s="6">
-        <v>5560</v>
-      </c>
-      <c r="R69" s="14"/>
+        <v>857</v>
+      </c>
+      <c r="R69" s="6">
+        <f>Q69*(1+R27)</f>
+        <v>940.48825854452457</v>
+      </c>
+      <c r="S69" s="6">
+        <f>R69*(1+S27)</f>
+        <v>1034.5370843989772</v>
+      </c>
+      <c r="T69" s="6">
+        <f>S69*(1+T27)</f>
+        <v>1137.990792838875</v>
+      </c>
+      <c r="U69" s="6">
+        <f>T69*(1+U27)</f>
+        <v>1251.7898721227625</v>
+      </c>
+      <c r="V69" s="6">
+        <f>U69*(1+V27)</f>
+        <v>1376.9688593350388</v>
+      </c>
+      <c r="W69" s="6">
+        <f>V69*(1+W27)</f>
+        <v>1514.6657452685429</v>
+      </c>
     </row>
     <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B70" s="6" t="s">
         <v>70</v>
       </c>
       <c r="O70" s="6">
-        <v>856</v>
+        <v>1440</v>
       </c>
       <c r="P70" s="6">
-        <v>872</v>
+        <v>1718</v>
       </c>
       <c r="Q70" s="6">
-        <v>857</v>
+        <v>1833</v>
       </c>
       <c r="R70" s="6">
-        <f t="shared" ref="R70:W70" si="51">Q70*(1+R27)</f>
-        <v>940.48825854452457</v>
+        <f t="shared" ref="R70:W70" si="46">Q70*1.1</f>
+        <v>2016.3000000000002</v>
       </c>
       <c r="S70" s="6">
-        <f t="shared" si="51"/>
-        <v>1034.5370843989772</v>
+        <f t="shared" si="46"/>
+        <v>2217.9300000000003</v>
       </c>
       <c r="T70" s="6">
-        <f t="shared" si="51"/>
-        <v>1137.990792838875</v>
+        <f t="shared" si="46"/>
+        <v>2439.7230000000004</v>
       </c>
       <c r="U70" s="6">
-        <f t="shared" si="51"/>
-        <v>1251.7898721227625</v>
+        <f t="shared" si="46"/>
+        <v>2683.6953000000008</v>
       </c>
       <c r="V70" s="6">
-        <f t="shared" si="51"/>
-        <v>1376.9688593350388</v>
+        <f t="shared" si="46"/>
+        <v>2952.0648300000012</v>
       </c>
       <c r="W70" s="6">
-        <f t="shared" si="51"/>
-        <v>1514.6657452685429</v>
+        <f t="shared" si="46"/>
+        <v>3247.2713130000016</v>
       </c>
     </row>
     <row r="71" spans="2:29" x14ac:dyDescent="0.2">
@@ -3286,37 +3258,37 @@
         <v>71</v>
       </c>
       <c r="O71" s="6">
-        <v>1440</v>
+        <v>83</v>
       </c>
       <c r="P71" s="6">
-        <v>1718</v>
+        <v>72</v>
       </c>
       <c r="Q71" s="6">
-        <v>1833</v>
+        <v>77</v>
       </c>
       <c r="R71" s="6">
-        <f t="shared" ref="R71:W71" si="52">Q71*1.1</f>
-        <v>2016.3000000000002</v>
+        <f>Q71*(1+R27)</f>
+        <v>84.501278772378527</v>
       </c>
       <c r="S71" s="6">
-        <f t="shared" si="52"/>
-        <v>2217.9300000000003</v>
+        <f>R71*(1+S27)</f>
+        <v>92.951406649616388</v>
       </c>
       <c r="T71" s="6">
-        <f t="shared" si="52"/>
-        <v>2439.7230000000004</v>
+        <f>S71*(1+T27)</f>
+        <v>102.24654731457804</v>
       </c>
       <c r="U71" s="6">
-        <f t="shared" si="52"/>
-        <v>2683.6953000000008</v>
+        <f>T71*(1+U27)</f>
+        <v>112.47120204603586</v>
       </c>
       <c r="V71" s="6">
-        <f t="shared" si="52"/>
-        <v>2952.0648300000012</v>
+        <f>U71*(1+V27)</f>
+        <v>123.71832225063945</v>
       </c>
       <c r="W71" s="6">
-        <f t="shared" si="52"/>
-        <v>3247.2713130000016</v>
+        <f>V71*(1+W27)</f>
+        <v>136.0901544757034</v>
       </c>
     </row>
     <row r="72" spans="2:29" x14ac:dyDescent="0.2">
@@ -3324,190 +3296,190 @@
         <v>72</v>
       </c>
       <c r="O72" s="6">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="P72" s="6">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="Q72" s="6">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R72" s="6">
-        <f t="shared" ref="R72:W72" si="53">Q72*(1+R27)</f>
-        <v>84.501278772378527</v>
+        <f>Q72*(1+R27)</f>
+        <v>85.598697977214599</v>
       </c>
       <c r="S72" s="6">
-        <f t="shared" si="53"/>
-        <v>92.951406649616388</v>
+        <f>R72*(1+S27)</f>
+        <v>94.15856777493606</v>
       </c>
       <c r="T72" s="6">
-        <f t="shared" si="53"/>
-        <v>102.24654731457804</v>
+        <f>S72*(1+T27)</f>
+        <v>103.57442455242968</v>
       </c>
       <c r="U72" s="6">
-        <f t="shared" si="53"/>
-        <v>112.47120204603586</v>
+        <f>T72*(1+U27)</f>
+        <v>113.93186700767265</v>
       </c>
       <c r="V72" s="6">
-        <f t="shared" si="53"/>
-        <v>123.71832225063945</v>
+        <f>U72*(1+V27)</f>
+        <v>125.32505370843992</v>
       </c>
       <c r="W72" s="6">
-        <f t="shared" si="53"/>
-        <v>136.0901544757034</v>
+        <f>V72*(1+W27)</f>
+        <v>137.85755907928393</v>
       </c>
     </row>
     <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B73" s="6" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="O73" s="6">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="P73" s="6">
-        <v>0</v>
+        <v>-426</v>
       </c>
       <c r="Q73" s="6">
-        <v>78</v>
+        <v>-468</v>
       </c>
       <c r="R73" s="6">
-        <f t="shared" ref="R73:W73" si="54">Q73*(1+R27)</f>
-        <v>85.598697977214599</v>
+        <f>Q73*(1+R27)</f>
+        <v>-513.59218786328768</v>
       </c>
       <c r="S73" s="6">
-        <f t="shared" si="54"/>
-        <v>94.15856777493606</v>
+        <f>R73*(1+S27)</f>
+        <v>-564.9514066496165</v>
       </c>
       <c r="T73" s="6">
-        <f t="shared" si="54"/>
-        <v>103.57442455242968</v>
+        <f>S73*(1+T27)</f>
+        <v>-621.4465473145782</v>
       </c>
       <c r="U73" s="6">
-        <f t="shared" si="54"/>
-        <v>113.93186700767265</v>
+        <f>T73*(1+U27)</f>
+        <v>-683.59120204603607</v>
       </c>
       <c r="V73" s="6">
-        <f t="shared" si="54"/>
-        <v>125.32505370843992</v>
+        <f>U73*(1+V27)</f>
+        <v>-751.95032225063972</v>
       </c>
       <c r="W73" s="6">
-        <f t="shared" si="54"/>
-        <v>137.85755907928393</v>
+        <f>V73*(1+W27)</f>
+        <v>-827.1453544757037</v>
       </c>
     </row>
     <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B74" s="6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="O74" s="6">
-        <v>328</v>
+        <v>29</v>
       </c>
       <c r="P74" s="6">
-        <v>-426</v>
+        <v>-10</v>
       </c>
       <c r="Q74" s="6">
-        <v>-468</v>
+        <v>-35</v>
       </c>
       <c r="R74" s="6">
-        <f t="shared" ref="R74:W74" si="55">Q74*(1+R27)</f>
-        <v>-513.59218786328768</v>
+        <f>Q74*(1+R27)</f>
+        <v>-38.409672169262961</v>
       </c>
       <c r="S74" s="6">
-        <f t="shared" si="55"/>
-        <v>-564.9514066496165</v>
+        <f>R74*(1+S27)</f>
+        <v>-42.250639386189263</v>
       </c>
       <c r="T74" s="6">
-        <f t="shared" si="55"/>
-        <v>-621.4465473145782</v>
+        <f>S74*(1+T27)</f>
+        <v>-46.475703324808194</v>
       </c>
       <c r="U74" s="6">
-        <f t="shared" si="55"/>
-        <v>-683.59120204603607</v>
+        <f>T74*(1+U27)</f>
+        <v>-51.123273657289019</v>
       </c>
       <c r="V74" s="6">
-        <f t="shared" si="55"/>
-        <v>-751.95032225063972</v>
+        <f>U74*(1+V27)</f>
+        <v>-56.235601023017928</v>
       </c>
       <c r="W74" s="6">
-        <f t="shared" si="55"/>
-        <v>-827.1453544757037</v>
-      </c>
+        <f>V74*(1+W27)</f>
+        <v>-61.859161125319723</v>
+      </c>
+      <c r="AC74" s="19"/>
     </row>
     <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B75" s="6" t="s">
         <v>74</v>
       </c>
       <c r="O75" s="6">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P75" s="6">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="Q75" s="6">
-        <v>-35</v>
+        <v>10</v>
       </c>
       <c r="R75" s="6">
-        <f t="shared" ref="R75:W75" si="56">Q75*(1+R27)</f>
-        <v>-38.409672169262961</v>
+        <f>Q75*(1+R27)</f>
+        <v>10.974192048360846</v>
       </c>
       <c r="S75" s="6">
-        <f t="shared" si="56"/>
-        <v>-42.250639386189263</v>
+        <f>R75*(1+S27)</f>
+        <v>12.071611253196933</v>
       </c>
       <c r="T75" s="6">
-        <f t="shared" si="56"/>
-        <v>-46.475703324808194</v>
+        <f>S75*(1+T27)</f>
+        <v>13.278772378516628</v>
       </c>
       <c r="U75" s="6">
-        <f t="shared" si="56"/>
-        <v>-51.123273657289019</v>
+        <f>T75*(1+U27)</f>
+        <v>14.606649616368292</v>
       </c>
       <c r="V75" s="6">
-        <f t="shared" si="56"/>
-        <v>-56.235601023017928</v>
+        <f>U75*(1+V27)</f>
+        <v>16.067314578005124</v>
       </c>
       <c r="W75" s="6">
-        <f t="shared" si="56"/>
-        <v>-61.859161125319723</v>
+        <f>V75*(1+W27)</f>
+        <v>17.674046035805638</v>
       </c>
       <c r="AC75" s="19"/>
     </row>
     <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B76" s="6" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="O76" s="6">
-        <v>10</v>
+        <v>-198</v>
       </c>
       <c r="P76" s="6">
-        <v>3</v>
+        <v>-159</v>
       </c>
       <c r="Q76" s="6">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="R76" s="6">
-        <f t="shared" ref="R76:W76" si="57">Q76*(1+R27)</f>
-        <v>10.974192048360846</v>
+        <v>0</v>
       </c>
       <c r="S76" s="6">
-        <f t="shared" si="57"/>
-        <v>12.071611253196933</v>
+        <f>R76*(1+S27)</f>
+        <v>0</v>
       </c>
       <c r="T76" s="6">
-        <f t="shared" si="57"/>
-        <v>13.278772378516628</v>
+        <f>S76*(1+T27)</f>
+        <v>0</v>
       </c>
       <c r="U76" s="6">
-        <f t="shared" si="57"/>
-        <v>14.606649616368292</v>
+        <f>T76*(1+U27)</f>
+        <v>0</v>
       </c>
       <c r="V76" s="6">
-        <f t="shared" si="57"/>
-        <v>16.067314578005124</v>
+        <f>U76*(1+V27)</f>
+        <v>0</v>
       </c>
       <c r="W76" s="6">
-        <f t="shared" si="57"/>
-        <v>17.674046035805638</v>
+        <f>V76*(1+W27)</f>
+        <v>0</v>
       </c>
       <c r="AC76" s="19"/>
     </row>
@@ -3516,318 +3488,300 @@
         <v>38</v>
       </c>
       <c r="O77" s="6">
-        <v>-198</v>
+        <v>-94</v>
       </c>
       <c r="P77" s="6">
-        <v>-159</v>
+        <v>-818</v>
       </c>
       <c r="Q77" s="6">
-        <v>143</v>
+        <v>-616</v>
       </c>
       <c r="R77" s="6">
-        <v>0</v>
+        <f>Q77*(1+R27)</f>
+        <v>-676.01023017902821</v>
       </c>
       <c r="S77" s="6">
-        <f t="shared" ref="S77:W77" si="58">R77*(1+S27)</f>
-        <v>0</v>
+        <f>R77*(1+S27)</f>
+        <v>-743.6112531969311</v>
       </c>
       <c r="T77" s="6">
-        <f t="shared" si="58"/>
-        <v>0</v>
+        <f>S77*(1+T27)</f>
+        <v>-817.9723785166243</v>
       </c>
       <c r="U77" s="6">
-        <f t="shared" si="58"/>
-        <v>0</v>
+        <f>T77*(1+U27)</f>
+        <v>-899.76961636828685</v>
       </c>
       <c r="V77" s="6">
-        <f t="shared" si="58"/>
-        <v>0</v>
+        <f>U77*(1+V27)</f>
+        <v>-989.74657800511557</v>
       </c>
       <c r="W77" s="6">
-        <f t="shared" si="58"/>
-        <v>0</v>
+        <f>V77*(1+W27)</f>
+        <v>-1088.7212358056272</v>
       </c>
       <c r="AC77" s="19"/>
     </row>
     <row r="78" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B78" s="6" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="O78" s="6">
-        <v>-94</v>
+        <v>66</v>
       </c>
       <c r="P78" s="6">
-        <v>-818</v>
+        <v>-49</v>
       </c>
       <c r="Q78" s="6">
-        <v>-616</v>
+        <v>44</v>
       </c>
       <c r="R78" s="6">
-        <f t="shared" ref="R78:W78" si="59">Q78*(1+R27)</f>
-        <v>-676.01023017902821</v>
+        <f>Q78*(1+R27)</f>
+        <v>48.286445012787723</v>
       </c>
       <c r="S78" s="6">
-        <f t="shared" si="59"/>
-        <v>-743.6112531969311</v>
+        <f>R78*(1+S27)</f>
+        <v>53.115089514066497</v>
       </c>
       <c r="T78" s="6">
-        <f t="shared" si="59"/>
-        <v>-817.9723785166243</v>
+        <f>S78*(1+T27)</f>
+        <v>58.426598465473148</v>
       </c>
       <c r="U78" s="6">
-        <f t="shared" si="59"/>
-        <v>-899.76961636828685</v>
+        <f>T78*(1+U27)</f>
+        <v>64.269258312020469</v>
       </c>
       <c r="V78" s="6">
-        <f t="shared" si="59"/>
-        <v>-989.74657800511557</v>
+        <f>U78*(1+V27)</f>
+        <v>70.696184143222524</v>
       </c>
       <c r="W78" s="6">
-        <f t="shared" si="59"/>
-        <v>-1088.7212358056272</v>
+        <f>V78*(1+W27)</f>
+        <v>77.765802557544788</v>
       </c>
       <c r="AC78" s="19"/>
     </row>
     <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="6" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="O79" s="6">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="P79" s="6">
-        <v>-49</v>
+        <v>146</v>
       </c>
       <c r="Q79" s="6">
-        <v>44</v>
+        <v>196</v>
       </c>
       <c r="R79" s="6">
-        <f t="shared" ref="R79:W79" si="60">Q79*(1+R27)</f>
-        <v>48.286445012787723</v>
+        <f>Q79*(1+R27)</f>
+        <v>215.09416414787259</v>
       </c>
       <c r="S79" s="6">
-        <f t="shared" si="60"/>
-        <v>53.115089514066497</v>
+        <f>R79*(1+S27)</f>
+        <v>236.60358056265986</v>
       </c>
       <c r="T79" s="6">
-        <f t="shared" si="60"/>
-        <v>58.426598465473148</v>
+        <f>S79*(1+T27)</f>
+        <v>260.26393861892586</v>
       </c>
       <c r="U79" s="6">
-        <f t="shared" si="60"/>
-        <v>64.269258312020469</v>
+        <f>T79*(1+U27)</f>
+        <v>286.29033248081845</v>
       </c>
       <c r="V79" s="6">
-        <f t="shared" si="60"/>
-        <v>70.696184143222524</v>
+        <f>U79*(1+V27)</f>
+        <v>314.91936572890035</v>
       </c>
       <c r="W79" s="6">
-        <f t="shared" si="60"/>
-        <v>77.765802557544788</v>
-      </c>
-      <c r="AC79" s="19"/>
+        <f>V79*(1+W27)</f>
+        <v>346.41130230179039</v>
+      </c>
     </row>
     <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B80" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O80" s="6">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="P80" s="6">
-        <v>146</v>
+        <v>-11</v>
       </c>
       <c r="Q80" s="6">
-        <v>196</v>
+        <v>68</v>
       </c>
       <c r="R80" s="6">
-        <f t="shared" ref="R80:W80" si="61">Q80*(1+R27)</f>
-        <v>215.09416414787259</v>
+        <f>Q80*(1+R27)</f>
+        <v>74.624505928853765</v>
       </c>
       <c r="S80" s="6">
-        <f t="shared" si="61"/>
-        <v>236.60358056265986</v>
+        <f>R80*(1+S27)</f>
+        <v>82.086956521739154</v>
       </c>
       <c r="T80" s="6">
-        <f t="shared" si="61"/>
-        <v>260.26393861892586</v>
+        <f>S80*(1+T27)</f>
+        <v>90.295652173913084</v>
       </c>
       <c r="U80" s="6">
-        <f t="shared" si="61"/>
-        <v>286.29033248081845</v>
+        <f>T80*(1+U27)</f>
+        <v>99.325217391304406</v>
       </c>
       <c r="V80" s="6">
-        <f t="shared" si="61"/>
-        <v>314.91936572890035</v>
+        <f>U80*(1+V27)</f>
+        <v>109.25773913043486</v>
       </c>
       <c r="W80" s="6">
-        <f t="shared" si="61"/>
-        <v>346.41130230179039</v>
+        <f>V80*(1+W27)</f>
+        <v>120.18351304347836</v>
       </c>
     </row>
     <row r="81" spans="1:115" x14ac:dyDescent="0.2">
       <c r="B81" s="6" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="O81" s="6">
-        <v>19</v>
+        <v>536</v>
       </c>
       <c r="P81" s="6">
-        <v>-11</v>
+        <v>536</v>
       </c>
       <c r="Q81" s="6">
-        <v>68</v>
+        <v>309</v>
       </c>
       <c r="R81" s="6">
-        <f t="shared" ref="R81:W81" si="62">Q81*(1+R27)</f>
-        <v>74.624505928853765</v>
+        <v>0</v>
       </c>
       <c r="S81" s="6">
-        <f t="shared" si="62"/>
-        <v>82.086956521739154</v>
+        <f>R81*(1+S27)</f>
+        <v>0</v>
       </c>
       <c r="T81" s="6">
-        <f t="shared" si="62"/>
-        <v>90.295652173913084</v>
+        <f>S81*(1+T27)</f>
+        <v>0</v>
       </c>
       <c r="U81" s="6">
-        <f t="shared" si="62"/>
-        <v>99.325217391304406</v>
+        <f>T81*(1+U27)</f>
+        <v>0</v>
       </c>
       <c r="V81" s="6">
-        <f t="shared" si="62"/>
-        <v>109.25773913043486</v>
+        <f>U81*(1+V27)</f>
+        <v>0</v>
       </c>
       <c r="W81" s="6">
-        <f t="shared" si="62"/>
-        <v>120.18351304347836</v>
-      </c>
-    </row>
-    <row r="82" spans="1:115" x14ac:dyDescent="0.2">
-      <c r="B82" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="O82" s="6">
-        <v>536</v>
-      </c>
-      <c r="P82" s="6">
-        <v>536</v>
-      </c>
-      <c r="Q82" s="6">
-        <v>309</v>
-      </c>
-      <c r="R82" s="6">
-        <v>0</v>
-      </c>
-      <c r="S82" s="6">
-        <f t="shared" ref="S82:W82" si="63">R82*(1+S27)</f>
-        <v>0</v>
-      </c>
-      <c r="T82" s="6">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="U82" s="6">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="V82" s="6">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-      <c r="W82" s="6">
-        <f t="shared" si="63"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:115" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="6"/>
-      <c r="B83" s="10" t="s">
+        <f>V81*(1+W27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:115" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="6"/>
+      <c r="B82" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="O83" s="10">
-        <f>SUM(O69:O82)</f>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="O82" s="10">
+        <f>SUM(O68:O81)</f>
         <v>7838</v>
       </c>
-      <c r="P83" s="10">
-        <f t="shared" ref="P83:Q83" si="64">SUM(P69:P82)</f>
+      <c r="P82" s="10">
+        <f t="shared" ref="P82:Q82" si="47">SUM(P68:P81)</f>
         <v>7302</v>
       </c>
-      <c r="Q83" s="10">
-        <f t="shared" si="64"/>
+      <c r="Q82" s="10">
+        <f t="shared" si="47"/>
         <v>8056</v>
       </c>
-      <c r="R83" s="10">
-        <f>SUM(R68:R82)</f>
+      <c r="R82" s="10">
+        <f>SUM(R67:R81)</f>
         <v>9542.5354786053977</v>
       </c>
-      <c r="S83" s="10">
-        <f t="shared" ref="S83:V83" si="65">SUM(S68:S82)</f>
+      <c r="S82" s="10">
+        <f t="shared" ref="S82:V82" si="48">SUM(S67:S81)</f>
         <v>10663.080022274735</v>
       </c>
-      <c r="T83" s="10">
-        <f t="shared" si="65"/>
+      <c r="T82" s="10">
+        <f t="shared" si="48"/>
         <v>12003.968735855549</v>
       </c>
-      <c r="U83" s="10">
-        <f t="shared" si="65"/>
+      <c r="U82" s="10">
+        <f t="shared" si="48"/>
         <v>13494.801065908499</v>
       </c>
-      <c r="V83" s="10">
-        <f t="shared" si="65"/>
+      <c r="V82" s="10">
+        <f t="shared" si="48"/>
         <v>15151.738299274164</v>
       </c>
-      <c r="W83" s="10">
-        <f t="shared" ref="W83" si="66">SUM(W68:W82)</f>
+      <c r="W82" s="10">
+        <f t="shared" ref="W82" si="49">SUM(W67:W81)</f>
         <v>16992.649521349304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="B83" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O83" s="6">
+        <v>-909</v>
+      </c>
+      <c r="P83" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="6">
+        <v>-59</v>
+      </c>
+      <c r="Y83" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z83" s="14">
+        <v>0.02</v>
       </c>
     </row>
     <row r="84" spans="1:115" x14ac:dyDescent="0.2">
       <c r="B84" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O84" s="6">
-        <v>-909</v>
+        <v>683</v>
       </c>
       <c r="P84" s="6">
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="Q84" s="6">
-        <v>-59</v>
+        <v>486</v>
       </c>
       <c r="Y84" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z84" s="15">
-        <v>0.02</v>
+        <v>30</v>
+      </c>
+      <c r="Z84" s="14">
+        <v>0.01</v>
       </c>
     </row>
     <row r="85" spans="1:115" x14ac:dyDescent="0.2">
       <c r="B85" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O85" s="6">
-        <v>683</v>
+        <v>270</v>
       </c>
       <c r="P85" s="6">
-        <v>965</v>
+        <v>223</v>
       </c>
       <c r="Q85" s="6">
-        <v>486</v>
+        <v>11</v>
       </c>
       <c r="Y85" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z85" s="15">
-        <v>0.01</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="86" spans="1:115" x14ac:dyDescent="0.2">
@@ -3835,19 +3789,20 @@
         <v>80</v>
       </c>
       <c r="O86" s="6">
-        <v>270</v>
+        <v>-126</v>
       </c>
       <c r="P86" s="6">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="Q86" s="6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y86" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z86" s="11">
-        <v>8.5000000000000006E-2</v>
+        <v>32</v>
+      </c>
+      <c r="Z86" s="10">
+        <f>NPV(Z85,R91:DK91)+Main!O5-Main!O6</f>
+        <v>189943.56809548015</v>
       </c>
     </row>
     <row r="87" spans="1:115" x14ac:dyDescent="0.2">
@@ -3855,20 +3810,20 @@
         <v>81</v>
       </c>
       <c r="O87" s="6">
-        <v>-126</v>
+        <v>-442</v>
       </c>
       <c r="P87" s="6">
-        <v>0</v>
+        <v>-360</v>
       </c>
       <c r="Q87" s="6">
-        <v>0</v>
+        <v>-183</v>
       </c>
       <c r="Y87" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z87" s="10">
-        <f>NPV(Z86,R92:DK92)+Main!O5-Main!O6</f>
-        <v>189943.56809548015</v>
+        <v>0</v>
+      </c>
+      <c r="Z87" s="9">
+        <f>Z86/Main!O3</f>
+        <v>447.76890168665761</v>
       </c>
     </row>
     <row r="88" spans="1:115" x14ac:dyDescent="0.2">
@@ -3876,20 +3831,20 @@
         <v>82</v>
       </c>
       <c r="O88" s="6">
-        <v>-442</v>
+        <v>-46</v>
       </c>
       <c r="P88" s="6">
-        <v>-360</v>
+        <v>-53</v>
       </c>
       <c r="Q88" s="6">
-        <v>-183</v>
+        <v>-108</v>
       </c>
       <c r="Y88" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z88" s="9">
-        <f>Z87/Main!O3</f>
-        <v>447.76890168665761</v>
+        <v>33</v>
+      </c>
+      <c r="Z88" s="14">
+        <f>Z87/Main!O2-1</f>
+        <v>0.27569487660016412</v>
       </c>
     </row>
     <row r="89" spans="1:115" x14ac:dyDescent="0.2">
@@ -3897,40 +3852,68 @@
         <v>83</v>
       </c>
       <c r="O89" s="6">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="P89" s="6">
-        <v>-53</v>
+        <v>1</v>
       </c>
       <c r="Q89" s="6">
-        <v>-108</v>
-      </c>
-      <c r="Y89" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z89" s="14">
-        <f>Z88/Main!O2-1</f>
-        <v>0.31310528353858547</v>
-      </c>
-    </row>
-    <row r="90" spans="1:115" x14ac:dyDescent="0.2">
-      <c r="B90" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:115" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="6"/>
+      <c r="B90" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O90" s="6">
-        <v>0</v>
-      </c>
-      <c r="P90" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q90" s="6">
-        <v>2</v>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="O90" s="10">
+        <f>O87+O86</f>
+        <v>-568</v>
+      </c>
+      <c r="P90" s="10">
+        <f t="shared" ref="P90:Q90" si="50">P87+P86</f>
+        <v>-360</v>
+      </c>
+      <c r="Q90" s="10">
+        <f t="shared" si="50"/>
+        <v>-183</v>
+      </c>
+      <c r="R90" s="10">
+        <v>-300</v>
+      </c>
+      <c r="S90" s="10">
+        <f>R90*(1+S27)</f>
+        <v>-330</v>
+      </c>
+      <c r="T90" s="10">
+        <f>S90*(1+T27)</f>
+        <v>-363.00000000000006</v>
+      </c>
+      <c r="U90" s="10">
+        <f>T90*(1+U27)</f>
+        <v>-399.30000000000007</v>
+      </c>
+      <c r="V90" s="10">
+        <f>U90*(1+V27)</f>
+        <v>-439.23000000000013</v>
+      </c>
+      <c r="W90" s="10">
+        <f>V90*(1+W27)</f>
+        <v>-483.15300000000019</v>
       </c>
     </row>
     <row r="91" spans="1:115" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="10" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3941,472 +3924,423 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="O91" s="10">
-        <f>O88+O87</f>
-        <v>-568</v>
+        <f>O82+O90</f>
+        <v>7270</v>
       </c>
       <c r="P91" s="10">
-        <f t="shared" ref="P91:Q91" si="67">P88+P87</f>
-        <v>-360</v>
+        <f t="shared" ref="P91:V91" si="51">P82+P90</f>
+        <v>6942</v>
       </c>
       <c r="Q91" s="10">
-        <f t="shared" si="67"/>
-        <v>-183</v>
+        <f t="shared" si="51"/>
+        <v>7873</v>
       </c>
       <c r="R91" s="10">
-        <v>-300</v>
+        <f t="shared" si="51"/>
+        <v>9242.5354786053977</v>
       </c>
       <c r="S91" s="10">
-        <f t="shared" ref="S91:W91" si="68">R91*(1+S27)</f>
-        <v>-330</v>
+        <f t="shared" si="51"/>
+        <v>10333.080022274735</v>
       </c>
       <c r="T91" s="10">
-        <f t="shared" si="68"/>
-        <v>-363.00000000000006</v>
+        <f t="shared" si="51"/>
+        <v>11640.968735855549</v>
       </c>
       <c r="U91" s="10">
-        <f t="shared" si="68"/>
-        <v>-399.30000000000007</v>
+        <f t="shared" si="51"/>
+        <v>13095.5010659085</v>
       </c>
       <c r="V91" s="10">
-        <f t="shared" si="68"/>
-        <v>-439.23000000000013</v>
+        <f t="shared" si="51"/>
+        <v>14712.508299274165</v>
       </c>
       <c r="W91" s="10">
-        <f t="shared" si="68"/>
-        <v>-483.15300000000019</v>
-      </c>
-    </row>
-    <row r="92" spans="1:115" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="6"/>
-      <c r="B92" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="O92" s="10">
-        <f>O83+O91</f>
-        <v>7270</v>
-      </c>
-      <c r="P92" s="10">
-        <f t="shared" ref="P92:V92" si="69">P83+P91</f>
-        <v>6942</v>
-      </c>
-      <c r="Q92" s="10">
-        <f t="shared" si="69"/>
-        <v>7873</v>
-      </c>
-      <c r="R92" s="10">
-        <f t="shared" si="69"/>
-        <v>9242.5354786053977</v>
-      </c>
-      <c r="S92" s="10">
-        <f t="shared" si="69"/>
-        <v>10333.080022274735</v>
-      </c>
-      <c r="T92" s="10">
-        <f t="shared" si="69"/>
-        <v>11640.968735855549</v>
-      </c>
-      <c r="U92" s="10">
-        <f t="shared" si="69"/>
-        <v>13095.5010659085</v>
-      </c>
-      <c r="V92" s="10">
-        <f t="shared" si="69"/>
-        <v>14712.508299274165</v>
-      </c>
-      <c r="W92" s="10">
-        <f t="shared" ref="W92" si="70">W83+W91</f>
+        <f t="shared" ref="W91" si="52">W82+W90</f>
         <v>16509.496521349305</v>
       </c>
-      <c r="X92" s="10">
-        <f>W92*(1+$Z$85)</f>
+      <c r="X91" s="10">
+        <f t="shared" ref="X91:BC91" si="53">W91*(1+$Z$84)</f>
         <v>16674.5914865628</v>
       </c>
-      <c r="Y92" s="10">
-        <f>X92*(1+$Z$85)</f>
+      <c r="Y91" s="10">
+        <f t="shared" si="53"/>
         <v>16841.337401428427</v>
       </c>
-      <c r="Z92" s="10">
-        <f>Y92*(1+$Z$85)</f>
+      <c r="Z91" s="10">
+        <f t="shared" si="53"/>
         <v>17009.750775442713</v>
       </c>
-      <c r="AA92" s="10">
-        <f>Z92*(1+$Z$85)</f>
+      <c r="AA91" s="10">
+        <f t="shared" si="53"/>
         <v>17179.848283197141</v>
       </c>
-      <c r="AB92" s="10">
-        <f>AA92*(1+$Z$85)</f>
+      <c r="AB91" s="10">
+        <f t="shared" si="53"/>
         <v>17351.646766029113</v>
       </c>
-      <c r="AC92" s="10">
-        <f>AB92*(1+$Z$85)</f>
+      <c r="AC91" s="10">
+        <f t="shared" si="53"/>
         <v>17525.163233689404</v>
       </c>
-      <c r="AD92" s="10">
-        <f>AC92*(1+$Z$85)</f>
+      <c r="AD91" s="10">
+        <f t="shared" si="53"/>
         <v>17700.414866026298</v>
       </c>
-      <c r="AE92" s="10">
-        <f>AD92*(1+$Z$85)</f>
+      <c r="AE91" s="10">
+        <f t="shared" si="53"/>
         <v>17877.419014686562</v>
       </c>
-      <c r="AF92" s="10">
-        <f>AE92*(1+$Z$85)</f>
+      <c r="AF91" s="10">
+        <f t="shared" si="53"/>
         <v>18056.193204833427</v>
       </c>
-      <c r="AG92" s="10">
-        <f>AF92*(1+$Z$85)</f>
+      <c r="AG91" s="10">
+        <f t="shared" si="53"/>
         <v>18236.755136881762</v>
       </c>
-      <c r="AH92" s="10">
-        <f>AG92*(1+$Z$85)</f>
+      <c r="AH91" s="10">
+        <f t="shared" si="53"/>
         <v>18419.12268825058</v>
       </c>
-      <c r="AI92" s="10">
-        <f>AH92*(1+$Z$85)</f>
+      <c r="AI91" s="10">
+        <f t="shared" si="53"/>
         <v>18603.313915133087</v>
       </c>
-      <c r="AJ92" s="10">
-        <f>AI92*(1+$Z$85)</f>
+      <c r="AJ91" s="10">
+        <f t="shared" si="53"/>
         <v>18789.347054284419</v>
       </c>
-      <c r="AK92" s="10">
-        <f>AJ92*(1+$Z$85)</f>
+      <c r="AK91" s="10">
+        <f t="shared" si="53"/>
         <v>18977.240524827263</v>
       </c>
-      <c r="AL92" s="10">
-        <f>AK92*(1+$Z$85)</f>
+      <c r="AL91" s="10">
+        <f t="shared" si="53"/>
         <v>19167.012930075536</v>
       </c>
-      <c r="AM92" s="10">
-        <f>AL92*(1+$Z$85)</f>
+      <c r="AM91" s="10">
+        <f t="shared" si="53"/>
         <v>19358.683059376293</v>
       </c>
-      <c r="AN92" s="10">
-        <f>AM92*(1+$Z$85)</f>
+      <c r="AN91" s="10">
+        <f t="shared" si="53"/>
         <v>19552.269889970055</v>
       </c>
-      <c r="AO92" s="10">
-        <f>AN92*(1+$Z$85)</f>
+      <c r="AO91" s="10">
+        <f t="shared" si="53"/>
         <v>19747.792588869757</v>
       </c>
-      <c r="AP92" s="10">
-        <f>AO92*(1+$Z$85)</f>
+      <c r="AP91" s="10">
+        <f t="shared" si="53"/>
         <v>19945.270514758457</v>
       </c>
-      <c r="AQ92" s="10">
-        <f>AP92*(1+$Z$85)</f>
+      <c r="AQ91" s="10">
+        <f t="shared" si="53"/>
         <v>20144.723219906042</v>
       </c>
-      <c r="AR92" s="10">
-        <f>AQ92*(1+$Z$85)</f>
+      <c r="AR91" s="10">
+        <f t="shared" si="53"/>
         <v>20346.170452105103</v>
       </c>
-      <c r="AS92" s="10">
-        <f>AR92*(1+$Z$85)</f>
+      <c r="AS91" s="10">
+        <f t="shared" si="53"/>
         <v>20549.632156626154</v>
       </c>
-      <c r="AT92" s="10">
-        <f>AS92*(1+$Z$85)</f>
+      <c r="AT91" s="10">
+        <f t="shared" si="53"/>
         <v>20755.128478192415</v>
       </c>
-      <c r="AU92" s="10">
-        <f>AT92*(1+$Z$85)</f>
+      <c r="AU91" s="10">
+        <f t="shared" si="53"/>
         <v>20962.679762974338</v>
       </c>
-      <c r="AV92" s="10">
-        <f>AU92*(1+$Z$85)</f>
+      <c r="AV91" s="10">
+        <f t="shared" si="53"/>
         <v>21172.30656060408</v>
       </c>
-      <c r="AW92" s="10">
-        <f>AV92*(1+$Z$85)</f>
+      <c r="AW91" s="10">
+        <f t="shared" si="53"/>
         <v>21384.029626210122</v>
       </c>
-      <c r="AX92" s="10">
-        <f>AW92*(1+$Z$85)</f>
+      <c r="AX91" s="10">
+        <f t="shared" si="53"/>
         <v>21597.869922472222</v>
       </c>
-      <c r="AY92" s="10">
-        <f>AX92*(1+$Z$85)</f>
+      <c r="AY91" s="10">
+        <f t="shared" si="53"/>
         <v>21813.848621696943</v>
       </c>
-      <c r="AZ92" s="10">
-        <f>AY92*(1+$Z$85)</f>
+      <c r="AZ91" s="10">
+        <f t="shared" si="53"/>
         <v>22031.987107913912</v>
       </c>
-      <c r="BA92" s="10">
-        <f>AZ92*(1+$Z$85)</f>
+      <c r="BA91" s="10">
+        <f t="shared" si="53"/>
         <v>22252.306978993052</v>
       </c>
-      <c r="BB92" s="10">
-        <f>BA92*(1+$Z$85)</f>
+      <c r="BB91" s="10">
+        <f t="shared" si="53"/>
         <v>22474.830048782984</v>
       </c>
-      <c r="BC92" s="10">
-        <f>BB92*(1+$Z$85)</f>
+      <c r="BC91" s="10">
+        <f t="shared" si="53"/>
         <v>22699.578349270814</v>
       </c>
-      <c r="BD92" s="10">
-        <f>BC92*(1+$Z$85)</f>
+      <c r="BD91" s="10">
+        <f t="shared" ref="BD91:CI91" si="54">BC91*(1+$Z$84)</f>
         <v>22926.574132763522</v>
       </c>
-      <c r="BE92" s="10">
-        <f>BD92*(1+$Z$85)</f>
+      <c r="BE91" s="10">
+        <f t="shared" si="54"/>
         <v>23155.839874091158</v>
       </c>
-      <c r="BF92" s="10">
-        <f>BE92*(1+$Z$85)</f>
+      <c r="BF91" s="10">
+        <f t="shared" si="54"/>
         <v>23387.39827283207</v>
       </c>
-      <c r="BG92" s="10">
-        <f>BF92*(1+$Z$85)</f>
+      <c r="BG91" s="10">
+        <f t="shared" si="54"/>
         <v>23621.27225556039</v>
       </c>
-      <c r="BH92" s="10">
-        <f>BG92*(1+$Z$85)</f>
+      <c r="BH91" s="10">
+        <f t="shared" si="54"/>
         <v>23857.484978115994</v>
       </c>
-      <c r="BI92" s="10">
-        <f>BH92*(1+$Z$85)</f>
+      <c r="BI91" s="10">
+        <f t="shared" si="54"/>
         <v>24096.059827897156</v>
       </c>
-      <c r="BJ92" s="10">
-        <f>BI92*(1+$Z$85)</f>
+      <c r="BJ91" s="10">
+        <f t="shared" si="54"/>
         <v>24337.020426176128</v>
       </c>
-      <c r="BK92" s="10">
-        <f>BJ92*(1+$Z$85)</f>
+      <c r="BK91" s="10">
+        <f t="shared" si="54"/>
         <v>24580.390630437891</v>
       </c>
-      <c r="BL92" s="10">
-        <f>BK92*(1+$Z$85)</f>
+      <c r="BL91" s="10">
+        <f t="shared" si="54"/>
         <v>24826.19453674227</v>
       </c>
-      <c r="BM92" s="10">
-        <f>BL92*(1+$Z$85)</f>
+      <c r="BM91" s="10">
+        <f t="shared" si="54"/>
         <v>25074.456482109694</v>
       </c>
-      <c r="BN92" s="10">
-        <f>BM92*(1+$Z$85)</f>
+      <c r="BN91" s="10">
+        <f t="shared" si="54"/>
         <v>25325.20104693079</v>
       </c>
-      <c r="BO92" s="10">
-        <f>BN92*(1+$Z$85)</f>
+      <c r="BO91" s="10">
+        <f t="shared" si="54"/>
         <v>25578.453057400096</v>
       </c>
-      <c r="BP92" s="10">
-        <f>BO92*(1+$Z$85)</f>
+      <c r="BP91" s="10">
+        <f t="shared" si="54"/>
         <v>25834.237587974098</v>
       </c>
-      <c r="BQ92" s="10">
-        <f>BP92*(1+$Z$85)</f>
+      <c r="BQ91" s="10">
+        <f t="shared" si="54"/>
         <v>26092.579963853837</v>
       </c>
-      <c r="BR92" s="10">
-        <f>BQ92*(1+$Z$85)</f>
+      <c r="BR91" s="10">
+        <f t="shared" si="54"/>
         <v>26353.505763492376</v>
       </c>
-      <c r="BS92" s="10">
-        <f>BR92*(1+$Z$85)</f>
+      <c r="BS91" s="10">
+        <f t="shared" si="54"/>
         <v>26617.040821127299</v>
       </c>
-      <c r="BT92" s="10">
-        <f>BS92*(1+$Z$85)</f>
+      <c r="BT91" s="10">
+        <f t="shared" si="54"/>
         <v>26883.211229338573</v>
       </c>
-      <c r="BU92" s="10">
-        <f>BT92*(1+$Z$85)</f>
+      <c r="BU91" s="10">
+        <f t="shared" si="54"/>
         <v>27152.043341631957</v>
       </c>
-      <c r="BV92" s="10">
-        <f>BU92*(1+$Z$85)</f>
+      <c r="BV91" s="10">
+        <f t="shared" si="54"/>
         <v>27423.563775048278</v>
       </c>
-      <c r="BW92" s="10">
-        <f>BV92*(1+$Z$85)</f>
+      <c r="BW91" s="10">
+        <f t="shared" si="54"/>
         <v>27697.799412798762</v>
       </c>
-      <c r="BX92" s="10">
-        <f>BW92*(1+$Z$85)</f>
+      <c r="BX91" s="10">
+        <f t="shared" si="54"/>
         <v>27974.777406926751</v>
       </c>
-      <c r="BY92" s="10">
-        <f>BX92*(1+$Z$85)</f>
+      <c r="BY91" s="10">
+        <f t="shared" si="54"/>
         <v>28254.525180996017</v>
       </c>
-      <c r="BZ92" s="10">
-        <f>BY92*(1+$Z$85)</f>
+      <c r="BZ91" s="10">
+        <f t="shared" si="54"/>
         <v>28537.070432805976</v>
       </c>
-      <c r="CA92" s="10">
-        <f>BZ92*(1+$Z$85)</f>
+      <c r="CA91" s="10">
+        <f t="shared" si="54"/>
         <v>28822.441137134036</v>
       </c>
-      <c r="CB92" s="10">
-        <f>CA92*(1+$Z$85)</f>
+      <c r="CB91" s="10">
+        <f t="shared" si="54"/>
         <v>29110.665548505378</v>
       </c>
-      <c r="CC92" s="10">
-        <f>CB92*(1+$Z$85)</f>
+      <c r="CC91" s="10">
+        <f t="shared" si="54"/>
         <v>29401.772203990433</v>
       </c>
-      <c r="CD92" s="10">
-        <f>CC92*(1+$Z$85)</f>
+      <c r="CD91" s="10">
+        <f t="shared" si="54"/>
         <v>29695.789926030338</v>
       </c>
-      <c r="CE92" s="10">
-        <f>CD92*(1+$Z$85)</f>
+      <c r="CE91" s="10">
+        <f t="shared" si="54"/>
         <v>29992.74782529064</v>
       </c>
-      <c r="CF92" s="10">
-        <f>CE92*(1+$Z$85)</f>
+      <c r="CF91" s="10">
+        <f t="shared" si="54"/>
         <v>30292.675303543547</v>
       </c>
-      <c r="CG92" s="10">
-        <f>CF92*(1+$Z$85)</f>
+      <c r="CG91" s="10">
+        <f t="shared" si="54"/>
         <v>30595.602056578984</v>
       </c>
-      <c r="CH92" s="10">
-        <f>CG92*(1+$Z$85)</f>
+      <c r="CH91" s="10">
+        <f t="shared" si="54"/>
         <v>30901.558077144775</v>
       </c>
-      <c r="CI92" s="10">
-        <f>CH92*(1+$Z$85)</f>
+      <c r="CI91" s="10">
+        <f t="shared" si="54"/>
         <v>31210.573657916222</v>
       </c>
-      <c r="CJ92" s="10">
-        <f>CI92*(1+$Z$85)</f>
+      <c r="CJ91" s="10">
+        <f t="shared" ref="CJ91:DK91" si="55">CI91*(1+$Z$84)</f>
         <v>31522.679394495386</v>
       </c>
-      <c r="CK92" s="10">
-        <f>CJ92*(1+$Z$85)</f>
+      <c r="CK91" s="10">
+        <f t="shared" si="55"/>
         <v>31837.906188440342</v>
       </c>
-      <c r="CL92" s="10">
-        <f>CK92*(1+$Z$85)</f>
+      <c r="CL91" s="10">
+        <f t="shared" si="55"/>
         <v>32156.285250324745</v>
       </c>
-      <c r="CM92" s="10">
-        <f>CL92*(1+$Z$85)</f>
+      <c r="CM91" s="10">
+        <f t="shared" si="55"/>
         <v>32477.848102827993</v>
       </c>
-      <c r="CN92" s="10">
-        <f>CM92*(1+$Z$85)</f>
+      <c r="CN91" s="10">
+        <f t="shared" si="55"/>
         <v>32802.626583856276</v>
       </c>
-      <c r="CO92" s="10">
-        <f>CN92*(1+$Z$85)</f>
+      <c r="CO91" s="10">
+        <f t="shared" si="55"/>
         <v>33130.652849694838</v>
       </c>
-      <c r="CP92" s="10">
-        <f>CO92*(1+$Z$85)</f>
+      <c r="CP91" s="10">
+        <f t="shared" si="55"/>
         <v>33461.959378191787</v>
       </c>
-      <c r="CQ92" s="10">
-        <f>CP92*(1+$Z$85)</f>
+      <c r="CQ91" s="10">
+        <f t="shared" si="55"/>
         <v>33796.578971973708</v>
       </c>
-      <c r="CR92" s="10">
-        <f>CQ92*(1+$Z$85)</f>
+      <c r="CR91" s="10">
+        <f t="shared" si="55"/>
         <v>34134.544761693447</v>
       </c>
-      <c r="CS92" s="10">
-        <f>CR92*(1+$Z$85)</f>
+      <c r="CS91" s="10">
+        <f t="shared" si="55"/>
         <v>34475.890209310382</v>
       </c>
-      <c r="CT92" s="10">
-        <f>CS92*(1+$Z$85)</f>
+      <c r="CT91" s="10">
+        <f t="shared" si="55"/>
         <v>34820.649111403487</v>
       </c>
-      <c r="CU92" s="10">
-        <f>CT92*(1+$Z$85)</f>
+      <c r="CU91" s="10">
+        <f t="shared" si="55"/>
         <v>35168.85560251752</v>
       </c>
-      <c r="CV92" s="10">
-        <f>CU92*(1+$Z$85)</f>
+      <c r="CV91" s="10">
+        <f t="shared" si="55"/>
         <v>35520.544158542696</v>
       </c>
-      <c r="CW92" s="10">
-        <f>CV92*(1+$Z$85)</f>
+      <c r="CW91" s="10">
+        <f t="shared" si="55"/>
         <v>35875.749600128125</v>
       </c>
-      <c r="CX92" s="10">
-        <f>CW92*(1+$Z$85)</f>
+      <c r="CX91" s="10">
+        <f t="shared" si="55"/>
         <v>36234.507096129404</v>
       </c>
-      <c r="CY92" s="10">
-        <f>CX92*(1+$Z$85)</f>
+      <c r="CY91" s="10">
+        <f t="shared" si="55"/>
         <v>36596.852167090699</v>
       </c>
-      <c r="CZ92" s="10">
-        <f>CY92*(1+$Z$85)</f>
+      <c r="CZ91" s="10">
+        <f t="shared" si="55"/>
         <v>36962.820688761603</v>
       </c>
-      <c r="DA92" s="10">
-        <f>CZ92*(1+$Z$85)</f>
+      <c r="DA91" s="10">
+        <f t="shared" si="55"/>
         <v>37332.448895649221</v>
       </c>
-      <c r="DB92" s="10">
-        <f>DA92*(1+$Z$85)</f>
+      <c r="DB91" s="10">
+        <f t="shared" si="55"/>
         <v>37705.773384605716</v>
       </c>
-      <c r="DC92" s="10">
-        <f>DB92*(1+$Z$85)</f>
+      <c r="DC91" s="10">
+        <f t="shared" si="55"/>
         <v>38082.831118451773</v>
       </c>
-      <c r="DD92" s="10">
-        <f>DC92*(1+$Z$85)</f>
+      <c r="DD91" s="10">
+        <f t="shared" si="55"/>
         <v>38463.659429636289</v>
       </c>
-      <c r="DE92" s="10">
-        <f>DD92*(1+$Z$85)</f>
+      <c r="DE91" s="10">
+        <f t="shared" si="55"/>
         <v>38848.296023932649</v>
       </c>
-      <c r="DF92" s="10">
-        <f>DE92*(1+$Z$85)</f>
+      <c r="DF91" s="10">
+        <f t="shared" si="55"/>
         <v>39236.778984171979</v>
       </c>
-      <c r="DG92" s="10">
-        <f>DF92*(1+$Z$85)</f>
+      <c r="DG91" s="10">
+        <f t="shared" si="55"/>
         <v>39629.146774013701</v>
       </c>
-      <c r="DH92" s="10">
-        <f>DG92*(1+$Z$85)</f>
+      <c r="DH91" s="10">
+        <f t="shared" si="55"/>
         <v>40025.438241753836</v>
       </c>
-      <c r="DI92" s="10">
-        <f>DH92*(1+$Z$85)</f>
+      <c r="DI91" s="10">
+        <f t="shared" si="55"/>
         <v>40425.692624171374</v>
       </c>
-      <c r="DJ92" s="10">
-        <f>DI92*(1+$Z$85)</f>
+      <c r="DJ91" s="10">
+        <f t="shared" si="55"/>
         <v>40829.94955041309</v>
       </c>
-      <c r="DK92" s="10">
-        <f>DJ92*(1+$Z$85)</f>
+      <c r="DK91" s="10">
+        <f t="shared" si="55"/>
         <v>41238.249045917219</v>
       </c>
     </row>
+    <row r="92" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="O92" s="14"/>
+      <c r="P92" s="14"/>
+      <c r="Q92" s="14"/>
+    </row>
     <row r="93" spans="1:115" x14ac:dyDescent="0.2">
-      <c r="O93" s="14"/>
-      <c r="P93" s="14"/>
       <c r="Q93" s="14"/>
-    </row>
-    <row r="94" spans="1:115" x14ac:dyDescent="0.2">
-      <c r="Q94" s="14"/>
-      <c r="R94" s="14"/>
-      <c r="S94" s="14"/>
-      <c r="T94" s="14"/>
-      <c r="U94" s="14"/>
-      <c r="V94" s="14"/>
-      <c r="W94" s="14"/>
+      <c r="R93" s="14"/>
+      <c r="S93" s="14"/>
+      <c r="T93" s="14"/>
+      <c r="U93" s="14"/>
+      <c r="V93" s="14"/>
+      <c r="W93" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4434,48 +4368,48 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/ADBE.xlsx
+++ b/ADBE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8636F7CC-3601-4CC5-93B8-6C46AD1DCE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D630466-4DFE-4CDB-B395-CE742A5BA1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="300" windowWidth="20925" windowHeight="15015" activeTab="1" xr2:uid="{B5255683-9904-4B96-B116-504FB2085B5B}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{B5255683-9904-4B96-B116-504FB2085B5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="106">
   <si>
     <t>Price</t>
   </si>
@@ -139,9 +139,6 @@
     <t>NPV</t>
   </si>
   <si>
-    <t>Diff</t>
-  </si>
-  <si>
     <t>Revenue y/y</t>
   </si>
   <si>
@@ -356,6 +353,9 @@
   </si>
   <si>
     <t>Figma?</t>
+  </si>
+  <si>
+    <t>Share</t>
   </si>
 </sst>
 </file>
@@ -365,13 +365,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -459,33 +465,34 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -926,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B5A162-EAE9-4CC5-AE4B-8B686CFC5399}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -937,107 +944,107 @@
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N3" s="2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="4">
+      <c r="K3" s="4">
         <v>424.2</v>
       </c>
-      <c r="P3" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N4" s="2" t="s">
+      <c r="L3" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="4">
-        <f>O3*O2</f>
+      <c r="K4" s="4">
+        <f>K3*K2</f>
         <v>148894.19999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N5" s="2" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="4">
+      <c r="K5" s="4">
         <f>4931+782</f>
         <v>5713</v>
       </c>
-      <c r="P5" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N6" s="2" t="s">
+      <c r="L5" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="4">
+      <c r="K6" s="4">
         <f>6166+114+477+323+540</f>
         <v>7620</v>
       </c>
-      <c r="P6" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N7" s="2" t="s">
+      <c r="L6" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="4">
-        <f>O4+O6-O5</f>
+      <c r="K7" s="4">
+        <f>K4+K6-K5</f>
         <v>150801.19999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O8" s="3" t="e">
-        <f>O2/(1.1*4*Model!G25)</f>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="e">
+        <f>K2/(1.1*4*Model!G25)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J10" s="21" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F10" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F11" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="N10" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J11" s="20" t="s">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F12" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F13" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J12" s="20" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F14" s="20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J13" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J14" s="20" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F16" s="23" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J16" s="23" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1050,10 +1057,10 @@
   <dimension ref="A1:DK93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="W65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y93" sqref="Y93"/>
+      <selection pane="bottomRight" activeCell="Y88" sqref="Y88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1071,33 +1078,33 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="J2" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L2" s="8">
         <v>2019</v>
@@ -1153,7 +1160,7 @@
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H3" s="6">
         <v>4300</v>
@@ -1183,7 +1190,7 @@
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H4" s="6">
         <v>1450</v>
@@ -1969,7 +1976,7 @@
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B20" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I20" s="6">
         <f>H34*$Z$83/4</f>
@@ -2377,7 +2384,7 @@
     </row>
     <row r="27" spans="2:27" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -2450,7 +2457,7 @@
     </row>
     <row r="28" spans="2:27" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12" t="e">
@@ -2497,7 +2504,7 @@
     </row>
     <row r="29" spans="2:27" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M29" s="12" t="e">
         <f t="shared" ref="M29:R29" si="40">SUM(M16:M17)/SUM(L16:L17)-1</f>
@@ -2620,7 +2627,7 @@
     </row>
     <row r="32" spans="2:27" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="14" t="e">
         <f t="shared" ref="C32:J32" si="43">C19/C9</f>
@@ -2833,7 +2840,7 @@
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P39" s="6">
         <v>701</v>
@@ -2844,7 +2851,7 @@
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P40" s="6">
         <v>2224</v>
@@ -2855,7 +2862,7 @@
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P41" s="6">
         <v>1018</v>
@@ -2866,7 +2873,7 @@
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P42" s="6">
         <v>2030</v>
@@ -2877,7 +2884,7 @@
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P43" s="6">
         <v>358</v>
@@ -2888,7 +2895,7 @@
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P44" s="6">
         <v>12805</v>
@@ -2899,7 +2906,7 @@
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P45" s="6">
         <v>1088</v>
@@ -2910,7 +2917,7 @@
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P46" s="6">
         <v>1191</v>
@@ -2921,7 +2928,7 @@
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P47" s="6">
         <v>1223</v>
@@ -2932,7 +2939,7 @@
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P48" s="6">
         <f>SUM(P38:P47)</f>
@@ -2945,7 +2952,7 @@
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P50" s="6">
         <v>314</v>
@@ -2956,7 +2963,7 @@
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P51" s="6">
         <v>1942</v>
@@ -2967,7 +2974,7 @@
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P52" s="6">
         <v>0</v>
@@ -2978,7 +2985,7 @@
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P53" s="6">
         <v>5837</v>
@@ -2989,7 +2996,7 @@
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P54" s="6">
         <v>85</v>
@@ -3000,7 +3007,7 @@
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P55" s="6">
         <v>73</v>
@@ -3011,7 +3018,7 @@
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P56" s="6">
         <v>3634</v>
@@ -3022,7 +3029,7 @@
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P57" s="6">
         <v>113</v>
@@ -3033,7 +3040,7 @@
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P58" s="6">
         <v>514</v>
@@ -3044,7 +3051,7 @@
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P59" s="6">
         <v>373</v>
@@ -3055,7 +3062,7 @@
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P60" s="6">
         <v>376</v>
@@ -3066,7 +3073,7 @@
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P61" s="6">
         <f>SUM(P50:P60)</f>
@@ -3079,7 +3086,7 @@
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P62" s="6">
         <f>P48-P61</f>
@@ -3092,7 +3099,7 @@
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P63" s="6">
         <f>P62+P61</f>
@@ -3105,7 +3112,7 @@
     </row>
     <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P65" s="6">
         <f>P40/P9*360</f>
@@ -3123,48 +3130,48 @@
     </row>
     <row r="67" spans="2:29" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O67" s="10">
-        <f>O23</f>
+        <f t="shared" ref="O67:W67" si="46">O23</f>
         <v>4884</v>
       </c>
       <c r="P67" s="10">
-        <f>P23</f>
+        <f t="shared" si="46"/>
         <v>5350</v>
       </c>
       <c r="Q67" s="10">
-        <f>Q23</f>
+        <f t="shared" si="46"/>
         <v>6418</v>
       </c>
       <c r="R67" s="10">
-        <f>R23</f>
+        <f t="shared" si="46"/>
         <v>7294.68002638498</v>
       </c>
       <c r="S67" s="10">
-        <f>S23</f>
+        <f t="shared" si="46"/>
         <v>8190.4390248322798</v>
       </c>
       <c r="T67" s="10">
-        <f>T23</f>
+        <f t="shared" si="46"/>
         <v>9284.0636386688475</v>
       </c>
       <c r="U67" s="10">
-        <f>U23</f>
+        <f t="shared" si="46"/>
         <v>10502.90545900313</v>
       </c>
       <c r="V67" s="10">
-        <f>V23</f>
+        <f t="shared" si="46"/>
         <v>11860.653131678255</v>
       </c>
       <c r="W67" s="10">
-        <f>W23</f>
+        <f t="shared" si="46"/>
         <v>13372.455836993808</v>
       </c>
     </row>
     <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B68" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O68" s="6">
         <v>4756</v>
@@ -3179,7 +3186,7 @@
     </row>
     <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B69" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O69" s="6">
         <v>856</v>
@@ -3191,33 +3198,33 @@
         <v>857</v>
       </c>
       <c r="R69" s="6">
-        <f>Q69*(1+R27)</f>
+        <f t="shared" ref="R69:W69" si="47">Q69*(1+R27)</f>
         <v>940.48825854452457</v>
       </c>
       <c r="S69" s="6">
-        <f>R69*(1+S27)</f>
+        <f t="shared" si="47"/>
         <v>1034.5370843989772</v>
       </c>
       <c r="T69" s="6">
-        <f>S69*(1+T27)</f>
+        <f t="shared" si="47"/>
         <v>1137.990792838875</v>
       </c>
       <c r="U69" s="6">
-        <f>T69*(1+U27)</f>
+        <f t="shared" si="47"/>
         <v>1251.7898721227625</v>
       </c>
       <c r="V69" s="6">
-        <f>U69*(1+V27)</f>
+        <f t="shared" si="47"/>
         <v>1376.9688593350388</v>
       </c>
       <c r="W69" s="6">
-        <f>V69*(1+W27)</f>
+        <f t="shared" si="47"/>
         <v>1514.6657452685429</v>
       </c>
     </row>
     <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B70" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O70" s="6">
         <v>1440</v>
@@ -3229,33 +3236,33 @@
         <v>1833</v>
       </c>
       <c r="R70" s="6">
-        <f t="shared" ref="R70:W70" si="46">Q70*1.1</f>
+        <f t="shared" ref="R70:W70" si="48">Q70*1.1</f>
         <v>2016.3000000000002</v>
       </c>
       <c r="S70" s="6">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>2217.9300000000003</v>
       </c>
       <c r="T70" s="6">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>2439.7230000000004</v>
       </c>
       <c r="U70" s="6">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>2683.6953000000008</v>
       </c>
       <c r="V70" s="6">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>2952.0648300000012</v>
       </c>
       <c r="W70" s="6">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>3247.2713130000016</v>
       </c>
     </row>
     <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B71" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O71" s="6">
         <v>83</v>
@@ -3267,33 +3274,33 @@
         <v>77</v>
       </c>
       <c r="R71" s="6">
-        <f>Q71*(1+R27)</f>
+        <f t="shared" ref="R71:W71" si="49">Q71*(1+R27)</f>
         <v>84.501278772378527</v>
       </c>
       <c r="S71" s="6">
-        <f>R71*(1+S27)</f>
+        <f t="shared" si="49"/>
         <v>92.951406649616388</v>
       </c>
       <c r="T71" s="6">
-        <f>S71*(1+T27)</f>
+        <f t="shared" si="49"/>
         <v>102.24654731457804</v>
       </c>
       <c r="U71" s="6">
-        <f>T71*(1+U27)</f>
+        <f t="shared" si="49"/>
         <v>112.47120204603586</v>
       </c>
       <c r="V71" s="6">
-        <f>U71*(1+V27)</f>
+        <f t="shared" si="49"/>
         <v>123.71832225063945</v>
       </c>
       <c r="W71" s="6">
-        <f>V71*(1+W27)</f>
+        <f t="shared" si="49"/>
         <v>136.0901544757034</v>
       </c>
     </row>
     <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B72" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O72" s="6">
         <v>0</v>
@@ -3305,33 +3312,33 @@
         <v>78</v>
       </c>
       <c r="R72" s="6">
-        <f>Q72*(1+R27)</f>
+        <f t="shared" ref="R72:W72" si="50">Q72*(1+R27)</f>
         <v>85.598697977214599</v>
       </c>
       <c r="S72" s="6">
-        <f>R72*(1+S27)</f>
+        <f t="shared" si="50"/>
         <v>94.15856777493606</v>
       </c>
       <c r="T72" s="6">
-        <f>S72*(1+T27)</f>
+        <f t="shared" si="50"/>
         <v>103.57442455242968</v>
       </c>
       <c r="U72" s="6">
-        <f>T72*(1+U27)</f>
+        <f t="shared" si="50"/>
         <v>113.93186700767265</v>
       </c>
       <c r="V72" s="6">
-        <f>U72*(1+V27)</f>
+        <f t="shared" si="50"/>
         <v>125.32505370843992</v>
       </c>
       <c r="W72" s="6">
-        <f>V72*(1+W27)</f>
+        <f t="shared" si="50"/>
         <v>137.85755907928393</v>
       </c>
     </row>
     <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B73" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O73" s="6">
         <v>328</v>
@@ -3343,33 +3350,33 @@
         <v>-468</v>
       </c>
       <c r="R73" s="6">
-        <f>Q73*(1+R27)</f>
+        <f t="shared" ref="R73:W73" si="51">Q73*(1+R27)</f>
         <v>-513.59218786328768</v>
       </c>
       <c r="S73" s="6">
-        <f>R73*(1+S27)</f>
+        <f t="shared" si="51"/>
         <v>-564.9514066496165</v>
       </c>
       <c r="T73" s="6">
-        <f>S73*(1+T27)</f>
+        <f t="shared" si="51"/>
         <v>-621.4465473145782</v>
       </c>
       <c r="U73" s="6">
-        <f>T73*(1+U27)</f>
+        <f t="shared" si="51"/>
         <v>-683.59120204603607</v>
       </c>
       <c r="V73" s="6">
-        <f>U73*(1+V27)</f>
+        <f t="shared" si="51"/>
         <v>-751.95032225063972</v>
       </c>
       <c r="W73" s="6">
-        <f>V73*(1+W27)</f>
+        <f t="shared" si="51"/>
         <v>-827.1453544757037</v>
       </c>
     </row>
     <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B74" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O74" s="6">
         <v>29</v>
@@ -3381,34 +3388,34 @@
         <v>-35</v>
       </c>
       <c r="R74" s="6">
-        <f>Q74*(1+R27)</f>
+        <f t="shared" ref="R74:W74" si="52">Q74*(1+R27)</f>
         <v>-38.409672169262961</v>
       </c>
       <c r="S74" s="6">
-        <f>R74*(1+S27)</f>
+        <f t="shared" si="52"/>
         <v>-42.250639386189263</v>
       </c>
       <c r="T74" s="6">
-        <f>S74*(1+T27)</f>
+        <f t="shared" si="52"/>
         <v>-46.475703324808194</v>
       </c>
       <c r="U74" s="6">
-        <f>T74*(1+U27)</f>
+        <f t="shared" si="52"/>
         <v>-51.123273657289019</v>
       </c>
       <c r="V74" s="6">
-        <f>U74*(1+V27)</f>
+        <f t="shared" si="52"/>
         <v>-56.235601023017928</v>
       </c>
       <c r="W74" s="6">
-        <f>V74*(1+W27)</f>
+        <f t="shared" si="52"/>
         <v>-61.859161125319723</v>
       </c>
       <c r="AC74" s="19"/>
     </row>
     <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B75" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O75" s="6">
         <v>10</v>
@@ -3420,34 +3427,34 @@
         <v>10</v>
       </c>
       <c r="R75" s="6">
-        <f>Q75*(1+R27)</f>
+        <f t="shared" ref="R75:W75" si="53">Q75*(1+R27)</f>
         <v>10.974192048360846</v>
       </c>
       <c r="S75" s="6">
-        <f>R75*(1+S27)</f>
+        <f t="shared" si="53"/>
         <v>12.071611253196933</v>
       </c>
       <c r="T75" s="6">
-        <f>S75*(1+T27)</f>
+        <f t="shared" si="53"/>
         <v>13.278772378516628</v>
       </c>
       <c r="U75" s="6">
-        <f>T75*(1+U27)</f>
+        <f t="shared" si="53"/>
         <v>14.606649616368292</v>
       </c>
       <c r="V75" s="6">
-        <f>U75*(1+V27)</f>
+        <f t="shared" si="53"/>
         <v>16.067314578005124</v>
       </c>
       <c r="W75" s="6">
-        <f>V75*(1+W27)</f>
+        <f t="shared" si="53"/>
         <v>17.674046035805638</v>
       </c>
       <c r="AC75" s="19"/>
     </row>
     <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B76" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O76" s="6">
         <v>-198</v>
@@ -3485,7 +3492,7 @@
     </row>
     <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O77" s="6">
         <v>-94</v>
@@ -3497,34 +3504,34 @@
         <v>-616</v>
       </c>
       <c r="R77" s="6">
-        <f>Q77*(1+R27)</f>
+        <f t="shared" ref="R77:W77" si="54">Q77*(1+R27)</f>
         <v>-676.01023017902821</v>
       </c>
       <c r="S77" s="6">
-        <f>R77*(1+S27)</f>
+        <f t="shared" si="54"/>
         <v>-743.6112531969311</v>
       </c>
       <c r="T77" s="6">
-        <f>S77*(1+T27)</f>
+        <f t="shared" si="54"/>
         <v>-817.9723785166243</v>
       </c>
       <c r="U77" s="6">
-        <f>T77*(1+U27)</f>
+        <f t="shared" si="54"/>
         <v>-899.76961636828685</v>
       </c>
       <c r="V77" s="6">
-        <f>U77*(1+V27)</f>
+        <f t="shared" si="54"/>
         <v>-989.74657800511557</v>
       </c>
       <c r="W77" s="6">
-        <f>V77*(1+W27)</f>
+        <f t="shared" si="54"/>
         <v>-1088.7212358056272</v>
       </c>
       <c r="AC77" s="19"/>
     </row>
     <row r="78" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B78" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O78" s="6">
         <v>66</v>
@@ -3536,34 +3543,34 @@
         <v>44</v>
       </c>
       <c r="R78" s="6">
-        <f>Q78*(1+R27)</f>
+        <f t="shared" ref="R78:W78" si="55">Q78*(1+R27)</f>
         <v>48.286445012787723</v>
       </c>
       <c r="S78" s="6">
-        <f>R78*(1+S27)</f>
+        <f t="shared" si="55"/>
         <v>53.115089514066497</v>
       </c>
       <c r="T78" s="6">
-        <f>S78*(1+T27)</f>
+        <f t="shared" si="55"/>
         <v>58.426598465473148</v>
       </c>
       <c r="U78" s="6">
-        <f>T78*(1+U27)</f>
+        <f t="shared" si="55"/>
         <v>64.269258312020469</v>
       </c>
       <c r="V78" s="6">
-        <f>U78*(1+V27)</f>
+        <f t="shared" si="55"/>
         <v>70.696184143222524</v>
       </c>
       <c r="W78" s="6">
-        <f>V78*(1+W27)</f>
+        <f t="shared" si="55"/>
         <v>77.765802557544788</v>
       </c>
       <c r="AC78" s="19"/>
     </row>
     <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O79" s="6">
         <v>7</v>
@@ -3575,33 +3582,33 @@
         <v>196</v>
       </c>
       <c r="R79" s="6">
-        <f>Q79*(1+R27)</f>
+        <f t="shared" ref="R79:W79" si="56">Q79*(1+R27)</f>
         <v>215.09416414787259</v>
       </c>
       <c r="S79" s="6">
-        <f>R79*(1+S27)</f>
+        <f t="shared" si="56"/>
         <v>236.60358056265986</v>
       </c>
       <c r="T79" s="6">
-        <f>S79*(1+T27)</f>
+        <f t="shared" si="56"/>
         <v>260.26393861892586</v>
       </c>
       <c r="U79" s="6">
-        <f>T79*(1+U27)</f>
+        <f t="shared" si="56"/>
         <v>286.29033248081845</v>
       </c>
       <c r="V79" s="6">
-        <f>U79*(1+V27)</f>
+        <f t="shared" si="56"/>
         <v>314.91936572890035</v>
       </c>
       <c r="W79" s="6">
-        <f>V79*(1+W27)</f>
+        <f t="shared" si="56"/>
         <v>346.41130230179039</v>
       </c>
     </row>
     <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B80" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O80" s="6">
         <v>19</v>
@@ -3613,33 +3620,33 @@
         <v>68</v>
       </c>
       <c r="R80" s="6">
-        <f>Q80*(1+R27)</f>
+        <f t="shared" ref="R80:W80" si="57">Q80*(1+R27)</f>
         <v>74.624505928853765</v>
       </c>
       <c r="S80" s="6">
-        <f>R80*(1+S27)</f>
+        <f t="shared" si="57"/>
         <v>82.086956521739154</v>
       </c>
       <c r="T80" s="6">
-        <f>S80*(1+T27)</f>
+        <f t="shared" si="57"/>
         <v>90.295652173913084</v>
       </c>
       <c r="U80" s="6">
-        <f>T80*(1+U27)</f>
+        <f t="shared" si="57"/>
         <v>99.325217391304406</v>
       </c>
       <c r="V80" s="6">
-        <f>U80*(1+V27)</f>
+        <f t="shared" si="57"/>
         <v>109.25773913043486</v>
       </c>
       <c r="W80" s="6">
-        <f>V80*(1+W27)</f>
+        <f t="shared" si="57"/>
         <v>120.18351304347836</v>
       </c>
     </row>
     <row r="81" spans="1:115" x14ac:dyDescent="0.2">
       <c r="B81" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O81" s="6">
         <v>536</v>
@@ -3692,11 +3699,11 @@
         <v>7838</v>
       </c>
       <c r="P82" s="10">
-        <f t="shared" ref="P82:Q82" si="47">SUM(P68:P81)</f>
+        <f t="shared" ref="P82:Q82" si="58">SUM(P68:P81)</f>
         <v>7302</v>
       </c>
       <c r="Q82" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="58"/>
         <v>8056</v>
       </c>
       <c r="R82" s="10">
@@ -3704,29 +3711,29 @@
         <v>9542.5354786053977</v>
       </c>
       <c r="S82" s="10">
-        <f t="shared" ref="S82:V82" si="48">SUM(S67:S81)</f>
+        <f t="shared" ref="S82:V82" si="59">SUM(S67:S81)</f>
         <v>10663.080022274735</v>
       </c>
       <c r="T82" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="59"/>
         <v>12003.968735855549</v>
       </c>
       <c r="U82" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="59"/>
         <v>13494.801065908499</v>
       </c>
       <c r="V82" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="59"/>
         <v>15151.738299274164</v>
       </c>
       <c r="W82" s="10">
-        <f t="shared" ref="W82" si="49">SUM(W67:W81)</f>
+        <f t="shared" ref="W82" si="60">SUM(W67:W81)</f>
         <v>16992.649521349304</v>
       </c>
     </row>
     <row r="83" spans="1:115" x14ac:dyDescent="0.2">
       <c r="B83" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O83" s="6">
         <v>-909</v>
@@ -3746,7 +3753,7 @@
     </row>
     <row r="84" spans="1:115" x14ac:dyDescent="0.2">
       <c r="B84" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O84" s="6">
         <v>683</v>
@@ -3766,7 +3773,7 @@
     </row>
     <row r="85" spans="1:115" x14ac:dyDescent="0.2">
       <c r="B85" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O85" s="6">
         <v>270</v>
@@ -3786,7 +3793,7 @@
     </row>
     <row r="86" spans="1:115" x14ac:dyDescent="0.2">
       <c r="B86" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O86" s="6">
         <v>-126</v>
@@ -3801,13 +3808,13 @@
         <v>32</v>
       </c>
       <c r="Z86" s="10">
-        <f>NPV(Z85,R91:DK91)+Main!O5-Main!O6</f>
+        <f>NPV(Z85,R91:DK91)+Main!K5-Main!K6</f>
         <v>189943.56809548015</v>
       </c>
     </row>
     <row r="87" spans="1:115" x14ac:dyDescent="0.2">
       <c r="B87" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O87" s="6">
         <v>-442</v>
@@ -3818,17 +3825,17 @@
       <c r="Q87" s="6">
         <v>-183</v>
       </c>
-      <c r="Y87" s="6" t="s">
-        <v>0</v>
+      <c r="Y87" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="Z87" s="9">
-        <f>Z86/Main!O3</f>
+        <f>Z86/Main!K3</f>
         <v>447.76890168665761</v>
       </c>
     </row>
     <row r="88" spans="1:115" x14ac:dyDescent="0.2">
       <c r="B88" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O88" s="6">
         <v>-46</v>
@@ -3839,17 +3846,14 @@
       <c r="Q88" s="6">
         <v>-108</v>
       </c>
-      <c r="Y88" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="Z88" s="14">
-        <f>Z87/Main!O2-1</f>
+        <f>Z87/Main!K2-1</f>
         <v>0.27569487660016412</v>
       </c>
     </row>
     <row r="89" spans="1:115" x14ac:dyDescent="0.2">
       <c r="B89" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O89" s="6">
         <v>0</v>
@@ -3864,7 +3868,7 @@
     <row r="90" spans="1:115" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3879,11 +3883,11 @@
         <v>-568</v>
       </c>
       <c r="P90" s="10">
-        <f t="shared" ref="P90:Q90" si="50">P87+P86</f>
+        <f t="shared" ref="P90:Q90" si="61">P87+P86</f>
         <v>-360</v>
       </c>
       <c r="Q90" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="61"/>
         <v>-183</v>
       </c>
       <c r="R90" s="10">
@@ -3928,403 +3932,403 @@
         <v>7270</v>
       </c>
       <c r="P91" s="10">
-        <f t="shared" ref="P91:V91" si="51">P82+P90</f>
+        <f t="shared" ref="P91:V91" si="62">P82+P90</f>
         <v>6942</v>
       </c>
       <c r="Q91" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>7873</v>
       </c>
       <c r="R91" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>9242.5354786053977</v>
       </c>
       <c r="S91" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>10333.080022274735</v>
       </c>
       <c r="T91" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>11640.968735855549</v>
       </c>
       <c r="U91" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>13095.5010659085</v>
       </c>
       <c r="V91" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>14712.508299274165</v>
       </c>
       <c r="W91" s="10">
-        <f t="shared" ref="W91" si="52">W82+W90</f>
+        <f t="shared" ref="W91" si="63">W82+W90</f>
         <v>16509.496521349305</v>
       </c>
       <c r="X91" s="10">
-        <f t="shared" ref="X91:BC91" si="53">W91*(1+$Z$84)</f>
+        <f t="shared" ref="X91:BC91" si="64">W91*(1+$Z$84)</f>
         <v>16674.5914865628</v>
       </c>
       <c r="Y91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>16841.337401428427</v>
       </c>
       <c r="Z91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>17009.750775442713</v>
       </c>
       <c r="AA91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>17179.848283197141</v>
       </c>
       <c r="AB91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>17351.646766029113</v>
       </c>
       <c r="AC91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>17525.163233689404</v>
       </c>
       <c r="AD91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>17700.414866026298</v>
       </c>
       <c r="AE91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>17877.419014686562</v>
       </c>
       <c r="AF91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>18056.193204833427</v>
       </c>
       <c r="AG91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>18236.755136881762</v>
       </c>
       <c r="AH91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>18419.12268825058</v>
       </c>
       <c r="AI91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>18603.313915133087</v>
       </c>
       <c r="AJ91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>18789.347054284419</v>
       </c>
       <c r="AK91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>18977.240524827263</v>
       </c>
       <c r="AL91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>19167.012930075536</v>
       </c>
       <c r="AM91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>19358.683059376293</v>
       </c>
       <c r="AN91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>19552.269889970055</v>
       </c>
       <c r="AO91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>19747.792588869757</v>
       </c>
       <c r="AP91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>19945.270514758457</v>
       </c>
       <c r="AQ91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>20144.723219906042</v>
       </c>
       <c r="AR91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>20346.170452105103</v>
       </c>
       <c r="AS91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>20549.632156626154</v>
       </c>
       <c r="AT91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>20755.128478192415</v>
       </c>
       <c r="AU91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>20962.679762974338</v>
       </c>
       <c r="AV91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>21172.30656060408</v>
       </c>
       <c r="AW91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>21384.029626210122</v>
       </c>
       <c r="AX91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>21597.869922472222</v>
       </c>
       <c r="AY91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>21813.848621696943</v>
       </c>
       <c r="AZ91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>22031.987107913912</v>
       </c>
       <c r="BA91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>22252.306978993052</v>
       </c>
       <c r="BB91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>22474.830048782984</v>
       </c>
       <c r="BC91" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>22699.578349270814</v>
       </c>
       <c r="BD91" s="10">
-        <f t="shared" ref="BD91:CI91" si="54">BC91*(1+$Z$84)</f>
+        <f t="shared" ref="BD91:CI91" si="65">BC91*(1+$Z$84)</f>
         <v>22926.574132763522</v>
       </c>
       <c r="BE91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>23155.839874091158</v>
       </c>
       <c r="BF91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>23387.39827283207</v>
       </c>
       <c r="BG91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>23621.27225556039</v>
       </c>
       <c r="BH91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>23857.484978115994</v>
       </c>
       <c r="BI91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>24096.059827897156</v>
       </c>
       <c r="BJ91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>24337.020426176128</v>
       </c>
       <c r="BK91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>24580.390630437891</v>
       </c>
       <c r="BL91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>24826.19453674227</v>
       </c>
       <c r="BM91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>25074.456482109694</v>
       </c>
       <c r="BN91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>25325.20104693079</v>
       </c>
       <c r="BO91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>25578.453057400096</v>
       </c>
       <c r="BP91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>25834.237587974098</v>
       </c>
       <c r="BQ91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>26092.579963853837</v>
       </c>
       <c r="BR91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>26353.505763492376</v>
       </c>
       <c r="BS91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>26617.040821127299</v>
       </c>
       <c r="BT91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>26883.211229338573</v>
       </c>
       <c r="BU91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>27152.043341631957</v>
       </c>
       <c r="BV91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>27423.563775048278</v>
       </c>
       <c r="BW91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>27697.799412798762</v>
       </c>
       <c r="BX91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>27974.777406926751</v>
       </c>
       <c r="BY91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>28254.525180996017</v>
       </c>
       <c r="BZ91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>28537.070432805976</v>
       </c>
       <c r="CA91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>28822.441137134036</v>
       </c>
       <c r="CB91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>29110.665548505378</v>
       </c>
       <c r="CC91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>29401.772203990433</v>
       </c>
       <c r="CD91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>29695.789926030338</v>
       </c>
       <c r="CE91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>29992.74782529064</v>
       </c>
       <c r="CF91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>30292.675303543547</v>
       </c>
       <c r="CG91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>30595.602056578984</v>
       </c>
       <c r="CH91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>30901.558077144775</v>
       </c>
       <c r="CI91" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>31210.573657916222</v>
       </c>
       <c r="CJ91" s="10">
-        <f t="shared" ref="CJ91:DK91" si="55">CI91*(1+$Z$84)</f>
+        <f t="shared" ref="CJ91:DK91" si="66">CI91*(1+$Z$84)</f>
         <v>31522.679394495386</v>
       </c>
       <c r="CK91" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>31837.906188440342</v>
       </c>
       <c r="CL91" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>32156.285250324745</v>
       </c>
       <c r="CM91" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>32477.848102827993</v>
       </c>
       <c r="CN91" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>32802.626583856276</v>
       </c>
       <c r="CO91" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>33130.652849694838</v>
       </c>
       <c r="CP91" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>33461.959378191787</v>
       </c>
       <c r="CQ91" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>33796.578971973708</v>
       </c>
       <c r="CR91" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>34134.544761693447</v>
       </c>
       <c r="CS91" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>34475.890209310382</v>
       </c>
       <c r="CT91" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>34820.649111403487</v>
       </c>
       <c r="CU91" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>35168.85560251752</v>
       </c>
       <c r="CV91" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>35520.544158542696</v>
       </c>
       <c r="CW91" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>35875.749600128125</v>
       </c>
       <c r="CX91" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>36234.507096129404</v>
       </c>
       <c r="CY91" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>36596.852167090699</v>
       </c>
       <c r="CZ91" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>36962.820688761603</v>
       </c>
       <c r="DA91" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>37332.448895649221</v>
       </c>
       <c r="DB91" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>37705.773384605716</v>
       </c>
       <c r="DC91" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>38082.831118451773</v>
       </c>
       <c r="DD91" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>38463.659429636289</v>
       </c>
       <c r="DE91" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>38848.296023932649</v>
       </c>
       <c r="DF91" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>39236.778984171979</v>
       </c>
       <c r="DG91" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>39629.146774013701</v>
       </c>
       <c r="DH91" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>40025.438241753836</v>
       </c>
       <c r="DI91" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>40425.692624171374</v>
       </c>
       <c r="DJ91" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>40829.94955041309</v>
       </c>
       <c r="DK91" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>41238.249045917219</v>
       </c>
     </row>
@@ -4368,48 +4372,48 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
